--- a/Scrum/Proyect/Sprint-backlog-template (1).xlsx
+++ b/Scrum/Proyect/Sprint-backlog-template (1).xlsx
@@ -5,16 +5,16 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisma\Documents\Visual Studio 2015\Projects\WindowsFormsApplication3\Scrum\Templates\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisma\Documents\Visual Studio 2015\Projects\WindowsFormsApplication3\Scrum\Proyect\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -89,34 +89,46 @@
     <t>User Story #4 - Have info from MLB and Covers</t>
   </si>
   <si>
-    <t>Align MLB Series per day</t>
-  </si>
-  <si>
-    <t>Create class / db model</t>
-  </si>
-  <si>
-    <t>Create MLB Serie Class</t>
-  </si>
-  <si>
-    <t>Extract dat from team</t>
-  </si>
-  <si>
     <t>Create MLB Game Class</t>
   </si>
   <si>
     <t>User Story #5 - Fill data continuosly</t>
   </si>
   <si>
-    <t>Fill data periodically</t>
+    <t>Estimated remaining hours</t>
   </si>
   <si>
-    <t>Creting of sheets depending of quantities and dates</t>
+    <t>Day 6</t>
   </si>
   <si>
-    <t>Order schedule</t>
+    <t>Day 7</t>
   </si>
   <si>
-    <t>http://www.covers.com/pageLoader/pageLoader.aspx?page=/data/mlb/matchups/g4_summary_12.html</t>
+    <t>Total remaining hours</t>
+  </si>
+  <si>
+    <t>2.1 . Align MLB Series per day</t>
+  </si>
+  <si>
+    <t>2.2 Order schedule</t>
+  </si>
+  <si>
+    <t>3.1 Creting of sheets depending of quantities and dates</t>
+  </si>
+  <si>
+    <t>5.1 Fill data periodically</t>
+  </si>
+  <si>
+    <t>Extract Pitchers (21/8/17 - 22/8/17)</t>
+  </si>
+  <si>
+    <t>1.1 Extract dat from team (22/8/17)</t>
+  </si>
+  <si>
+    <t>1.2 Create class / db model (23/8/17)</t>
+  </si>
+  <si>
+    <t>1.3 Create MLB Serie Class (24/8/17)</t>
   </si>
 </sst>
 </file>
@@ -239,7 +251,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,10 +279,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -382,7 +397,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Sprint Burndown Chart</c:v>
+            <c:v>Total remaining</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
@@ -404,9 +419,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$6:$K$6</c:f>
+              <c:f>Sheet1!$F$6:$M$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -423,6 +438,12 @@
                   <c:v>Day 5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Sprint Review</c:v>
                 </c:pt>
               </c:strCache>
@@ -430,30 +451,125 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$32:$K$32</c:f>
+              <c:f>Sheet1!$E$34:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>76</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimated remaining</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$6:$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sprint Review</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$35:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52</c:v>
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -469,11 +585,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-715732000"/>
-        <c:axId val="-715730912"/>
+        <c:axId val="-464641424"/>
+        <c:axId val="-407035680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-715732000"/>
+        <c:axId val="-464641424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,7 +631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-715730912"/>
+        <c:crossAx val="-407035680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -523,7 +639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-715730912"/>
+        <c:axId val="-407035680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -573,7 +689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-715732000"/>
+        <c:crossAx val="-464641424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1173,16 +1289,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1243,13 +1359,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>49524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>396875</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>796925</xdr:colOff>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1602,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA136"/>
+  <dimension ref="A1:AC137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1613,12 +1729,12 @@
     <col min="1" max="1" width="53.5" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="11" max="11" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="5"/>
@@ -1647,7 +1763,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
@@ -1676,7 +1792,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
@@ -1707,7 +1823,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
@@ -1736,7 +1852,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
@@ -1765,7 +1881,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1797,10 +1913,14 @@
         <v>9</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -1815,8 +1935,10 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
-    </row>
-    <row r="7" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+    </row>
+    <row r="7" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -1832,8 +1954,8 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -1848,10 +1970,12 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
@@ -1859,26 +1983,14 @@
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="4">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4">
-        <v>10</v>
-      </c>
-      <c r="I8" s="4">
-        <v>10</v>
-      </c>
-      <c r="J8" s="4">
-        <v>10</v>
-      </c>
-      <c r="K8" s="4">
-        <v>10</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -1893,10 +2005,12 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
@@ -1904,26 +2018,14 @@
       <c r="E9" s="4">
         <v>5</v>
       </c>
-      <c r="F9" s="4">
-        <v>5</v>
-      </c>
-      <c r="G9" s="4">
-        <v>5</v>
-      </c>
-      <c r="H9" s="4">
-        <v>5</v>
-      </c>
-      <c r="I9" s="4">
-        <v>5</v>
-      </c>
-      <c r="J9" s="4">
-        <v>5</v>
-      </c>
-      <c r="K9" s="4">
-        <v>5</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -1938,10 +2040,12 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
@@ -1949,26 +2053,14 @@
       <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="4">
-        <v>3</v>
-      </c>
-      <c r="G10" s="4">
-        <v>3</v>
-      </c>
-      <c r="H10" s="4">
-        <v>3</v>
-      </c>
-      <c r="I10" s="4">
-        <v>3</v>
-      </c>
-      <c r="J10" s="4">
-        <v>3</v>
-      </c>
-      <c r="K10" s="4">
-        <v>3</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -1983,10 +2075,12 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
@@ -1994,26 +2088,14 @@
       <c r="E11" s="4">
         <v>3</v>
       </c>
-      <c r="F11" s="4">
-        <v>3</v>
-      </c>
-      <c r="G11" s="4">
-        <v>3</v>
-      </c>
-      <c r="H11" s="4">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <v>3</v>
-      </c>
-      <c r="J11" s="4">
-        <v>3</v>
-      </c>
-      <c r="K11" s="4">
-        <v>3</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -2028,8 +2110,10 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
-    </row>
-    <row r="12" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+    </row>
+    <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2045,8 +2129,8 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -2061,10 +2145,12 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
@@ -2072,26 +2158,14 @@
       <c r="E13" s="4">
         <v>8</v>
       </c>
-      <c r="F13" s="4">
-        <v>8</v>
-      </c>
-      <c r="G13" s="4">
-        <v>8</v>
-      </c>
-      <c r="H13" s="4">
-        <v>8</v>
-      </c>
-      <c r="I13" s="4">
-        <v>8</v>
-      </c>
-      <c r="J13" s="4">
-        <v>8</v>
-      </c>
-      <c r="K13" s="4">
-        <v>8</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -2106,10 +2180,12 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
@@ -2117,26 +2193,14 @@
       <c r="E14" s="4">
         <v>7</v>
       </c>
-      <c r="F14" s="4">
-        <v>7</v>
-      </c>
-      <c r="G14" s="4">
-        <v>7</v>
-      </c>
-      <c r="H14" s="4">
-        <v>7</v>
-      </c>
-      <c r="I14" s="4">
-        <v>7</v>
-      </c>
-      <c r="J14" s="4">
-        <v>7</v>
-      </c>
-      <c r="K14" s="4">
-        <v>7</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -2151,8 +2215,10 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
@@ -2164,8 +2230,8 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
@@ -2180,8 +2246,10 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
@@ -2193,8 +2261,8 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -2209,8 +2277,10 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
-    </row>
-    <row r="17" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+    </row>
+    <row r="17" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>19</v>
       </c>
@@ -2226,8 +2296,8 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -2242,10 +2312,12 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
@@ -2253,26 +2325,14 @@
       <c r="E18" s="4">
         <v>8</v>
       </c>
-      <c r="F18" s="4">
-        <v>8</v>
-      </c>
-      <c r="G18" s="4">
-        <v>8</v>
-      </c>
-      <c r="H18" s="4">
-        <v>8</v>
-      </c>
-      <c r="I18" s="4">
-        <v>8</v>
-      </c>
-      <c r="J18" s="4">
-        <v>8</v>
-      </c>
-      <c r="K18" s="4">
-        <v>8</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
@@ -2287,8 +2347,10 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
@@ -2300,8 +2362,8 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
@@ -2316,8 +2378,10 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
@@ -2329,8 +2393,8 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
@@ -2345,8 +2409,10 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
@@ -2358,8 +2424,8 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
@@ -2374,8 +2440,10 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
-    </row>
-    <row r="22" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+    </row>
+    <row r="22" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
@@ -2391,8 +2459,8 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
@@ -2407,37 +2475,29 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4">
+      <c r="B23" s="15"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="15">
         <v>8</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="15">
         <v>8</v>
       </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
@@ -2452,37 +2512,29 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4">
+      <c r="B24" s="15"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="15">
         <v>8</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="15">
         <v>8</v>
       </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0</v>
-      </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
@@ -2497,37 +2549,29 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4">
+      <c r="B25" s="15"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="15">
         <v>8</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="15">
         <v>8</v>
       </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
@@ -2542,23 +2586,31 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="15">
+        <v>8</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="15">
+        <v>8</v>
+      </c>
+      <c r="F26" s="15">
+        <v>4</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
@@ -2573,10 +2625,12 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
-    </row>
-    <row r="27" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+    </row>
+    <row r="27" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B27" s="8">
         <v>3</v>
@@ -2590,8 +2644,8 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
@@ -2606,10 +2660,12 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
@@ -2617,26 +2673,14 @@
       <c r="E28" s="4">
         <v>8</v>
       </c>
-      <c r="F28" s="4">
-        <v>8</v>
-      </c>
-      <c r="G28" s="4">
-        <v>8</v>
-      </c>
-      <c r="H28" s="4">
-        <v>8</v>
-      </c>
-      <c r="I28" s="4">
-        <v>8</v>
-      </c>
-      <c r="J28" s="4">
-        <v>8</v>
-      </c>
-      <c r="K28" s="4">
-        <v>8</v>
-      </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
@@ -2651,8 +2695,10 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
@@ -2664,8 +2710,8 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
@@ -2680,8 +2726,10 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
@@ -2693,8 +2741,8 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -2709,8 +2757,10 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
@@ -2722,8 +2772,8 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
@@ -2738,44 +2788,23 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
-    </row>
-    <row r="32" spans="1:27" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11">
-        <f>SUM(E7:E31)</f>
-        <v>76</v>
-      </c>
-      <c r="F32" s="11">
-        <f>SUM(F8:F31)</f>
-        <v>76</v>
-      </c>
-      <c r="G32" s="11">
-        <f>SUM(G7:G31)</f>
-        <v>52</v>
-      </c>
-      <c r="H32" s="11">
-        <f>SUM(H7:H31)</f>
-        <v>52</v>
-      </c>
-      <c r="I32" s="11">
-        <f>SUM(I7:I31)</f>
-        <v>52</v>
-      </c>
-      <c r="J32" s="11">
-        <f>SUM(J7:J31)</f>
-        <v>52</v>
-      </c>
-      <c r="K32" s="11">
-        <f>SUM(K7:K31)</f>
-        <v>52</v>
-      </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
@@ -2790,21 +2819,23 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -2819,21 +2850,36 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+    </row>
+    <row r="34" spans="1:29" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="11">
+        <f>SUM(E7:E33)</f>
+        <v>84</v>
+      </c>
+      <c r="F34" s="11">
+        <f>E34-SUM(F8:F33)</f>
+        <v>56</v>
+      </c>
+      <c r="G34" s="11">
+        <f>F34-SUM(G8:G33)</f>
+        <v>56</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -2848,30 +2894,62 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="5">
+        <f>SUM(E8:E33)</f>
+        <v>84</v>
+      </c>
+      <c r="F35" s="5">
+        <f>76-8</f>
+        <v>68</v>
+      </c>
+      <c r="G35" s="5">
+        <f>F35-8</f>
+        <v>60</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" ref="H35:N35" si="0">G35-8</f>
+        <v>52</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="J35" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="K35" s="5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="L35" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M35" s="5">
+        <f>L35-8</f>
+        <v>12</v>
+      </c>
+      <c r="N35" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
@@ -2880,27 +2958,29 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
@@ -2909,27 +2989,27 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
@@ -2938,27 +3018,27 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
@@ -2967,27 +3047,27 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
@@ -2996,27 +3076,27 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
@@ -3025,27 +3105,27 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
@@ -3054,7 +3134,7 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="5"/>
@@ -3083,7 +3163,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="5"/>
@@ -3112,7 +3192,7 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="5"/>
@@ -3141,7 +3221,7 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="5"/>
@@ -3170,7 +3250,7 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="5"/>
@@ -3199,7 +3279,7 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="5"/>
@@ -3228,7 +3308,7 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="5"/>
@@ -5809,135 +5889,189 @@
       <c r="Z136" s="5"/>
       <c r="AA136" s="5"/>
     </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A137" s="5"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="5"/>
+      <c r="M137" s="5"/>
+      <c r="N137" s="5"/>
+      <c r="O137" s="5"/>
+      <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
+      <c r="R137" s="5"/>
+      <c r="S137" s="5"/>
+      <c r="T137" s="5"/>
+      <c r="U137" s="5"/>
+      <c r="V137" s="5"/>
+      <c r="W137" s="5"/>
+      <c r="X137" s="5"/>
+      <c r="Y137" s="5"/>
+      <c r="Z137" s="5"/>
+      <c r="AA137" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A35:T40"/>
+    <mergeCell ref="A36:T41"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A35" r:id="rId1"/>
-    <hyperlink ref="B35" r:id="rId2" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="C35" r:id="rId3" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="D35" r:id="rId4" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="E35" r:id="rId5" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="F35" r:id="rId6" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="G35" r:id="rId7" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="H35" r:id="rId8" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="I35" r:id="rId9" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="J35" r:id="rId10" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="K35" r:id="rId11" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="L35" r:id="rId12" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="M35" r:id="rId13" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="N35" r:id="rId14" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="O35" r:id="rId15" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="P35" r:id="rId16" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="Q35" r:id="rId17" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="R35" r:id="rId18" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="S35" r:id="rId19" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="T35" r:id="rId20" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="A36" r:id="rId21" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="B36" r:id="rId22" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="C36" r:id="rId23" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="D36" r:id="rId24" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="E36" r:id="rId25" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="F36" r:id="rId26" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="G36" r:id="rId27" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="H36" r:id="rId28" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="I36" r:id="rId29" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="J36" r:id="rId30" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="K36" r:id="rId31" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="L36" r:id="rId32" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="M36" r:id="rId33" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="N36" r:id="rId34" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="O36" r:id="rId35" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="P36" r:id="rId36" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="Q36" r:id="rId37" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="R36" r:id="rId38" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="S36" r:id="rId39" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="T36" r:id="rId40" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="A37" r:id="rId41" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="B37" r:id="rId42" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="C37" r:id="rId43" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="D37" r:id="rId44" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="E37" r:id="rId45" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="F37" r:id="rId46" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="G37" r:id="rId47" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="H37" r:id="rId48" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="I37" r:id="rId49" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="J37" r:id="rId50" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="K37" r:id="rId51" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="L37" r:id="rId52" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="M37" r:id="rId53" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="N37" r:id="rId54" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="O37" r:id="rId55" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="P37" r:id="rId56" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="Q37" r:id="rId57" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="R37" r:id="rId58" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="S37" r:id="rId59" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="T37" r:id="rId60" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="A38" r:id="rId61" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="B38" r:id="rId62" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="C38" r:id="rId63" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="D38" r:id="rId64" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="E38" r:id="rId65" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="F38" r:id="rId66" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="G38" r:id="rId67" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="H38" r:id="rId68" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="I38" r:id="rId69" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="J38" r:id="rId70" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="K38" r:id="rId71" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="L38" r:id="rId72" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="M38" r:id="rId73" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="N38" r:id="rId74" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="O38" r:id="rId75" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="P38" r:id="rId76" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="Q38" r:id="rId77" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="R38" r:id="rId78" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="S38" r:id="rId79" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="T38" r:id="rId80" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="A39" r:id="rId81" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="B39" r:id="rId82" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="C39" r:id="rId83" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="D39" r:id="rId84" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="E39" r:id="rId85" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="F39" r:id="rId86" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="G39" r:id="rId87" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="H39" r:id="rId88" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="I39" r:id="rId89" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="J39" r:id="rId90" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="K39" r:id="rId91" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="L39" r:id="rId92" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="M39" r:id="rId93" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="N39" r:id="rId94" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="O39" r:id="rId95" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="P39" r:id="rId96" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="Q39" r:id="rId97" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="R39" r:id="rId98" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="S39" r:id="rId99" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="T39" r:id="rId100" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="A40" r:id="rId101" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="B40" r:id="rId102" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="C40" r:id="rId103" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="D40" r:id="rId104" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="E40" r:id="rId105" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="F40" r:id="rId106" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="G40" r:id="rId107" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="H40" r:id="rId108" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="I40" r:id="rId109" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="J40" r:id="rId110" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="K40" r:id="rId111" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="L40" r:id="rId112" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="M40" r:id="rId113" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="N40" r:id="rId114" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="O40" r:id="rId115" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="P40" r:id="rId116" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="Q40" r:id="rId117" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="R40" r:id="rId118" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="S40" r:id="rId119" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="T40" r:id="rId120" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="A36" r:id="rId1"/>
+    <hyperlink ref="B36" r:id="rId2" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="C36" r:id="rId3" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="D36" r:id="rId4" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="E36" r:id="rId5" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="F36" r:id="rId6" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="G36" r:id="rId7" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="H36" r:id="rId8" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="I36" r:id="rId9" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="J36" r:id="rId10" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="K36" r:id="rId11" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="L36" r:id="rId12" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="M36" r:id="rId13" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="N36" r:id="rId14" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="O36" r:id="rId15" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="P36" r:id="rId16" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="Q36" r:id="rId17" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="R36" r:id="rId18" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="S36" r:id="rId19" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="T36" r:id="rId20" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="A37" r:id="rId21" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="B37" r:id="rId22" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="C37" r:id="rId23" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="D37" r:id="rId24" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="E37" r:id="rId25" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="F37" r:id="rId26" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="G37" r:id="rId27" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="H37" r:id="rId28" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="I37" r:id="rId29" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="J37" r:id="rId30" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="K37" r:id="rId31" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="L37" r:id="rId32" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="M37" r:id="rId33" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="N37" r:id="rId34" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="O37" r:id="rId35" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="P37" r:id="rId36" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="Q37" r:id="rId37" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="R37" r:id="rId38" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="S37" r:id="rId39" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="T37" r:id="rId40" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="A38" r:id="rId41" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="B38" r:id="rId42" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="C38" r:id="rId43" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="D38" r:id="rId44" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="E38" r:id="rId45" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="F38" r:id="rId46" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="G38" r:id="rId47" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="H38" r:id="rId48" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="I38" r:id="rId49" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="J38" r:id="rId50" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="K38" r:id="rId51" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="L38" r:id="rId52" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="M38" r:id="rId53" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="N38" r:id="rId54" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="O38" r:id="rId55" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="P38" r:id="rId56" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="Q38" r:id="rId57" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="R38" r:id="rId58" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="S38" r:id="rId59" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="T38" r:id="rId60" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="A39" r:id="rId61" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="B39" r:id="rId62" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="C39" r:id="rId63" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="D39" r:id="rId64" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="E39" r:id="rId65" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="F39" r:id="rId66" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="G39" r:id="rId67" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="H39" r:id="rId68" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="I39" r:id="rId69" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="J39" r:id="rId70" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="K39" r:id="rId71" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="L39" r:id="rId72" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="M39" r:id="rId73" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="N39" r:id="rId74" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="O39" r:id="rId75" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="P39" r:id="rId76" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="Q39" r:id="rId77" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="R39" r:id="rId78" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="S39" r:id="rId79" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="T39" r:id="rId80" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="A40" r:id="rId81" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="B40" r:id="rId82" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="C40" r:id="rId83" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="D40" r:id="rId84" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="E40" r:id="rId85" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="F40" r:id="rId86" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="G40" r:id="rId87" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="H40" r:id="rId88" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="I40" r:id="rId89" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="J40" r:id="rId90" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="K40" r:id="rId91" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="L40" r:id="rId92" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="M40" r:id="rId93" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="N40" r:id="rId94" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="O40" r:id="rId95" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="P40" r:id="rId96" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="Q40" r:id="rId97" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="R40" r:id="rId98" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="S40" r:id="rId99" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="T40" r:id="rId100" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="A41" r:id="rId101" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="B41" r:id="rId102" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="C41" r:id="rId103" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="D41" r:id="rId104" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="E41" r:id="rId105" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="F41" r:id="rId106" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="G41" r:id="rId107" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="H41" r:id="rId108" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="I41" r:id="rId109" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="J41" r:id="rId110" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="K41" r:id="rId111" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="L41" r:id="rId112" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="M41" r:id="rId113" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="N41" r:id="rId114" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="O41" r:id="rId115" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="P41" r:id="rId116" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="Q41" r:id="rId117" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="R41" r:id="rId118" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="S41" r:id="rId119" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="T41" r:id="rId120" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="A26" r:id="rId121" display="http://www.covers.com/pageLoader/pageLoader.aspx?page=/data/mlb/matchups/g4_summary_12.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId121"/>
+  <drawing r:id="rId122"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!E34:O34</xm:f>
+              <xm:sqref>D34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!E35:O35</xm:f>
+              <xm:sqref>D35</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>

--- a/Scrum/Proyect/Sprint-backlog-template (1).xlsx
+++ b/Scrum/Proyect/Sprint-backlog-template (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -89,9 +89,6 @@
     <t>User Story #4 - Have info from MLB and Covers</t>
   </si>
   <si>
-    <t>Create MLB Game Class</t>
-  </si>
-  <si>
     <t>User Story #5 - Fill data continuosly</t>
   </si>
   <si>
@@ -105,15 +102,6 @@
   </si>
   <si>
     <t>Total remaining hours</t>
-  </si>
-  <si>
-    <t>2.1 . Align MLB Series per day</t>
-  </si>
-  <si>
-    <t>2.2 Order schedule</t>
-  </si>
-  <si>
-    <t>3.1 Creting of sheets depending of quantities and dates</t>
   </si>
   <si>
     <t>5.1 Fill data periodically</t>
@@ -130,12 +118,33 @@
   <si>
     <t>1.3 Create MLB Serie Class (24/8/17)</t>
   </si>
+  <si>
+    <t>Create MLB Game Class (24/8/17)</t>
+  </si>
+  <si>
+    <t>2.1 . Align MLB Series per day (25/8/17)</t>
+  </si>
+  <si>
+    <t>2.2 Order schedule (26/8/17)</t>
+  </si>
+  <si>
+    <t>3.1 Creting of sheets depending of quantities and dates (27/8/17)</t>
+  </si>
+  <si>
+    <t>Link between the extracted data (New requirement)</t>
+  </si>
+  <si>
+    <t>Extras</t>
+  </si>
+  <si>
+    <t>Extract datatable by headers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,8 +187,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +237,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -246,12 +267,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -280,16 +302,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,7 +479,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$34:$M$34</c:f>
+              <c:f>Sheet1!$E$35:$M$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -459,10 +487,10 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -540,7 +568,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$35:$M$35</c:f>
+              <c:f>Sheet1!$E$36:$M$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -585,11 +613,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-464641424"/>
-        <c:axId val="-407035680"/>
+        <c:axId val="-581618496"/>
+        <c:axId val="-581617952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-464641424"/>
+        <c:axId val="-581618496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -631,7 +659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407035680"/>
+        <c:crossAx val="-581617952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -639,7 +667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-407035680"/>
+        <c:axId val="-581617952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -689,7 +717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-464641424"/>
+        <c:crossAx val="-581618496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1289,16 +1317,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1359,13 +1387,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>49524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>796925</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1718,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC137"/>
+  <dimension ref="A1:AC138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1913,10 +1941,10 @@
         <v>9</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>10</v>
@@ -1974,16 +2002,16 @@
       <c r="AC7" s="5"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4">
+      <c r="A8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="17">
         <v>10</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -2009,16 +2037,18 @@
       <c r="AC8" s="5"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4">
+      <c r="A9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14">
         <v>5</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="14">
+        <v>4</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -2044,16 +2074,18 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4">
+      <c r="A10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="17">
         <v>3</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="17">
+        <v>2</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -2080,7 +2112,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
@@ -2088,7 +2120,9 @@
       <c r="E11" s="4">
         <v>3</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -2150,7 +2184,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
@@ -2185,7 +2219,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
@@ -2317,7 +2351,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
@@ -2482,13 +2516,13 @@
       <c r="A23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="15">
+      <c r="E23" s="14">
         <v>8</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="14">
         <v>8</v>
       </c>
       <c r="G23" s="4"/>
@@ -2519,13 +2553,13 @@
       <c r="A24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="15">
+      <c r="E24" s="14">
         <v>8</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="14">
         <v>8</v>
       </c>
       <c r="G24" s="4"/>
@@ -2556,13 +2590,13 @@
       <c r="A25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="15"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="15">
+      <c r="E25" s="14">
         <v>8</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="14">
         <v>8</v>
       </c>
       <c r="G25" s="4"/>
@@ -2591,17 +2625,17 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="15">
+        <v>27</v>
+      </c>
+      <c r="B26" s="14">
         <v>8</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="15">
+      <c r="E26" s="14">
         <v>8</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="14">
         <v>4</v>
       </c>
       <c r="G26" s="4"/>
@@ -2628,24 +2662,26 @@
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
     </row>
-    <row r="27" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="8">
-        <v>3</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="14">
+        <v>8</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13">
+        <v>8</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
@@ -2663,24 +2699,24 @@
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4">
-        <v>8</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
+    <row r="28" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
@@ -2699,11 +2735,15 @@
       <c r="AC28" s="5"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="4">
+        <v>8</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -2792,7 +2832,9 @@
       <c r="AC31" s="5"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2823,7 +2865,9 @@
       <c r="AC32" s="5"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2853,33 +2897,20 @@
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
     </row>
-    <row r="34" spans="1:29" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="11">
-        <f>SUM(E7:E33)</f>
-        <v>84</v>
-      </c>
-      <c r="F34" s="11">
-        <f>E34-SUM(F8:F33)</f>
-        <v>56</v>
-      </c>
-      <c r="G34" s="11">
-        <f>F34-SUM(G8:G33)</f>
-        <v>56</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -2897,53 +2928,34 @@
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="5"/>
+    <row r="35" spans="1:29" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="5">
-        <f>SUM(E8:E33)</f>
+        <v>25</v>
+      </c>
+      <c r="E35" s="11">
+        <f>SUM(E7:E34)</f>
         <v>84</v>
       </c>
-      <c r="F35" s="5">
-        <f>76-8</f>
-        <v>68</v>
-      </c>
-      <c r="G35" s="5">
-        <f>F35-8</f>
-        <v>60</v>
-      </c>
-      <c r="H35" s="5">
-        <f t="shared" ref="H35:N35" si="0">G35-8</f>
-        <v>52</v>
-      </c>
-      <c r="I35" s="5">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="J35" s="5">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="K35" s="5">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="L35" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="M35" s="5">
-        <f>L35-8</f>
-        <v>12</v>
-      </c>
-      <c r="N35" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="F35" s="11">
+        <f>E35-SUM(F8:F34)</f>
+        <v>49</v>
+      </c>
+      <c r="G35" s="11">
+        <f>F35-SUM(G8:G34)</f>
+        <v>49</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
@@ -2957,30 +2969,62 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="5">
+        <f>SUM(E8:E34)</f>
+        <v>84</v>
+      </c>
+      <c r="F36" s="5">
+        <f>76-8</f>
+        <v>68</v>
+      </c>
+      <c r="G36" s="5">
+        <f>F36-8</f>
+        <v>60</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" ref="H36:N36" si="0">G36-8</f>
+        <v>52</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="J36" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="K36" s="5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="L36" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M36" s="5">
+        <f>L36-8</f>
+        <v>12</v>
+      </c>
+      <c r="N36" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
@@ -2990,26 +3034,28 @@
       <c r="AA36" s="5"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
+      <c r="A37" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
@@ -3019,26 +3065,26 @@
       <c r="AA37" s="5"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
@@ -3048,26 +3094,26 @@
       <c r="AA38" s="5"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
@@ -3077,26 +3123,26 @@
       <c r="AA39" s="5"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
@@ -3106,26 +3152,26 @@
       <c r="AA40" s="5"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
@@ -3135,26 +3181,26 @@
       <c r="AA41" s="5"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
@@ -5918,131 +5964,160 @@
       <c r="Z137" s="5"/>
       <c r="AA137" s="5"/>
     </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A138" s="5"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="5"/>
+      <c r="M138" s="5"/>
+      <c r="N138" s="5"/>
+      <c r="O138" s="5"/>
+      <c r="P138" s="5"/>
+      <c r="Q138" s="5"/>
+      <c r="R138" s="5"/>
+      <c r="S138" s="5"/>
+      <c r="T138" s="5"/>
+      <c r="U138" s="5"/>
+      <c r="V138" s="5"/>
+      <c r="W138" s="5"/>
+      <c r="X138" s="5"/>
+      <c r="Y138" s="5"/>
+      <c r="Z138" s="5"/>
+      <c r="AA138" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A36:T41"/>
+    <mergeCell ref="A37:T42"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A36" r:id="rId1"/>
-    <hyperlink ref="B36" r:id="rId2" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="C36" r:id="rId3" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="D36" r:id="rId4" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="E36" r:id="rId5" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="F36" r:id="rId6" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="G36" r:id="rId7" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="H36" r:id="rId8" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="I36" r:id="rId9" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="J36" r:id="rId10" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="K36" r:id="rId11" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="L36" r:id="rId12" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="M36" r:id="rId13" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="N36" r:id="rId14" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="O36" r:id="rId15" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="P36" r:id="rId16" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="Q36" r:id="rId17" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="R36" r:id="rId18" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="S36" r:id="rId19" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="T36" r:id="rId20" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="A37" r:id="rId21" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="B37" r:id="rId22" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="C37" r:id="rId23" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="D37" r:id="rId24" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="E37" r:id="rId25" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="F37" r:id="rId26" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="G37" r:id="rId27" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="H37" r:id="rId28" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="I37" r:id="rId29" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="J37" r:id="rId30" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="K37" r:id="rId31" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="L37" r:id="rId32" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="M37" r:id="rId33" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="N37" r:id="rId34" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="O37" r:id="rId35" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="P37" r:id="rId36" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="Q37" r:id="rId37" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="R37" r:id="rId38" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="S37" r:id="rId39" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="T37" r:id="rId40" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="A38" r:id="rId41" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="B38" r:id="rId42" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="C38" r:id="rId43" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="D38" r:id="rId44" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="E38" r:id="rId45" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="F38" r:id="rId46" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="G38" r:id="rId47" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="H38" r:id="rId48" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="I38" r:id="rId49" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="J38" r:id="rId50" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="K38" r:id="rId51" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="L38" r:id="rId52" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="M38" r:id="rId53" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="N38" r:id="rId54" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="O38" r:id="rId55" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="P38" r:id="rId56" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="Q38" r:id="rId57" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="R38" r:id="rId58" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="S38" r:id="rId59" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="T38" r:id="rId60" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="A39" r:id="rId61" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="B39" r:id="rId62" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="C39" r:id="rId63" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="D39" r:id="rId64" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="E39" r:id="rId65" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="F39" r:id="rId66" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="G39" r:id="rId67" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="H39" r:id="rId68" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="I39" r:id="rId69" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="J39" r:id="rId70" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="K39" r:id="rId71" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="L39" r:id="rId72" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="M39" r:id="rId73" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="N39" r:id="rId74" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="O39" r:id="rId75" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="P39" r:id="rId76" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="Q39" r:id="rId77" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="R39" r:id="rId78" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="S39" r:id="rId79" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="T39" r:id="rId80" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="A40" r:id="rId81" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="B40" r:id="rId82" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="C40" r:id="rId83" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="D40" r:id="rId84" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="E40" r:id="rId85" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="F40" r:id="rId86" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="G40" r:id="rId87" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="H40" r:id="rId88" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="I40" r:id="rId89" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="J40" r:id="rId90" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="K40" r:id="rId91" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="L40" r:id="rId92" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="M40" r:id="rId93" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="N40" r:id="rId94" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="O40" r:id="rId95" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="P40" r:id="rId96" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="Q40" r:id="rId97" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="R40" r:id="rId98" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="S40" r:id="rId99" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="T40" r:id="rId100" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="A41" r:id="rId101" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="B41" r:id="rId102" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="C41" r:id="rId103" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="D41" r:id="rId104" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="E41" r:id="rId105" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="F41" r:id="rId106" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="G41" r:id="rId107" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="H41" r:id="rId108" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="I41" r:id="rId109" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="J41" r:id="rId110" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="K41" r:id="rId111" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="L41" r:id="rId112" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="M41" r:id="rId113" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="N41" r:id="rId114" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="O41" r:id="rId115" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="P41" r:id="rId116" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="Q41" r:id="rId117" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="R41" r:id="rId118" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="S41" r:id="rId119" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="T41" r:id="rId120" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="A37" r:id="rId1"/>
+    <hyperlink ref="B37" r:id="rId2" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="C37" r:id="rId3" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="D37" r:id="rId4" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="E37" r:id="rId5" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="F37" r:id="rId6" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="G37" r:id="rId7" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="H37" r:id="rId8" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="I37" r:id="rId9" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="J37" r:id="rId10" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="K37" r:id="rId11" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="L37" r:id="rId12" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="M37" r:id="rId13" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="N37" r:id="rId14" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="O37" r:id="rId15" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="P37" r:id="rId16" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="Q37" r:id="rId17" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="R37" r:id="rId18" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="S37" r:id="rId19" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="T37" r:id="rId20" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="A38" r:id="rId21" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="B38" r:id="rId22" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="C38" r:id="rId23" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="D38" r:id="rId24" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="E38" r:id="rId25" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="F38" r:id="rId26" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="G38" r:id="rId27" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="H38" r:id="rId28" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="I38" r:id="rId29" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="J38" r:id="rId30" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="K38" r:id="rId31" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="L38" r:id="rId32" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="M38" r:id="rId33" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="N38" r:id="rId34" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="O38" r:id="rId35" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="P38" r:id="rId36" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="Q38" r:id="rId37" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="R38" r:id="rId38" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="S38" r:id="rId39" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="T38" r:id="rId40" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="A39" r:id="rId41" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="B39" r:id="rId42" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="C39" r:id="rId43" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="D39" r:id="rId44" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="E39" r:id="rId45" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="F39" r:id="rId46" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="G39" r:id="rId47" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="H39" r:id="rId48" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="I39" r:id="rId49" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="J39" r:id="rId50" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="K39" r:id="rId51" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="L39" r:id="rId52" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="M39" r:id="rId53" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="N39" r:id="rId54" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="O39" r:id="rId55" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="P39" r:id="rId56" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="Q39" r:id="rId57" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="R39" r:id="rId58" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="S39" r:id="rId59" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="T39" r:id="rId60" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="A40" r:id="rId61" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="B40" r:id="rId62" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="C40" r:id="rId63" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="D40" r:id="rId64" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="E40" r:id="rId65" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="F40" r:id="rId66" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="G40" r:id="rId67" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="H40" r:id="rId68" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="I40" r:id="rId69" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="J40" r:id="rId70" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="K40" r:id="rId71" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="L40" r:id="rId72" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="M40" r:id="rId73" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="N40" r:id="rId74" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="O40" r:id="rId75" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="P40" r:id="rId76" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="Q40" r:id="rId77" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="R40" r:id="rId78" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="S40" r:id="rId79" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="T40" r:id="rId80" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="A41" r:id="rId81" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="B41" r:id="rId82" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="C41" r:id="rId83" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="D41" r:id="rId84" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="E41" r:id="rId85" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="F41" r:id="rId86" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="G41" r:id="rId87" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="H41" r:id="rId88" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="I41" r:id="rId89" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="J41" r:id="rId90" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="K41" r:id="rId91" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="L41" r:id="rId92" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="M41" r:id="rId93" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="N41" r:id="rId94" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="O41" r:id="rId95" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="P41" r:id="rId96" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="Q41" r:id="rId97" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="R41" r:id="rId98" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="S41" r:id="rId99" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="T41" r:id="rId100" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="A42" r:id="rId101" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="B42" r:id="rId102" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="C42" r:id="rId103" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="D42" r:id="rId104" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="E42" r:id="rId105" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="F42" r:id="rId106" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="G42" r:id="rId107" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="H42" r:id="rId108" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="I42" r:id="rId109" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="J42" r:id="rId110" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="K42" r:id="rId111" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="L42" r:id="rId112" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="M42" r:id="rId113" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="N42" r:id="rId114" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="O42" r:id="rId115" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="P42" r:id="rId116" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="Q42" r:id="rId117" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="R42" r:id="rId118" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="S42" r:id="rId119" display="Create a Sprint Backlog in Smartsheet"/>
+    <hyperlink ref="T42" r:id="rId120" display="Create a Sprint Backlog in Smartsheet"/>
     <hyperlink ref="A26" r:id="rId121" display="http://www.covers.com/pageLoader/pageLoader.aspx?page=/data/mlb/matchups/g4_summary_12.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6061,12 +6136,12 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!E34:O34</xm:f>
-              <xm:sqref>D34</xm:sqref>
+              <xm:f>Sheet1!E35:O35</xm:f>
+              <xm:sqref>D35</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!E35:O35</xm:f>
-              <xm:sqref>D35</xm:sqref>
+              <xm:f>Sheet1!E36:O36</xm:f>
+              <xm:sqref>D36</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/Scrum/Proyect/Sprint-backlog-template (1).xlsx
+++ b/Scrum/Proyect/Sprint-backlog-template (1).xlsx
@@ -41,21 +41,6 @@
     <t>Original Estimate</t>
   </si>
   <si>
-    <t>Day 1</t>
-  </si>
-  <si>
-    <t>Day 2</t>
-  </si>
-  <si>
-    <t>Day 3</t>
-  </si>
-  <si>
-    <t>Day 4</t>
-  </si>
-  <si>
-    <t>Day 5</t>
-  </si>
-  <si>
     <t>Sprint Review</t>
   </si>
   <si>
@@ -95,12 +80,6 @@
     <t>Estimated remaining hours</t>
   </si>
   <si>
-    <t>Day 6</t>
-  </si>
-  <si>
-    <t>Day 7</t>
-  </si>
-  <si>
     <t>Total remaining hours</t>
   </si>
   <si>
@@ -138,6 +117,27 @@
   </si>
   <si>
     <t>Extract datatable by headers</t>
+  </si>
+  <si>
+    <t>Day 21</t>
+  </si>
+  <si>
+    <t>Day 22</t>
+  </si>
+  <si>
+    <t>Day 23</t>
+  </si>
+  <si>
+    <t>Day 24</t>
+  </si>
+  <si>
+    <t>Day 25</t>
+  </si>
+  <si>
+    <t>Day 28</t>
+  </si>
+  <si>
+    <t>Day 29</t>
   </si>
 </sst>
 </file>
@@ -273,7 +273,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,14 +305,15 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -451,25 +452,25 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Day 1</c:v>
+                  <c:v>Day 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Day 2</c:v>
+                  <c:v>Day 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Day 3</c:v>
+                  <c:v>Day 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Day 4</c:v>
+                  <c:v>Day 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Day 5</c:v>
+                  <c:v>Day 25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Day 6</c:v>
+                  <c:v>Day 28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Day 7</c:v>
+                  <c:v>Day 29</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Sprint Review</c:v>
@@ -487,7 +488,7 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>49</c:v>
@@ -540,25 +541,25 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Day 1</c:v>
+                  <c:v>Day 21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Day 2</c:v>
+                  <c:v>Day 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Day 3</c:v>
+                  <c:v>Day 23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Day 4</c:v>
+                  <c:v>Day 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Day 5</c:v>
+                  <c:v>Day 25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Day 6</c:v>
+                  <c:v>Day 28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Day 7</c:v>
+                  <c:v>Day 29</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Sprint Review</c:v>
@@ -613,11 +614,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-581618496"/>
-        <c:axId val="-581617952"/>
+        <c:axId val="-585088656"/>
+        <c:axId val="-585087024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-581618496"/>
+        <c:axId val="-585088656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,7 +660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-581617952"/>
+        <c:crossAx val="-585087024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -667,7 +668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-581617952"/>
+        <c:axId val="-585087024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,7 +718,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-581618496"/>
+        <c:crossAx val="-585088656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1748,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="I40" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1822,7 +1823,7 @@
     </row>
     <row r="3" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
@@ -1926,28 +1927,28 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -1968,7 +1969,7 @@
     </row>
     <row r="7" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" s="8">
         <v>8</v>
@@ -2003,7 +2004,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
@@ -2038,7 +2039,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="13"/>
@@ -2046,10 +2047,9 @@
       <c r="E9" s="14">
         <v>5</v>
       </c>
-      <c r="F9" s="14">
+      <c r="G9" s="14">
         <v>4</v>
       </c>
-      <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -2074,19 +2074,19 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="17">
+      <c r="A10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14">
         <v>3</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15"/>
+      <c r="G10" s="14">
         <v>2</v>
       </c>
-      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2111,19 +2111,19 @@
       <c r="AC10" s="5"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4">
+      <c r="A11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14">
         <v>3</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="15"/>
+      <c r="G11" s="14">
         <v>1</v>
       </c>
-      <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="17" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B17" s="8">
         <v>5</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="22" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B22" s="8">
         <v>8</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="13"/>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="13"/>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="13"/>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B26" s="14">
         <v>8</v>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B27" s="14">
         <v>8</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="28" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B28" s="8">
         <v>3</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
@@ -2930,12 +2930,12 @@
     </row>
     <row r="35" spans="1:29" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E35" s="11">
         <f>SUM(E7:E34)</f>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="F35" s="11">
         <f>E35-SUM(F8:F34)</f>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G35" s="11">
         <f>F35-SUM(G8:G34)</f>
@@ -2977,7 +2977,7 @@
       <c r="B36" s="6"/>
       <c r="C36" s="5"/>
       <c r="D36" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E36" s="5">
         <f>SUM(E8:E34)</f>
@@ -3034,28 +3034,28 @@
       <c r="AA36" s="5"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
+      <c r="A37" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
@@ -3065,26 +3065,26 @@
       <c r="AA37" s="5"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
@@ -3094,26 +3094,26 @@
       <c r="AA38" s="5"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
@@ -3123,26 +3123,26 @@
       <c r="AA39" s="5"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
@@ -3152,26 +3152,26 @@
       <c r="AA40" s="5"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
@@ -3181,26 +3181,26 @@
       <c r="AA41" s="5"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>

--- a/Scrum/Proyect/Sprint-backlog-template (1).xlsx
+++ b/Scrum/Proyect/Sprint-backlog-template (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Sprint Backlog Template</t>
-  </si>
-  <si>
-    <t>Create a Sprint Backlog in Smartsheet</t>
   </si>
   <si>
     <t>Extract MLB Stats</t>
@@ -140,7 +134,25 @@
     <t>Actual remaining hours</t>
   </si>
   <si>
-    <t>Pending</t>
+    <t>Save data in database</t>
+  </si>
+  <si>
+    <t>Ezequiel says priority is to save in database</t>
+  </si>
+  <si>
+    <t>Sprint Backlog</t>
+  </si>
+  <si>
+    <t>Pending 23</t>
+  </si>
+  <si>
+    <t>Pending 24</t>
+  </si>
+  <si>
+    <t>Day 26</t>
+  </si>
+  <si>
+    <t>Day 27</t>
   </si>
 </sst>
 </file>
@@ -150,6 +162,13 @@
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -191,13 +210,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -206,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,12 +262,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -298,14 +317,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,8 +341,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -332,30 +352,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="4"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+  <cellStyles count="6">
+    <cellStyle name="20% - Accent4" xfId="4" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="5" builtinId="43"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,7 +436,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sprint Burndown </a:t>
+              <a:t>Sprint Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -485,9 +518,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$6:$M$6</c:f>
+              <c:f>Sheet1!$F$6:$O$6</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Day 21</c:v>
                 </c:pt>
@@ -504,12 +537,18 @@
                   <c:v>Day 25</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Day 26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 27</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Day 28</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Day 29</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Sprint Review</c:v>
                 </c:pt>
               </c:strCache>
@@ -517,33 +556,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$35:$M$35</c:f>
+              <c:f>Sheet1!$E$35:$O$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>69</c:v>
+                <c:pt idx="10">
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -589,9 +622,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$6:$M$6</c:f>
+              <c:f>Sheet1!$F$6:$O$6</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Day 21</c:v>
                 </c:pt>
@@ -608,12 +641,18 @@
                   <c:v>Day 25</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Day 26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 27</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Day 28</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Day 29</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Sprint Review</c:v>
                 </c:pt>
               </c:strCache>
@@ -626,31 +665,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,11 +705,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-585089200"/>
-        <c:axId val="-585090832"/>
+        <c:axId val="-580474160"/>
+        <c:axId val="-580473616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-585089200"/>
+        <c:axId val="-580474160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -712,7 +751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-585090832"/>
+        <c:crossAx val="-580473616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -720,7 +759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-585090832"/>
+        <c:axId val="-580473616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -770,7 +809,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-585089200"/>
+        <c:crossAx val="-580474160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1370,16 +1409,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3143250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1396,82 +1435,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>133640</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1028699</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>139699</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10230140" y="241300"/>
-          <a:ext cx="2546059" cy="571499"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>49524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>796925</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="990600" y="8723624"/>
-          <a:ext cx="16967200" cy="5030476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1799,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC138"/>
+  <dimension ref="A1:AE138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G40" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1810,12 +1773,12 @@
     <col min="1" max="1" width="53.5" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="11" max="11" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="5"/>
@@ -1844,7 +1807,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
@@ -1873,9 +1836,9 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
@@ -1904,7 +1867,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
@@ -1933,7 +1896,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
@@ -1962,7 +1925,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:29" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1979,35 +1942,41 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="P6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
@@ -2020,10 +1989,12 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
-    </row>
-    <row r="7" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+    </row>
+    <row r="7" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8">
         <v>8</v>
@@ -2040,9 +2011,9 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -2055,29 +2026,31 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17">
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14">
         <v>10</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
@@ -2090,10 +2063,12 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="13"/>
@@ -2110,15 +2085,17 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="14">
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14">
         <v>4</v>
       </c>
-      <c r="N9" s="14">
+      <c r="P9" s="14">
         <v>0</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="14">
+        <v>0</v>
+      </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
@@ -2131,10 +2108,12 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="13"/>
@@ -2151,15 +2130,17 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="14">
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14">
         <v>2</v>
       </c>
-      <c r="N10" s="14">
+      <c r="P10" s="14">
         <v>0</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="14">
+        <v>0</v>
+      </c>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
@@ -2172,10 +2153,12 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="13"/>
@@ -2193,12 +2176,14 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="14">
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14">
         <v>0</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="14">
+        <v>0</v>
+      </c>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
@@ -2211,10 +2196,12 @@
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
-    </row>
-    <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+    </row>
+    <row r="12" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
@@ -2231,9 +2218,9 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
@@ -2246,34 +2233,39 @@
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4">
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="19">
         <v>8</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4">
-        <f>E13</f>
-        <v>8</v>
-      </c>
-      <c r="N13" s="4">
-        <v>8</v>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>0</v>
+      </c>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
@@ -2286,34 +2278,39 @@
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
-    </row>
-    <row r="14" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4">
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+    </row>
+    <row r="14" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="19">
         <v>7</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4">
-        <f t="shared" ref="M14:N35" si="0">E14</f>
-        <v>7</v>
-      </c>
-      <c r="N14" s="4">
-        <v>7</v>
-      </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19">
+        <v>0</v>
+      </c>
+      <c r="P14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>0</v>
+      </c>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
@@ -2326,31 +2323,36 @@
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
-    </row>
-    <row r="15" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21">
-        <f t="shared" si="0"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+    </row>
+    <row r="15" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17">
+        <f>E15</f>
         <v>0</v>
       </c>
-      <c r="N15" s="21">
-        <f t="shared" si="0"/>
+      <c r="P15" s="17">
+        <f>F15</f>
         <v>0</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="Q15" s="17">
+        <f>G15</f>
+        <v>0</v>
+      </c>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
@@ -2363,31 +2365,36 @@
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
-    </row>
-    <row r="16" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21">
-        <f t="shared" si="0"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+    </row>
+    <row r="16" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17">
+        <f>E16</f>
         <v>0</v>
       </c>
-      <c r="N16" s="21">
-        <f t="shared" si="0"/>
+      <c r="P16" s="17">
+        <f>F16</f>
         <v>0</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="Q16" s="17">
+        <f>G16</f>
+        <v>0</v>
+      </c>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
@@ -2400,10 +2407,12 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
-    </row>
-    <row r="17" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+    </row>
+    <row r="17" spans="1:31" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="8">
         <v>5</v>
@@ -2418,17 +2427,20 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="4">
-        <f t="shared" si="0"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="4">
+        <f>E17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="4">
-        <f t="shared" si="0"/>
+      <c r="P17" s="4">
+        <f>F17</f>
         <v>0</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="Q17" s="4">
+        <f>G17</f>
+        <v>0</v>
+      </c>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -2441,34 +2453,40 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
-    </row>
-    <row r="18" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4">
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+    </row>
+    <row r="18" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="21">
         <v>8</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4">
-        <f t="shared" si="0"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21">
+        <f>E18</f>
         <v>8</v>
       </c>
-      <c r="N18" s="4">
-        <v>8</v>
-      </c>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="P18" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>0</v>
+      </c>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
@@ -2481,31 +2499,36 @@
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
-    </row>
-    <row r="19" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21">
-        <f t="shared" si="0"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+    </row>
+    <row r="19" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17">
+        <f>E19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="21">
-        <f t="shared" si="0"/>
+      <c r="P19" s="17">
+        <f>F19</f>
         <v>0</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="Q19" s="17">
+        <f>G19</f>
+        <v>0</v>
+      </c>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
@@ -2518,31 +2541,36 @@
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
-    </row>
-    <row r="20" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21">
-        <f t="shared" si="0"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+    </row>
+    <row r="20" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17">
+        <f>E20</f>
         <v>0</v>
       </c>
-      <c r="N20" s="21">
-        <f t="shared" si="0"/>
+      <c r="P20" s="17">
+        <f>F20</f>
         <v>0</v>
       </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+      <c r="Q20" s="17">
+        <f>G20</f>
+        <v>0</v>
+      </c>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -2555,31 +2583,36 @@
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
-    </row>
-    <row r="21" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21">
-        <f t="shared" si="0"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+    </row>
+    <row r="21" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17">
+        <f>E21</f>
         <v>0</v>
       </c>
-      <c r="N21" s="21">
-        <f t="shared" si="0"/>
+      <c r="P21" s="17">
+        <f>F21</f>
         <v>0</v>
       </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
+      <c r="Q21" s="17">
+        <f>G21</f>
+        <v>0</v>
+      </c>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
@@ -2592,10 +2625,12 @@
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
-    </row>
-    <row r="22" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+    </row>
+    <row r="22" spans="1:31" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" s="8">
         <v>8</v>
@@ -2610,17 +2645,20 @@
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="4">
-        <f t="shared" si="0"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="4">
+        <f>E22</f>
         <v>0</v>
       </c>
-      <c r="N22" s="4">
-        <f t="shared" si="0"/>
+      <c r="P22" s="4">
+        <f>F22</f>
         <v>0</v>
       </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
+      <c r="Q22" s="4">
+        <f>G22</f>
+        <v>0</v>
+      </c>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
@@ -2633,10 +2671,12 @@
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="13"/>
@@ -2653,16 +2693,18 @@
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
-      <c r="M23" s="14">
-        <f t="shared" si="0"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14">
+        <f>E23</f>
         <v>8</v>
       </c>
-      <c r="N23" s="14">
+      <c r="P23" s="14">
         <v>0</v>
       </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
+      <c r="Q23" s="14">
+        <v>0</v>
+      </c>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
@@ -2675,10 +2717,12 @@
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="13"/>
@@ -2695,16 +2739,18 @@
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
-      <c r="M24" s="14">
-        <f t="shared" si="0"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14">
+        <f>E24</f>
         <v>8</v>
       </c>
-      <c r="N24" s="14">
+      <c r="P24" s="14">
         <v>0</v>
       </c>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
+      <c r="Q24" s="14">
+        <v>0</v>
+      </c>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
@@ -2717,10 +2763,12 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="13"/>
@@ -2737,16 +2785,18 @@
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
-      <c r="M25" s="14">
-        <f t="shared" si="0"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14">
+        <f>E25</f>
         <v>8</v>
       </c>
-      <c r="N25" s="14">
+      <c r="P25" s="14">
         <v>0</v>
       </c>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
+      <c r="Q25" s="14">
+        <v>0</v>
+      </c>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
@@ -2759,10 +2809,12 @@
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26" s="14">
         <v>8</v>
@@ -2781,16 +2833,18 @@
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
-      <c r="M26" s="14">
-        <f t="shared" si="0"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14">
+        <f>E26</f>
         <v>8</v>
       </c>
-      <c r="N26" s="14">
+      <c r="P26" s="14">
         <v>0</v>
       </c>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+      <c r="Q26" s="14">
+        <v>0</v>
+      </c>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
@@ -2803,10 +2857,12 @@
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="14">
         <v>8</v>
@@ -2823,17 +2879,20 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="4">
-        <f t="shared" si="0"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4">
+        <f>E27</f>
         <v>0</v>
       </c>
-      <c r="N27" s="4">
-        <f t="shared" si="0"/>
+      <c r="P27" s="4">
+        <f>F27</f>
         <v>0</v>
       </c>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
+      <c r="Q27" s="4">
+        <f>G27</f>
+        <v>0</v>
+      </c>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
@@ -2846,10 +2905,12 @@
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
-    </row>
-    <row r="28" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+    </row>
+    <row r="28" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28" s="8">
         <v>3</v>
@@ -2864,17 +2925,20 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="4">
-        <f t="shared" si="0"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="4">
+        <f>E28</f>
         <v>0</v>
       </c>
-      <c r="N28" s="4">
-        <f t="shared" si="0"/>
+      <c r="P28" s="4">
+        <f>F28</f>
         <v>0</v>
       </c>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
+      <c r="Q28" s="4">
+        <f>G28</f>
+        <v>0</v>
+      </c>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
@@ -2887,10 +2951,12 @@
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
-    </row>
-    <row r="29" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+    </row>
+    <row r="29" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
@@ -2905,16 +2971,18 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="4">
-        <f t="shared" si="0"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4">
+        <f>E29</f>
         <v>8</v>
       </c>
-      <c r="N29" s="4">
+      <c r="P29" s="4">
         <v>8</v>
       </c>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+      <c r="Q29" s="4">
+        <v>8</v>
+      </c>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
@@ -2927,31 +2995,36 @@
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
-    </row>
-    <row r="30" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21">
-        <f t="shared" si="0"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+    </row>
+    <row r="30" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17">
+        <f>E30</f>
         <v>0</v>
       </c>
-      <c r="N30" s="21">
-        <f t="shared" si="0"/>
+      <c r="P30" s="17">
+        <f>F30</f>
         <v>0</v>
       </c>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
+      <c r="Q30" s="17">
+        <f>G30</f>
+        <v>0</v>
+      </c>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
@@ -2964,31 +3037,36 @@
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
-    </row>
-    <row r="31" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21">
-        <f t="shared" si="0"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+    </row>
+    <row r="31" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17">
+        <f>E31</f>
         <v>0</v>
       </c>
-      <c r="N31" s="21">
-        <f t="shared" si="0"/>
+      <c r="P31" s="17">
+        <f>F31</f>
         <v>0</v>
       </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
+      <c r="Q31" s="17">
+        <f>G31</f>
+        <v>0</v>
+      </c>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
@@ -3001,10 +3079,12 @@
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
-    </row>
-    <row r="32" spans="1:29" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+    </row>
+    <row r="32" spans="1:31" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
@@ -3017,17 +3097,20 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="4">
-        <f t="shared" si="0"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4">
+        <f>E32</f>
         <v>0</v>
       </c>
-      <c r="N32" s="4">
-        <f t="shared" si="0"/>
+      <c r="P32" s="4">
+        <f>F32</f>
         <v>0</v>
       </c>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
+      <c r="Q32" s="4">
+        <f>G32</f>
+        <v>0</v>
+      </c>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
@@ -3040,10 +3123,12 @@
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
@@ -3056,17 +3141,20 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="4">
-        <f t="shared" si="0"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4">
+        <f>E33</f>
         <v>0</v>
       </c>
-      <c r="N33" s="4">
-        <f t="shared" si="0"/>
+      <c r="P33" s="4">
+        <f>F33</f>
         <v>0</v>
       </c>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
+      <c r="Q33" s="4">
+        <f>G33</f>
+        <v>0</v>
+      </c>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
@@ -3079,13 +3167,19 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4">
+        <v>8</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -3093,17 +3187,18 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4">
+        <f>E34</f>
+        <v>8</v>
+      </c>
+      <c r="P34" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>8</v>
+      </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
@@ -3116,56 +3211,55 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
-    </row>
-    <row r="35" spans="1:29" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+    </row>
+    <row r="35" spans="1:31" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E35" s="11">
         <f>SUM(E7:E34)</f>
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F35" s="11">
-        <f>SUM(M8:M34)-SUM(F8:F34)</f>
-        <v>41</v>
+        <f>SUM(O8:O34)-SUM(F8:F34)</f>
+        <v>34</v>
       </c>
       <c r="G35" s="11">
         <f>F35-SUM(G8:G34)</f>
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H35" s="11">
-        <f>G35-8</f>
-        <v>26</v>
+        <f>P35</f>
+        <v>16</v>
       </c>
       <c r="I35" s="11">
-        <f>H35-8</f>
-        <v>18</v>
-      </c>
-      <c r="J35" s="11">
-        <f>I35-8</f>
-        <v>10</v>
-      </c>
-      <c r="K35" s="11">
-        <f>J35-8</f>
-        <v>2</v>
-      </c>
+        <f>P35</f>
+        <v>16</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
       <c r="L35" s="11"/>
-      <c r="M35" s="4">
-        <f>SUM(M7:M34)</f>
-        <v>69</v>
-      </c>
-      <c r="N35" s="4">
-        <f>SUM(N7:N34)</f>
-        <v>31</v>
-      </c>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="4">
+        <f>SUM(O7:O34)</f>
+        <v>62</v>
+      </c>
+      <c r="P35" s="4">
+        <f>SUM(P7:P34)</f>
+        <v>16</v>
+      </c>
+      <c r="Q35" s="4">
+        <f>SUM(Q7:Q34)</f>
+        <v>16</v>
+      </c>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
@@ -3178,53 +3272,55 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="5"/>
       <c r="D36" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E36" s="5">
         <f>SUM(E8:E34)</f>
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F36" s="5">
         <f>E36-8</f>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G36" s="5">
         <f>F36-8</f>
+        <v>76</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" ref="H36:N36" si="0">G36-8</f>
         <v>68</v>
       </c>
-      <c r="H36" s="5">
-        <f t="shared" ref="H36:N36" si="1">G36-8</f>
+      <c r="I36" s="5">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I36" s="5">
-        <f t="shared" si="1"/>
+      <c r="J36" s="5">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="J36" s="5">
-        <f t="shared" si="1"/>
+      <c r="K36" s="5">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="K36" s="5">
-        <f t="shared" si="1"/>
+      <c r="L36" s="5">
+        <f t="shared" si="0"/>
         <v>36</v>
-      </c>
-      <c r="L36" s="5">
-        <f t="shared" si="1"/>
-        <v>28</v>
       </c>
       <c r="M36" s="5">
         <f>L36-8</f>
+        <v>28</v>
+      </c>
+      <c r="N36" s="5">
+        <f t="shared" si="0"/>
         <v>20</v>
-      </c>
-      <c r="N36" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
       </c>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
@@ -3240,29 +3336,27 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
@@ -3271,27 +3365,27 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
@@ -3300,27 +3394,27 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
@@ -3329,27 +3423,27 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
@@ -3358,27 +3452,27 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
@@ -3387,27 +3481,27 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
@@ -3416,7 +3510,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="5"/>
@@ -3445,7 +3539,7 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="5"/>
@@ -3474,7 +3568,7 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="5"/>
@@ -3503,7 +3597,7 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="5"/>
@@ -3532,7 +3626,7 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="5"/>
@@ -3561,7 +3655,7 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="5"/>
@@ -6205,130 +6299,10 @@
     <mergeCell ref="A37:T42"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A37" r:id="rId1"/>
-    <hyperlink ref="B37" r:id="rId2" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="C37" r:id="rId3" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="D37" r:id="rId4" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="E37" r:id="rId5" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="F37" r:id="rId6" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="G37" r:id="rId7" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="H37" r:id="rId8" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="I37" r:id="rId9" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="J37" r:id="rId10" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="K37" r:id="rId11" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="L37" r:id="rId12" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="M37" r:id="rId13" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="N37" r:id="rId14" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="O37" r:id="rId15" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="P37" r:id="rId16" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="Q37" r:id="rId17" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="R37" r:id="rId18" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="S37" r:id="rId19" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="T37" r:id="rId20" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="A38" r:id="rId21" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="B38" r:id="rId22" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="C38" r:id="rId23" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="D38" r:id="rId24" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="E38" r:id="rId25" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="F38" r:id="rId26" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="G38" r:id="rId27" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="H38" r:id="rId28" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="I38" r:id="rId29" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="J38" r:id="rId30" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="K38" r:id="rId31" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="L38" r:id="rId32" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="M38" r:id="rId33" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="N38" r:id="rId34" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="O38" r:id="rId35" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="P38" r:id="rId36" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="Q38" r:id="rId37" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="R38" r:id="rId38" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="S38" r:id="rId39" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="T38" r:id="rId40" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="A39" r:id="rId41" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="B39" r:id="rId42" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="C39" r:id="rId43" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="D39" r:id="rId44" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="E39" r:id="rId45" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="F39" r:id="rId46" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="G39" r:id="rId47" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="H39" r:id="rId48" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="I39" r:id="rId49" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="J39" r:id="rId50" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="K39" r:id="rId51" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="L39" r:id="rId52" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="M39" r:id="rId53" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="N39" r:id="rId54" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="O39" r:id="rId55" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="P39" r:id="rId56" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="Q39" r:id="rId57" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="R39" r:id="rId58" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="S39" r:id="rId59" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="T39" r:id="rId60" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="A40" r:id="rId61" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="B40" r:id="rId62" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="C40" r:id="rId63" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="D40" r:id="rId64" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="E40" r:id="rId65" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="F40" r:id="rId66" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="G40" r:id="rId67" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="H40" r:id="rId68" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="I40" r:id="rId69" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="J40" r:id="rId70" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="K40" r:id="rId71" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="L40" r:id="rId72" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="M40" r:id="rId73" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="N40" r:id="rId74" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="O40" r:id="rId75" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="P40" r:id="rId76" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="Q40" r:id="rId77" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="R40" r:id="rId78" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="S40" r:id="rId79" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="T40" r:id="rId80" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="A41" r:id="rId81" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="B41" r:id="rId82" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="C41" r:id="rId83" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="D41" r:id="rId84" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="E41" r:id="rId85" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="F41" r:id="rId86" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="G41" r:id="rId87" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="H41" r:id="rId88" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="I41" r:id="rId89" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="J41" r:id="rId90" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="K41" r:id="rId91" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="L41" r:id="rId92" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="M41" r:id="rId93" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="N41" r:id="rId94" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="O41" r:id="rId95" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="P41" r:id="rId96" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="Q41" r:id="rId97" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="R41" r:id="rId98" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="S41" r:id="rId99" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="T41" r:id="rId100" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="A42" r:id="rId101" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="B42" r:id="rId102" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="C42" r:id="rId103" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="D42" r:id="rId104" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="E42" r:id="rId105" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="F42" r:id="rId106" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="G42" r:id="rId107" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="H42" r:id="rId108" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="I42" r:id="rId109" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="J42" r:id="rId110" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="K42" r:id="rId111" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="L42" r:id="rId112" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="M42" r:id="rId113" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="N42" r:id="rId114" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="O42" r:id="rId115" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="P42" r:id="rId116" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="Q42" r:id="rId117" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="R42" r:id="rId118" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="S42" r:id="rId119" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="T42" r:id="rId120" display="Create a Sprint Backlog in Smartsheet"/>
-    <hyperlink ref="A26" r:id="rId121" display="http://www.covers.com/pageLoader/pageLoader.aspx?page=/data/mlb/matchups/g4_summary_12.html"/>
+    <hyperlink ref="A26" r:id="rId1" display="http://www.covers.com/pageLoader/pageLoader.aspx?page=/data/mlb/matchups/g4_summary_12.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId122"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -6343,7 +6317,7 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!E35:O35</xm:f>
+              <xm:f>Sheet1!E35:Q35</xm:f>
               <xm:sqref>D35</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>

--- a/Scrum/Proyect/Sprint-backlog-template (1).xlsx
+++ b/Scrum/Proyect/Sprint-backlog-template (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -104,12 +104,6 @@
     <t>Link between the extracted data (New requirement)</t>
   </si>
   <si>
-    <t>Extras</t>
-  </si>
-  <si>
-    <t>Extract datatable by headers</t>
-  </si>
-  <si>
     <t>Day 21</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <t>Actual remaining hours</t>
   </si>
   <si>
-    <t>Save data in database</t>
-  </si>
-  <si>
     <t>Ezequiel says priority is to save in database</t>
   </si>
   <si>
@@ -154,12 +145,30 @@
   <si>
     <t>Day 27</t>
   </si>
+  <si>
+    <t>Extras 6.</t>
+  </si>
+  <si>
+    <t>6.1 Extract datatable by headers</t>
+  </si>
+  <si>
+    <t>6.2 Save data in database</t>
+  </si>
+  <si>
+    <t>Pending 25</t>
+  </si>
+  <si>
+    <t>5.2 Do upsert</t>
+  </si>
+  <si>
+    <t>5.3 Load game hour</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,8 +226,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +293,11 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -317,15 +338,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -370,13 +392,18 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent4" xfId="4" builtinId="42"/>
     <cellStyle name="40% - Accent4" xfId="5" builtinId="43"/>
+    <cellStyle name="Accent3" xfId="6" builtinId="37"/>
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -705,11 +732,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-580474160"/>
-        <c:axId val="-580473616"/>
+        <c:axId val="-581620672"/>
+        <c:axId val="-581623392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-580474160"/>
+        <c:axId val="-581620672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,7 +778,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-580473616"/>
+        <c:crossAx val="-581623392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -759,7 +786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-580473616"/>
+        <c:axId val="-581623392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -809,7 +836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-580474160"/>
+        <c:crossAx val="-581620672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1764,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1838,7 +1865,7 @@
     </row>
     <row r="3" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
@@ -1942,42 +1969,44 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -2014,7 +2043,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="5"/>
+      <c r="R7" s="10"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -2051,7 +2080,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
-      <c r="R8" s="5"/>
+      <c r="R8" s="14"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
@@ -2096,7 +2125,9 @@
       <c r="Q9" s="14">
         <v>0</v>
       </c>
-      <c r="R9" s="5"/>
+      <c r="R9" s="14">
+        <v>0</v>
+      </c>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -2141,7 +2172,9 @@
       <c r="Q10" s="14">
         <v>0</v>
       </c>
-      <c r="R10" s="5"/>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -2184,7 +2217,9 @@
       <c r="Q11" s="14">
         <v>0</v>
       </c>
-      <c r="R11" s="5"/>
+      <c r="R11" s="14">
+        <v>0</v>
+      </c>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
@@ -2221,7 +2256,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
-      <c r="R12" s="5"/>
+      <c r="R12" s="10"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -2243,7 +2278,7 @@
       <c r="B13" s="19"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13" s="19">
         <v>8</v>
@@ -2266,7 +2301,9 @@
       <c r="Q13" s="19">
         <v>0</v>
       </c>
-      <c r="R13" s="5"/>
+      <c r="R13" s="19">
+        <v>0</v>
+      </c>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -2288,7 +2325,7 @@
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E14" s="19">
         <v>7</v>
@@ -2311,7 +2348,9 @@
       <c r="Q14" s="19">
         <v>0</v>
       </c>
-      <c r="R14" s="5"/>
+      <c r="R14" s="19">
+        <v>0</v>
+      </c>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -2342,18 +2381,21 @@
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17">
-        <f>E15</f>
+        <f t="shared" ref="O15:R17" si="0">E15</f>
         <v>0</v>
       </c>
       <c r="P15" s="17">
-        <f>F15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q15" s="17">
-        <f>G15</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="5"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -2384,18 +2426,21 @@
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
       <c r="O16" s="17">
-        <f>E16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P16" s="17">
-        <f>F16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q16" s="17">
-        <f>G16</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="5"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -2430,18 +2475,21 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="4">
-        <f>E17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P17" s="4">
-        <f>F17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q17" s="4">
-        <f>G17</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="5"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -2463,7 +2511,7 @@
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
       <c r="D18" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" s="21">
         <v>8</v>
@@ -2478,7 +2526,7 @@
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
       <c r="O18" s="21">
-        <f>E18</f>
+        <f t="shared" ref="O18:O34" si="1">E18</f>
         <v>8</v>
       </c>
       <c r="P18" s="21">
@@ -2487,7 +2535,9 @@
       <c r="Q18" s="21">
         <v>0</v>
       </c>
-      <c r="R18" s="5"/>
+      <c r="R18" s="21">
+        <v>0</v>
+      </c>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -2518,18 +2568,21 @@
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
       <c r="O19" s="17">
-        <f>E19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P19" s="17">
-        <f>F19</f>
+        <f t="shared" ref="P19:R22" si="2">F19</f>
         <v>0</v>
       </c>
       <c r="Q19" s="17">
-        <f>G19</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
@@ -2560,18 +2613,21 @@
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
       <c r="O20" s="17">
-        <f>E20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P20" s="17">
-        <f>F20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q20" s="17">
-        <f>G20</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
@@ -2602,18 +2658,21 @@
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
       <c r="O21" s="17">
-        <f>E21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P21" s="17">
-        <f>F21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q21" s="17">
-        <f>G21</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -2648,18 +2707,21 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="4">
-        <f>E22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P22" s="4">
-        <f>F22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q22" s="4">
-        <f>G22</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -2696,7 +2758,7 @@
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14">
-        <f>E23</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="P23" s="14">
@@ -2705,7 +2767,9 @@
       <c r="Q23" s="14">
         <v>0</v>
       </c>
-      <c r="R23" s="5"/>
+      <c r="R23" s="14">
+        <v>0</v>
+      </c>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -2742,7 +2806,7 @@
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
       <c r="O24" s="14">
-        <f>E24</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="P24" s="14">
@@ -2751,7 +2815,9 @@
       <c r="Q24" s="14">
         <v>0</v>
       </c>
-      <c r="R24" s="5"/>
+      <c r="R24" s="14">
+        <v>0</v>
+      </c>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
@@ -2788,7 +2854,7 @@
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14">
-        <f>E25</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="P25" s="14">
@@ -2797,7 +2863,9 @@
       <c r="Q25" s="14">
         <v>0</v>
       </c>
-      <c r="R25" s="5"/>
+      <c r="R25" s="14">
+        <v>0</v>
+      </c>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
@@ -2836,7 +2904,7 @@
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="14">
-        <f>E26</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="P26" s="14">
@@ -2845,7 +2913,9 @@
       <c r="Q26" s="14">
         <v>0</v>
       </c>
-      <c r="R26" s="5"/>
+      <c r="R26" s="14">
+        <v>0</v>
+      </c>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -2882,18 +2952,21 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4">
-        <f>E27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P27" s="4">
-        <f>F27</f>
+        <f t="shared" ref="P27:R28" si="3">F27</f>
         <v>0</v>
       </c>
       <c r="Q27" s="4">
-        <f>G27</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
@@ -2928,18 +3001,21 @@
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="4">
-        <f>E28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P28" s="4">
-        <f>F28</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q28" s="4">
-        <f>G28</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
@@ -2954,36 +3030,27 @@
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
     </row>
-    <row r="29" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4">
+      <c r="B29"/>
+      <c r="E29">
         <v>8</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4">
-        <f>E29</f>
+      <c r="O29">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29">
         <v>8</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29">
         <v>8</v>
       </c>
-      <c r="R29" s="5"/>
+      <c r="R29">
+        <v>4</v>
+      </c>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
@@ -2998,34 +3065,26 @@
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
     </row>
-    <row r="30" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17">
-        <f>E30</f>
-        <v>0</v>
-      </c>
-      <c r="P30" s="17">
-        <f>F30</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="17">
-        <f>G30</f>
-        <v>0</v>
-      </c>
-      <c r="R30" s="5"/>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30"/>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ref="P30:Q33" si="4">F30</f>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>4</v>
+      </c>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
@@ -3040,34 +3099,26 @@
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
     </row>
-    <row r="31" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17">
-        <f>E31</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="17">
-        <f>F31</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="17">
-        <f>G31</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="5"/>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31"/>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
@@ -3082,9 +3133,9 @@
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
     </row>
-    <row r="32" spans="1:31" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
@@ -3100,18 +3151,21 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4">
-        <f>E32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P32" s="4">
-        <f>F32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q32" s="4">
-        <f>G32</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="5"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="4">
+        <f>H32</f>
+        <v>0</v>
+      </c>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -3128,7 +3182,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
@@ -3144,18 +3198,21 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4">
-        <f>E33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P33" s="4">
-        <f>F33</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q33" s="4">
-        <f>G33</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="5"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="4">
+        <f>H33</f>
+        <v>0</v>
+      </c>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
@@ -3171,35 +3228,37 @@
       <c r="AE33" s="5"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4">
+      <c r="A34" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23">
         <v>8</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4">
-        <f>E34</f>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="23">
         <v>8</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q34" s="23">
         <v>8</v>
       </c>
-      <c r="R34" s="5"/>
+      <c r="R34" s="23">
+        <v>0</v>
+      </c>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
@@ -3221,7 +3280,7 @@
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E35" s="11">
         <f>SUM(E7:E34)</f>
@@ -3260,7 +3319,10 @@
         <f>SUM(Q7:Q34)</f>
         <v>16</v>
       </c>
-      <c r="R35" s="5"/>
+      <c r="R35" s="4">
+        <f>SUM(R7:R34)</f>
+        <v>8</v>
+      </c>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
@@ -3295,23 +3357,23 @@
         <v>76</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" ref="H36:N36" si="0">G36-8</f>
+        <f t="shared" ref="H36:N36" si="5">G36-8</f>
         <v>68</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="M36" s="5">
@@ -3319,7 +3381,7 @@
         <v>28</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="O36" s="5"/>
@@ -3337,26 +3399,26 @@
       <c r="AA36" s="5"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
@@ -3366,26 +3428,26 @@
       <c r="AA37" s="5"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
@@ -3395,26 +3457,26 @@
       <c r="AA38" s="5"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
@@ -3424,26 +3486,26 @@
       <c r="AA39" s="5"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
@@ -3453,26 +3515,26 @@
       <c r="AA40" s="5"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
@@ -3482,26 +3544,26 @@
       <c r="AA41" s="5"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="24"/>
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>

--- a/Scrum/Proyect/Sprint-backlog-template (1).xlsx
+++ b/Scrum/Proyect/Sprint-backlog-template (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -732,11 +732,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-581620672"/>
-        <c:axId val="-581623392"/>
+        <c:axId val="-1138266064"/>
+        <c:axId val="-1138273680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-581620672"/>
+        <c:axId val="-1138266064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,7 +778,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-581623392"/>
+        <c:crossAx val="-1138273680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -786,7 +786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-581623392"/>
+        <c:axId val="-1138273680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -836,7 +836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-581620672"/>
+        <c:crossAx val="-1138266064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1791,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="R35" s="4">
         <f>SUM(R7:R34)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>

--- a/Scrum/Proyect/Sprint-backlog-template (1).xlsx
+++ b/Scrum/Proyect/Sprint-backlog-template (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -140,12 +140,6 @@
     <t>Pending 24</t>
   </si>
   <si>
-    <t>Day 26</t>
-  </si>
-  <si>
-    <t>Day 27</t>
-  </si>
-  <si>
     <t>Extras 6.</t>
   </si>
   <si>
@@ -163,12 +157,36 @@
   <si>
     <t>5.3 Load game hour</t>
   </si>
+  <si>
+    <t>Day 30</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Pending 28</t>
+  </si>
+  <si>
+    <t>Pending 29</t>
+  </si>
+  <si>
+    <t>Pending 30</t>
+  </si>
+  <si>
+    <t>Pending 31</t>
+  </si>
+  <si>
+    <t>6.2 Insert and alter Teams</t>
+  </si>
+  <si>
+    <t>6.3 Insert and alter Pitchers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,8 +251,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +323,11 @@
         <fgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -338,7 +368,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -346,8 +376,9 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,11 +430,17 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="20% - Accent4" xfId="4" builtinId="42"/>
     <cellStyle name="40% - Accent4" xfId="5" builtinId="43"/>
     <cellStyle name="Accent3" xfId="6" builtinId="37"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -545,9 +582,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$6:$O$6</c:f>
+              <c:f>Sheet1!$F$6:$V$6</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>Day 21</c:v>
                 </c:pt>
@@ -564,18 +601,39 @@
                   <c:v>Day 25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Day 26</c:v>
+                  <c:v>Day 28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Day 27</c:v>
+                  <c:v>Day 29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Day 28</c:v>
+                  <c:v>Day 30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Day 29</c:v>
+                  <c:v>Day 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Pending 23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Pending 24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Pending 25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Pending 28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Pending 29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Pending 30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Pending 31</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Sprint Review</c:v>
                 </c:pt>
               </c:strCache>
@@ -583,10 +641,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$35:$O$35</c:f>
+              <c:f>Sheet1!$E$37:$N$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>92</c:v>
                 </c:pt>
@@ -602,8 +660,14 @@
                 <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>62</c:v>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -649,9 +713,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$6:$O$6</c:f>
+              <c:f>Sheet1!$F$6:$V$6</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>Day 21</c:v>
                 </c:pt>
@@ -668,18 +732,39 @@
                   <c:v>Day 25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Day 26</c:v>
+                  <c:v>Day 28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Day 27</c:v>
+                  <c:v>Day 29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Day 28</c:v>
+                  <c:v>Day 30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Day 29</c:v>
+                  <c:v>Day 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Pending 23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Pending 24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Pending 25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Pending 28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Pending 29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Pending 30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Pending 31</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Sprint Review</c:v>
                 </c:pt>
               </c:strCache>
@@ -687,10 +772,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$36:$M$36</c:f>
+              <c:f>Sheet1!$E$38:$O$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>92</c:v>
                 </c:pt>
@@ -718,6 +803,9 @@
                 <c:pt idx="8">
                   <c:v>28</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -732,11 +820,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1138266064"/>
-        <c:axId val="-1138273680"/>
+        <c:axId val="-353086576"/>
+        <c:axId val="-353087664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1138266064"/>
+        <c:axId val="-353086576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,7 +866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1138273680"/>
+        <c:crossAx val="-353087664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -786,7 +874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1138273680"/>
+        <c:axId val="-353087664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -836,7 +924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1138266064"/>
+        <c:crossAx val="-353086576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1438,13 +1526,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3143250</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1789,10 +1877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE138"/>
+  <dimension ref="A1:AE140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1984,34 +2072,41 @@
         <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
@@ -2044,11 +2139,10 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
@@ -2081,11 +2175,10 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
@@ -2117,22 +2210,29 @@
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>0</v>
+      </c>
+      <c r="R9" s="14">
+        <v>0</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>0</v>
+      </c>
+      <c r="U9" s="14">
+        <v>0</v>
+      </c>
+      <c r="V9" s="14">
         <v>4</v>
       </c>
-      <c r="P9" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>0</v>
-      </c>
-      <c r="R9" s="14">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
@@ -2164,22 +2264,29 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>0</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
+        <v>0</v>
+      </c>
+      <c r="V10" s="14">
         <v>2</v>
       </c>
-      <c r="P10" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>0</v>
-      </c>
-      <c r="R10" s="14">
-        <v>0</v>
-      </c>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
@@ -2210,7 +2317,9 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
+      <c r="O11" s="14">
+        <v>0</v>
+      </c>
       <c r="P11" s="14">
         <v>0</v>
       </c>
@@ -2220,11 +2329,16 @@
       <c r="R11" s="14">
         <v>0</v>
       </c>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
+      <c r="S11" s="14">
+        <v>0</v>
+      </c>
+      <c r="T11" s="14">
+        <v>0</v>
+      </c>
+      <c r="U11" s="14">
+        <v>0</v>
+      </c>
+      <c r="V11" s="14"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
@@ -2257,11 +2371,10 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
@@ -2304,11 +2417,18 @@
       <c r="R13" s="19">
         <v>0</v>
       </c>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
+      <c r="S13" s="19">
+        <v>0</v>
+      </c>
+      <c r="T13" s="19">
+        <v>0</v>
+      </c>
+      <c r="U13" s="19">
+        <v>0</v>
+      </c>
+      <c r="V13" s="19">
+        <v>0</v>
+      </c>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
@@ -2351,11 +2471,18 @@
       <c r="R14" s="19">
         <v>0</v>
       </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
+      <c r="S14" s="19">
+        <v>0</v>
+      </c>
+      <c r="T14" s="19">
+        <v>0</v>
+      </c>
+      <c r="U14" s="19">
+        <v>0</v>
+      </c>
+      <c r="V14" s="19">
+        <v>0</v>
+      </c>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
@@ -2381,26 +2508,37 @@
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17">
-        <f t="shared" ref="O15:R17" si="0">E15</f>
+        <f>F15</f>
         <v>0</v>
       </c>
       <c r="P15" s="17">
-        <f t="shared" si="0"/>
+        <f>G15</f>
         <v>0</v>
       </c>
       <c r="Q15" s="17">
-        <f t="shared" si="0"/>
+        <f>H15</f>
         <v>0</v>
       </c>
       <c r="R15" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
+        <f>I15</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="17">
+        <f>J15</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="17">
+        <f>K15</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="17">
+        <f>L15</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="17">
+        <f>E15</f>
+        <v>0</v>
+      </c>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
@@ -2426,26 +2564,37 @@
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
       <c r="O16" s="17">
-        <f t="shared" si="0"/>
+        <f>F16</f>
         <v>0</v>
       </c>
       <c r="P16" s="17">
-        <f t="shared" si="0"/>
+        <f>G16</f>
         <v>0</v>
       </c>
       <c r="Q16" s="17">
-        <f t="shared" si="0"/>
+        <f>H16</f>
         <v>0</v>
       </c>
       <c r="R16" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
+        <f>I16</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="17">
+        <f>J16</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="17">
+        <f>K16</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="17">
+        <f>L16</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="17">
+        <f>E16</f>
+        <v>0</v>
+      </c>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
@@ -2475,26 +2624,37 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="4">
-        <f t="shared" si="0"/>
+        <f>F17</f>
         <v>0</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="0"/>
+        <f>G17</f>
         <v>0</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" si="0"/>
+        <f>H17</f>
         <v>0</v>
       </c>
       <c r="R17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
+        <f>I17</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <f>J17</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <f>K17</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="4">
+        <f>L17</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <f>E17</f>
+        <v>0</v>
+      </c>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
@@ -2526,23 +2686,30 @@
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
       <c r="O18" s="21">
-        <f t="shared" ref="O18:O34" si="1">E18</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>0</v>
+      </c>
+      <c r="R18" s="21">
+        <v>0</v>
+      </c>
+      <c r="S18" s="21">
+        <v>0</v>
+      </c>
+      <c r="T18" s="21">
+        <v>0</v>
+      </c>
+      <c r="U18" s="21">
+        <v>0</v>
+      </c>
+      <c r="V18" s="21">
+        <f>E18</f>
         <v>8</v>
       </c>
-      <c r="P18" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="21">
-        <v>0</v>
-      </c>
-      <c r="R18" s="21">
-        <v>0</v>
-      </c>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
@@ -2568,26 +2735,37 @@
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
       <c r="O19" s="17">
-        <f t="shared" si="1"/>
+        <f>F19</f>
         <v>0</v>
       </c>
       <c r="P19" s="17">
-        <f t="shared" ref="P19:R22" si="2">F19</f>
+        <f>G19</f>
         <v>0</v>
       </c>
       <c r="Q19" s="17">
-        <f t="shared" si="2"/>
+        <f>H19</f>
         <v>0</v>
       </c>
       <c r="R19" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
+        <f>I19</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="17">
+        <f>J19</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="17">
+        <f>K19</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="17">
+        <f>L19</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="17">
+        <f>E19</f>
+        <v>0</v>
+      </c>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
@@ -2613,26 +2791,37 @@
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
       <c r="O20" s="17">
-        <f t="shared" si="1"/>
+        <f>F20</f>
         <v>0</v>
       </c>
       <c r="P20" s="17">
-        <f t="shared" si="2"/>
+        <f>G20</f>
         <v>0</v>
       </c>
       <c r="Q20" s="17">
-        <f t="shared" si="2"/>
+        <f>H20</f>
         <v>0</v>
       </c>
       <c r="R20" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
+        <f>I20</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="17">
+        <f>J20</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="17">
+        <f>K20</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="17">
+        <f>L20</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="17">
+        <f>E20</f>
+        <v>0</v>
+      </c>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
@@ -2658,26 +2847,37 @@
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
       <c r="O21" s="17">
-        <f t="shared" si="1"/>
+        <f>F21</f>
         <v>0</v>
       </c>
       <c r="P21" s="17">
-        <f t="shared" si="2"/>
+        <f>G21</f>
         <v>0</v>
       </c>
       <c r="Q21" s="17">
-        <f t="shared" si="2"/>
+        <f>H21</f>
         <v>0</v>
       </c>
       <c r="R21" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
+        <f>I21</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="17">
+        <f>J21</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="17">
+        <f>K21</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="17">
+        <f>L21</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="17">
+        <f>E21</f>
+        <v>0</v>
+      </c>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
@@ -2707,26 +2907,37 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="4">
-        <f t="shared" si="1"/>
+        <f>F22</f>
         <v>0</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="2"/>
+        <f>G22</f>
         <v>0</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="2"/>
+        <f>H22</f>
         <v>0</v>
       </c>
       <c r="R22" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
+        <f>I22</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <f>J22</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <f>K22</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="4">
+        <f>L22</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
+        <f>E22</f>
+        <v>0</v>
+      </c>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
@@ -2758,23 +2969,30 @@
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>0</v>
+      </c>
+      <c r="R23" s="14">
+        <v>0</v>
+      </c>
+      <c r="S23" s="14">
+        <v>0</v>
+      </c>
+      <c r="T23" s="14">
+        <v>0</v>
+      </c>
+      <c r="U23" s="14">
+        <v>0</v>
+      </c>
+      <c r="V23" s="14">
+        <f>E23</f>
         <v>8</v>
       </c>
-      <c r="P23" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="14">
-        <v>0</v>
-      </c>
-      <c r="R23" s="14">
-        <v>0</v>
-      </c>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
@@ -2806,23 +3024,30 @@
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
       <c r="O24" s="14">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>0</v>
+      </c>
+      <c r="R24" s="14">
+        <v>0</v>
+      </c>
+      <c r="S24" s="14">
+        <v>0</v>
+      </c>
+      <c r="T24" s="14">
+        <v>0</v>
+      </c>
+      <c r="U24" s="14">
+        <v>0</v>
+      </c>
+      <c r="V24" s="14">
+        <f>E24</f>
         <v>8</v>
       </c>
-      <c r="P24" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="14">
-        <v>0</v>
-      </c>
-      <c r="R24" s="14">
-        <v>0</v>
-      </c>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
@@ -2854,23 +3079,30 @@
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>0</v>
+      </c>
+      <c r="R25" s="14">
+        <v>0</v>
+      </c>
+      <c r="S25" s="14">
+        <v>0</v>
+      </c>
+      <c r="T25" s="14">
+        <v>0</v>
+      </c>
+      <c r="U25" s="14">
+        <v>0</v>
+      </c>
+      <c r="V25" s="14">
+        <f>E25</f>
         <v>8</v>
       </c>
-      <c r="P25" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="14">
-        <v>0</v>
-      </c>
-      <c r="R25" s="14">
-        <v>0</v>
-      </c>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
@@ -2904,23 +3136,30 @@
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="14">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>0</v>
+      </c>
+      <c r="R26" s="14">
+        <v>0</v>
+      </c>
+      <c r="S26" s="14">
+        <v>0</v>
+      </c>
+      <c r="T26" s="14">
+        <v>0</v>
+      </c>
+      <c r="U26" s="14">
+        <v>0</v>
+      </c>
+      <c r="V26" s="14">
+        <f>E26</f>
         <v>8</v>
       </c>
-      <c r="P26" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="14">
-        <v>0</v>
-      </c>
-      <c r="R26" s="14">
-        <v>0</v>
-      </c>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
@@ -2952,26 +3191,37 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4">
-        <f t="shared" si="1"/>
+        <f>F27</f>
         <v>0</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" ref="P27:R28" si="3">F27</f>
+        <f>G27</f>
         <v>0</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" si="3"/>
+        <f>H27</f>
         <v>0</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
+        <f>I27</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="4">
+        <f>J27</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="4">
+        <f>K27</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="4">
+        <f>L27</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="4">
+        <f>E27</f>
+        <v>0</v>
+      </c>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
@@ -3001,26 +3251,37 @@
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="4">
-        <f t="shared" si="1"/>
+        <f>F28</f>
         <v>0</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="3"/>
+        <f>G28</f>
         <v>0</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="3"/>
+        <f>H28</f>
         <v>0</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
+        <f>I28</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="4">
+        <f>J28</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="4">
+        <f>K28</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="4">
+        <f>L28</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="4">
+        <f>E28</f>
+        <v>0</v>
+      </c>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
@@ -3031,31 +3292,49 @@
       <c r="AE28" s="5"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B29"/>
-      <c r="E29">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25">
         <v>8</v>
       </c>
-      <c r="O29">
-        <f t="shared" si="1"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25">
         <v>8</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="25">
         <v>8</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="25">
+        <v>4</v>
+      </c>
+      <c r="R29" s="25">
+        <v>0</v>
+      </c>
+      <c r="S29" s="25">
+        <v>0</v>
+      </c>
+      <c r="T29" s="25">
+        <v>0</v>
+      </c>
+      <c r="U29" s="25">
+        <v>0</v>
+      </c>
+      <c r="V29" s="25">
+        <f>E29</f>
         <v>8</v>
       </c>
-      <c r="R29">
-        <v>4</v>
-      </c>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
@@ -3066,30 +3345,49 @@
       <c r="AE29" s="5"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30"/>
-      <c r="O30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <f t="shared" ref="P30:Q33" si="4">F30</f>
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R30">
+      <c r="A30" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15">
+        <f>F30</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="15">
+        <f>G30</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="15">
         <v>2</v>
       </c>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
+      <c r="R30" s="15">
+        <v>2</v>
+      </c>
+      <c r="S30" s="15">
+        <v>0</v>
+      </c>
+      <c r="T30" s="15">
+        <v>2</v>
+      </c>
+      <c r="U30" s="15">
+        <v>2</v>
+      </c>
+      <c r="V30" s="15">
+        <f>E30</f>
+        <v>0</v>
+      </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
@@ -3101,29 +3399,36 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31"/>
       <c r="O31">
-        <f t="shared" si="1"/>
+        <f>F31</f>
         <v>0</v>
       </c>
       <c r="P31">
-        <f t="shared" si="4"/>
+        <f>G31</f>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R31">
         <v>0</v>
       </c>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f>E31</f>
+        <v>0</v>
+      </c>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
@@ -3135,7 +3440,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
@@ -3151,26 +3456,37 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4">
-        <f t="shared" si="1"/>
+        <f>F32</f>
         <v>0</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" si="4"/>
+        <f>G32</f>
         <v>0</v>
       </c>
       <c r="Q32" s="4">
-        <f t="shared" si="4"/>
+        <f>H32</f>
         <v>0</v>
       </c>
       <c r="R32" s="4">
-        <f>H32</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
+        <f>I32</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="4">
+        <f>J32</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="4">
+        <f>K32</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="4">
+        <f>L32</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="4">
+        <f>E32</f>
+        <v>0</v>
+      </c>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
@@ -3182,7 +3498,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
@@ -3198,26 +3514,37 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4">
-        <f t="shared" si="1"/>
+        <f>F33</f>
         <v>0</v>
       </c>
       <c r="P33" s="4">
-        <f t="shared" si="4"/>
+        <f>G33</f>
         <v>0</v>
       </c>
       <c r="Q33" s="4">
-        <f t="shared" si="4"/>
+        <f>H33</f>
         <v>0</v>
       </c>
       <c r="R33" s="4">
-        <f>H33</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
+        <f>I33</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="4">
+        <f>J33</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="4">
+        <f>K33</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="4">
+        <f>L33</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="4">
+        <f>E33</f>
+        <v>0</v>
+      </c>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
@@ -3228,42 +3555,34 @@
       <c r="AE33" s="5"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23">
-        <v>8</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="P34" s="23">
-        <v>8</v>
-      </c>
-      <c r="Q34" s="23">
-        <v>8</v>
-      </c>
-      <c r="R34" s="23">
-        <v>0</v>
-      </c>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
+      <c r="A34" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27">
+        <v>2</v>
+      </c>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27">
+        <v>2</v>
+      </c>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
@@ -3273,61 +3592,35 @@
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
     </row>
-    <row r="35" spans="1:31" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="11">
-        <f>SUM(E7:E34)</f>
-        <v>92</v>
-      </c>
-      <c r="F35" s="11">
-        <f>SUM(O8:O34)-SUM(F8:F34)</f>
-        <v>34</v>
-      </c>
-      <c r="G35" s="11">
-        <f>F35-SUM(G8:G34)</f>
-        <v>27</v>
-      </c>
-      <c r="H35" s="11">
-        <f>P35</f>
-        <v>16</v>
-      </c>
-      <c r="I35" s="11">
-        <f>P35</f>
-        <v>16</v>
-      </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="4">
-        <f>SUM(O7:O34)</f>
-        <v>62</v>
-      </c>
-      <c r="P35" s="4">
-        <f>SUM(P7:P34)</f>
-        <v>16</v>
-      </c>
-      <c r="Q35" s="4">
-        <f>SUM(Q7:Q34)</f>
-        <v>16</v>
-      </c>
-      <c r="R35" s="4">
-        <f>SUM(R7:R34)</f>
-        <v>6</v>
-      </c>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27">
+        <v>2</v>
+      </c>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27">
+        <v>2</v>
+      </c>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
@@ -3338,116 +3631,207 @@
       <c r="AE35" s="5"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="5">
-        <f>SUM(E8:E34)</f>
-        <v>92</v>
-      </c>
-      <c r="F36" s="5">
-        <f>E36-8</f>
-        <v>84</v>
-      </c>
-      <c r="G36" s="5">
-        <f>F36-8</f>
-        <v>76</v>
-      </c>
-      <c r="H36" s="5">
-        <f t="shared" ref="H36:N36" si="5">G36-8</f>
-        <v>68</v>
-      </c>
-      <c r="I36" s="5">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="J36" s="5">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-      <c r="K36" s="5">
-        <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="L36" s="5">
-        <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
-      <c r="M36" s="5">
-        <f>L36-8</f>
-        <v>28</v>
-      </c>
-      <c r="N36" s="5">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
+      <c r="A36" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23">
+        <v>8</v>
+      </c>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23">
+        <v>8</v>
+      </c>
+      <c r="I36" s="23">
+        <v>8</v>
+      </c>
+      <c r="J36" s="23">
+        <v>0</v>
+      </c>
+      <c r="K36" s="23">
+        <v>0</v>
+      </c>
+      <c r="L36" s="23">
+        <v>0</v>
+      </c>
+      <c r="M36" s="23">
+        <v>0</v>
+      </c>
+      <c r="N36" s="23">
+        <v>0</v>
+      </c>
+      <c r="O36" s="23">
+        <v>8</v>
+      </c>
+      <c r="P36" s="23">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="23">
+        <v>0</v>
+      </c>
+      <c r="R36" s="23">
+        <v>0</v>
+      </c>
+      <c r="S36" s="23">
+        <v>0</v>
+      </c>
+      <c r="T36" s="23">
+        <v>0</v>
+      </c>
+      <c r="U36" s="23">
+        <v>0</v>
+      </c>
+      <c r="V36" s="23">
+        <f>E36</f>
+        <v>8</v>
+      </c>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+    </row>
+    <row r="37" spans="1:31" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="11">
+        <f>SUM(E7:E36)</f>
+        <v>92</v>
+      </c>
+      <c r="F37" s="11">
+        <f>SUM(V8:V36)-SUM(F8:F36)</f>
+        <v>34</v>
+      </c>
+      <c r="G37" s="11">
+        <f>F37-SUM(G8:G36)</f>
+        <v>27</v>
+      </c>
+      <c r="H37" s="11">
+        <f>O37</f>
+        <v>16</v>
+      </c>
+      <c r="I37" s="11">
+        <f>O37</f>
+        <v>16</v>
+      </c>
+      <c r="J37" s="4">
+        <v>6</v>
+      </c>
+      <c r="K37" s="4">
+        <v>2</v>
+      </c>
+      <c r="L37" s="4">
+        <f>SUM(L7:L36)</f>
+        <v>4</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4">
+        <f>SUM(O7:O36)</f>
+        <v>16</v>
+      </c>
+      <c r="P37" s="4">
+        <f>SUM(P7:P36)</f>
+        <v>16</v>
+      </c>
+      <c r="Q37" s="4">
+        <f>SUM(Q7:Q36)</f>
+        <v>6</v>
+      </c>
+      <c r="R37" s="4">
+        <f>SUM(R7:R36)</f>
+        <v>2</v>
+      </c>
+      <c r="S37" s="4">
+        <f>SUM(S7:S36)</f>
+        <v>4</v>
+      </c>
+      <c r="T37" s="4">
+        <f>SUM(T7:T36)</f>
+        <v>2</v>
+      </c>
+      <c r="U37" s="4">
+        <f>SUM(U7:U36)</f>
+        <v>2</v>
+      </c>
+      <c r="V37" s="4">
+        <f>SUM(V7:V36)</f>
+        <v>62</v>
+      </c>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="5">
+        <f>SUM(E8:E36)</f>
+        <v>92</v>
+      </c>
+      <c r="F38" s="5">
+        <f>E38-8</f>
+        <v>84</v>
+      </c>
+      <c r="G38" s="5">
+        <f>F38-8</f>
+        <v>76</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" ref="H38:N38" si="0">G38-8</f>
+        <v>68</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="J38" s="5">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="K38" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="L38" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="M38" s="5">
+        <f>L38-8</f>
+        <v>28</v>
+      </c>
+      <c r="N38" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
@@ -3573,26 +3957,26 @@
       <c r="AA42" s="5"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
@@ -3602,26 +3986,26 @@
       <c r="AA43" s="5"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
@@ -6356,9 +6740,67 @@
       <c r="Z138" s="5"/>
       <c r="AA138" s="5"/>
     </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A139" s="5"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="5"/>
+      <c r="N139" s="5"/>
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="R139" s="5"/>
+      <c r="S139" s="5"/>
+      <c r="T139" s="5"/>
+      <c r="U139" s="5"/>
+      <c r="V139" s="5"/>
+      <c r="W139" s="5"/>
+      <c r="X139" s="5"/>
+      <c r="Y139" s="5"/>
+      <c r="Z139" s="5"/>
+      <c r="AA139" s="5"/>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A140" s="5"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="5"/>
+      <c r="M140" s="5"/>
+      <c r="N140" s="5"/>
+      <c r="O140" s="5"/>
+      <c r="P140" s="5"/>
+      <c r="Q140" s="5"/>
+      <c r="R140" s="5"/>
+      <c r="S140" s="5"/>
+      <c r="T140" s="5"/>
+      <c r="U140" s="5"/>
+      <c r="V140" s="5"/>
+      <c r="W140" s="5"/>
+      <c r="X140" s="5"/>
+      <c r="Y140" s="5"/>
+      <c r="Z140" s="5"/>
+      <c r="AA140" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A37:T42"/>
+    <mergeCell ref="A39:T44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A26" r:id="rId1" display="http://www.covers.com/pageLoader/pageLoader.aspx?page=/data/mlb/matchups/g4_summary_12.html"/>
@@ -6379,12 +6821,12 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!E35:Q35</xm:f>
-              <xm:sqref>D35</xm:sqref>
+              <xm:f>Sheet1!E37:P37</xm:f>
+              <xm:sqref>D37</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!E36:O36</xm:f>
-              <xm:sqref>D36</xm:sqref>
+              <xm:f>Sheet1!E38:O38</xm:f>
+              <xm:sqref>D38</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/Scrum/Proyect/Sprint-backlog-template (1).xlsx
+++ b/Scrum/Proyect/Sprint-backlog-template (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Original Estimate</t>
   </si>
   <si>
     <t>Sprint Review</t>
@@ -161,9 +158,6 @@
     <t>Day 30</t>
   </si>
   <si>
-    <t>Day 1</t>
-  </si>
-  <si>
     <t>Pending 28</t>
   </si>
   <si>
@@ -180,6 +174,42 @@
   </si>
   <si>
     <t>6.3 Insert and alter Pitchers</t>
+  </si>
+  <si>
+    <t>Convert to console app</t>
+  </si>
+  <si>
+    <t>1.4 Include Team Position</t>
+  </si>
+  <si>
+    <t>1.5 Tests on software</t>
+  </si>
+  <si>
+    <t>Proyected Estimate</t>
+  </si>
+  <si>
+    <t>Day 31</t>
+  </si>
+  <si>
+    <t>Cancelled as is not priority</t>
+  </si>
+  <si>
+    <t>2.3 Insert MLB Standings per day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4 Insert MLB </t>
+  </si>
+  <si>
+    <t>2.5 Link each game to standing of the day</t>
+  </si>
+  <si>
+    <t>2.5.6 To show each game standing on game table</t>
+  </si>
+  <si>
+    <t>2.6 At start, To mark as notUpdated just the games of the days queried</t>
+  </si>
+  <si>
+    <t>2.5.6.1 To show each game standing on game  in a understable way</t>
   </si>
 </sst>
 </file>
@@ -259,7 +289,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +358,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -368,7 +404,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -377,8 +413,9 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,18 +464,27 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="20% - Accent4" xfId="4" builtinId="42"/>
     <cellStyle name="40% - Accent4" xfId="5" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
     <cellStyle name="Accent3" xfId="6" builtinId="37"/>
     <cellStyle name="Bad" xfId="7" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
@@ -610,7 +656,7 @@
                   <c:v>Day 30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Day 1</c:v>
+                  <c:v>Day 31</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Pending 23</c:v>
@@ -641,18 +687,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$37:$N$37</c:f>
+              <c:f>Sheet1!$E$48:$N$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>92</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>16</c:v>
@@ -668,6 +714,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -741,7 +790,7 @@
                   <c:v>Day 30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Day 1</c:v>
+                  <c:v>Day 31</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Pending 23</c:v>
@@ -772,39 +821,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$38:$O$38</c:f>
+              <c:f>Sheet1!$E$49:$O$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>92</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -820,11 +869,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-353086576"/>
-        <c:axId val="-353087664"/>
+        <c:axId val="-2110117520"/>
+        <c:axId val="-2110110448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-353086576"/>
+        <c:axId val="-2110117520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -866,7 +915,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-353087664"/>
+        <c:crossAx val="-2110110448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -874,7 +923,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-353087664"/>
+        <c:axId val="-2110110448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,7 +973,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-353086576"/>
+        <c:crossAx val="-2110117520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1526,13 +1575,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3143250</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1877,10 +1926,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE140"/>
+  <dimension ref="A1:AE151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1893,34 +1943,81 @@
     <col min="11" max="11" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+    <row r="1" spans="1:31" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -1953,7 +2050,7 @@
     </row>
     <row r="3" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
@@ -2054,58 +2151,58 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
@@ -2118,7 +2215,7 @@
     </row>
     <row r="7" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8">
         <v>8</v>
@@ -2154,7 +2251,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="13"/>
@@ -2190,7 +2287,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="13"/>
@@ -2244,7 +2341,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="13"/>
@@ -2298,7 +2395,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="13"/>
@@ -2350,7 +2447,7 @@
     </row>
     <row r="12" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
@@ -2386,12 +2483,12 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="19">
         <v>8</v>
@@ -2440,12 +2537,12 @@
     </row>
     <row r="14" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="19">
         <v>7</v>
@@ -2493,51 +2590,59 @@
       <c r="AE14" s="5"/>
     </row>
     <row r="15" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17">
-        <f>F15</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="17">
-        <f>G15</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="17">
-        <f>H15</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="17">
-        <f>I15</f>
-        <v>0</v>
-      </c>
-      <c r="S15" s="17">
-        <f>J15</f>
-        <v>0</v>
-      </c>
-      <c r="T15" s="17">
-        <f>K15</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="17">
-        <f>L15</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="17">
-        <f>E15</f>
-        <v>0</v>
+      <c r="A15" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="31">
+        <v>4</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31">
+        <v>4</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31">
+        <v>4</v>
+      </c>
+      <c r="O15" s="31">
+        <f t="shared" ref="O15:U22" si="0">F15</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="31">
+        <f t="shared" ref="V15:V38" si="1">E15</f>
+        <v>4</v>
       </c>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
@@ -2549,51 +2654,59 @@
       <c r="AE15" s="5"/>
     </row>
     <row r="16" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17">
-        <f>F16</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="17">
-        <f>G16</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="17">
-        <f>H16</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="17">
-        <f>I16</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="17">
-        <f>J16</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="17">
-        <f>K16</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="17">
-        <f>L16</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="17">
-        <f>E16</f>
-        <v>0</v>
+      <c r="A16" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="31">
+        <v>4</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31">
+        <v>4</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31">
+        <v>4</v>
+      </c>
+      <c r="O16" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="31">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
@@ -2604,57 +2717,37 @@
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
     </row>
-    <row r="17" spans="1:31" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="8">
-        <v>5</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="4">
-        <f>F17</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <f>G17</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <f>H17</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="4">
-        <f>I17</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <f>J17</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="4">
-        <f>K17</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="4">
-        <f>L17</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="4">
-        <f>E17</f>
-        <v>0</v>
-      </c>
+    <row r="17" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="31">
+        <v>2</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31">
+        <v>2</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31">
+        <v>2</v>
+      </c>
+      <c r="V17" s="31"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
@@ -2664,52 +2757,37 @@
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
     </row>
-    <row r="18" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="21">
-        <v>8</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21">
-        <v>0</v>
-      </c>
-      <c r="P18" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="21">
-        <v>0</v>
-      </c>
-      <c r="R18" s="21">
-        <v>0</v>
-      </c>
-      <c r="S18" s="21">
-        <v>0</v>
-      </c>
-      <c r="T18" s="21">
-        <v>0</v>
-      </c>
-      <c r="U18" s="21">
-        <v>0</v>
-      </c>
-      <c r="V18" s="21">
-        <f>E18</f>
-        <v>8</v>
-      </c>
+    <row r="18" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="31">
+        <v>2</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31">
+        <v>2</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31">
+        <v>2</v>
+      </c>
+      <c r="V18" s="31"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
@@ -2720,52 +2798,34 @@
       <c r="AE18" s="5"/>
     </row>
     <row r="19" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17">
-        <f>F19</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="17">
-        <f>G19</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="17">
-        <f>H19</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="17">
-        <f>I19</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="17">
-        <f>J19</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="17">
-        <f>K19</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="17">
-        <f>L19</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="17">
-        <f>E19</f>
-        <v>0</v>
-      </c>
+      <c r="A19" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="31">
+        <v>2</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31">
+        <v>2</v>
+      </c>
+      <c r="V19" s="31"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
@@ -2776,52 +2836,28 @@
       <c r="AE19" s="5"/>
     </row>
     <row r="20" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17">
-        <f>F20</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="17">
-        <f>G20</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="17">
-        <f>H20</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="17">
-        <f>I20</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="17">
-        <f>J20</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="17">
-        <f>K20</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="17">
-        <f>L20</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="17">
-        <f>E20</f>
-        <v>0</v>
-      </c>
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
@@ -2832,7 +2868,9 @@
       <c r="AE20" s="5"/>
     </row>
     <row r="21" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
+      <c r="A21" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="B21" s="17"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -2846,38 +2884,14 @@
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="17">
-        <f>F21</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="17">
-        <f>G21</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="17">
-        <f>H21</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="17">
-        <f>I21</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="17">
-        <f>J21</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="17">
-        <f>K21</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="17">
-        <f>L21</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="17">
-        <f>E21</f>
-        <v>0</v>
-      </c>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
@@ -2889,10 +2903,10 @@
     </row>
     <row r="22" spans="1:31" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -2907,35 +2921,35 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="4">
-        <f>F22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P22" s="4">
-        <f>G22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q22" s="4">
-        <f>H22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R22" s="4">
-        <f>I22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S22" s="4">
-        <f>J22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T22" s="4">
-        <f>K22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U22" s="4">
-        <f>L22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V22" s="4">
-        <f>E22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X22" s="5"/>
@@ -2947,50 +2961,50 @@
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14">
+    <row r="23" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="21">
         <v>8</v>
       </c>
-      <c r="F23" s="14">
-        <v>8</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14">
-        <v>0</v>
-      </c>
-      <c r="P23" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="14">
-        <v>0</v>
-      </c>
-      <c r="R23" s="14">
-        <v>0</v>
-      </c>
-      <c r="S23" s="14">
-        <v>0</v>
-      </c>
-      <c r="T23" s="14">
-        <v>0</v>
-      </c>
-      <c r="U23" s="14">
-        <v>0</v>
-      </c>
-      <c r="V23" s="14">
-        <f>E23</f>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21">
+        <v>0</v>
+      </c>
+      <c r="P23" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>0</v>
+      </c>
+      <c r="R23" s="21">
+        <v>0</v>
+      </c>
+      <c r="S23" s="21">
+        <v>0</v>
+      </c>
+      <c r="T23" s="21">
+        <v>0</v>
+      </c>
+      <c r="U23" s="21">
+        <v>0</v>
+      </c>
+      <c r="V23" s="21">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="X23" s="5"/>
@@ -3002,51 +3016,52 @@
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14">
-        <v>8</v>
-      </c>
-      <c r="F24" s="14">
-        <v>8</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14">
-        <v>0</v>
-      </c>
-      <c r="P24" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="14">
-        <v>0</v>
-      </c>
-      <c r="R24" s="14">
-        <v>0</v>
-      </c>
-      <c r="S24" s="14">
-        <v>0</v>
-      </c>
-      <c r="T24" s="14">
-        <v>0</v>
-      </c>
-      <c r="U24" s="14">
-        <v>0</v>
-      </c>
-      <c r="V24" s="14">
-        <f>E24</f>
-        <v>8</v>
+    <row r="24" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17">
+        <f t="shared" ref="O24:U27" si="2">F24</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
@@ -3057,51 +3072,52 @@
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14">
-        <v>8</v>
-      </c>
-      <c r="F25" s="14">
-        <v>8</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14">
-        <v>0</v>
-      </c>
-      <c r="P25" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="14">
-        <v>0</v>
-      </c>
-      <c r="R25" s="14">
-        <v>0</v>
-      </c>
-      <c r="S25" s="14">
-        <v>0</v>
-      </c>
-      <c r="T25" s="14">
-        <v>0</v>
-      </c>
-      <c r="U25" s="14">
-        <v>0</v>
-      </c>
-      <c r="V25" s="14">
-        <f>E25</f>
-        <v>8</v>
+    <row r="25" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
@@ -3112,53 +3128,52 @@
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="14">
-        <v>8</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14">
-        <v>8</v>
-      </c>
-      <c r="F26" s="14">
-        <v>4</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14">
-        <v>0</v>
-      </c>
-      <c r="P26" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="14">
-        <v>0</v>
-      </c>
-      <c r="R26" s="14">
-        <v>0</v>
-      </c>
-      <c r="S26" s="14">
-        <v>0</v>
-      </c>
-      <c r="T26" s="14">
-        <v>0</v>
-      </c>
-      <c r="U26" s="14">
-        <v>0</v>
-      </c>
-      <c r="V26" s="14">
-        <f>E26</f>
-        <v>8</v>
+    <row r="26" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
@@ -3169,57 +3184,55 @@
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="14">
+    <row r="27" spans="1:31" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="8">
         <v>8</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13">
-        <v>8</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
       <c r="O27" s="4">
-        <f>F27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P27" s="4">
-        <f>G27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q27" s="4">
-        <f>H27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R27" s="4">
-        <f>I27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S27" s="4">
-        <f>J27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T27" s="4">
-        <f>K27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U27" s="4">
-        <f>L27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V27" s="4">
-        <f>E27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X27" s="5"/>
@@ -3231,56 +3244,51 @@
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
     </row>
-    <row r="28" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="8">
-        <v>3</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="4">
-        <f>F28</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="4">
-        <f>G28</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="4">
-        <f>H28</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="4">
-        <f>I28</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="4">
-        <f>J28</f>
-        <v>0</v>
-      </c>
-      <c r="T28" s="4">
-        <f>K28</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="4">
-        <f>L28</f>
-        <v>0</v>
-      </c>
-      <c r="V28" s="4">
-        <f>E28</f>
-        <v>0</v>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14">
+        <v>8</v>
+      </c>
+      <c r="F28" s="14">
+        <v>8</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14">
+        <v>0</v>
+      </c>
+      <c r="P28" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>0</v>
+      </c>
+      <c r="R28" s="14">
+        <v>0</v>
+      </c>
+      <c r="S28" s="14">
+        <v>0</v>
+      </c>
+      <c r="T28" s="14">
+        <v>0</v>
+      </c>
+      <c r="U28" s="14">
+        <v>0</v>
+      </c>
+      <c r="V28" s="14">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
@@ -3292,47 +3300,49 @@
       <c r="AE28" s="5"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25">
+      <c r="A29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14">
         <v>8</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25">
+      <c r="F29" s="14">
         <v>8</v>
       </c>
-      <c r="P29" s="25">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="25">
-        <v>4</v>
-      </c>
-      <c r="R29" s="25">
-        <v>0</v>
-      </c>
-      <c r="S29" s="25">
-        <v>0</v>
-      </c>
-      <c r="T29" s="25">
-        <v>0</v>
-      </c>
-      <c r="U29" s="25">
-        <v>0</v>
-      </c>
-      <c r="V29" s="25">
-        <f>E29</f>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14">
+        <v>0</v>
+      </c>
+      <c r="P29" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>0</v>
+      </c>
+      <c r="R29" s="14">
+        <v>0</v>
+      </c>
+      <c r="S29" s="14">
+        <v>0</v>
+      </c>
+      <c r="T29" s="14">
+        <v>0</v>
+      </c>
+      <c r="U29" s="14">
+        <v>0</v>
+      </c>
+      <c r="V29" s="14">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="X29" s="5"/>
@@ -3345,48 +3355,50 @@
       <c r="AE29" s="5"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15">
-        <f>F30</f>
-        <v>0</v>
-      </c>
-      <c r="P30" s="15">
-        <f>G30</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="15">
-        <v>2</v>
-      </c>
-      <c r="R30" s="15">
-        <v>2</v>
-      </c>
-      <c r="S30" s="15">
-        <v>0</v>
-      </c>
-      <c r="T30" s="15">
-        <v>2</v>
-      </c>
-      <c r="U30" s="15">
-        <v>2</v>
-      </c>
-      <c r="V30" s="15">
-        <f>E30</f>
-        <v>0</v>
+      <c r="A30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14">
+        <v>8</v>
+      </c>
+      <c r="F30" s="14">
+        <v>8</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14">
+        <v>0</v>
+      </c>
+      <c r="P30" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>0</v>
+      </c>
+      <c r="R30" s="14">
+        <v>0</v>
+      </c>
+      <c r="S30" s="14">
+        <v>0</v>
+      </c>
+      <c r="T30" s="14">
+        <v>0</v>
+      </c>
+      <c r="U30" s="14">
+        <v>0</v>
+      </c>
+      <c r="V30" s="14">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
@@ -3398,36 +3410,52 @@
       <c r="AE30" s="5"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31"/>
-      <c r="O31">
-        <f>F31</f>
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <f>G31</f>
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <f>E31</f>
-        <v>0</v>
+      <c r="A31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="14">
+        <v>8</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14">
+        <v>8</v>
+      </c>
+      <c r="F31" s="14">
+        <v>4</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14">
+        <v>0</v>
+      </c>
+      <c r="P31" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="14">
+        <v>0</v>
+      </c>
+      <c r="R31" s="14">
+        <v>0</v>
+      </c>
+      <c r="S31" s="14">
+        <v>0</v>
+      </c>
+      <c r="T31" s="14">
+        <v>0</v>
+      </c>
+      <c r="U31" s="14">
+        <v>0</v>
+      </c>
+      <c r="V31" s="14">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
@@ -3439,14 +3467,18 @@
       <c r="AE31" s="5"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="A32" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="14">
+        <v>8</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13">
+        <v>8</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -3456,35 +3488,35 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4">
-        <f>F32</f>
+        <f t="shared" ref="O32:U33" si="3">F32</f>
         <v>0</v>
       </c>
       <c r="P32" s="4">
-        <f>G32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q32" s="4">
-        <f>H32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R32" s="4">
-        <f>I32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S32" s="4">
-        <f>J32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T32" s="4">
-        <f>K32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U32" s="4">
-        <f>L32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V32" s="4">
-        <f>E32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X32" s="5"/>
@@ -3496,53 +3528,55 @@
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
+    <row r="33" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="8">
+        <v>3</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
       <c r="O33" s="4">
-        <f>F33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P33" s="4">
-        <f>G33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q33" s="4">
-        <f>H33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R33" s="4">
-        <f>I33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S33" s="4">
-        <f>J33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T33" s="4">
-        <f>K33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U33" s="4">
-        <f>L33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V33" s="4">
-        <f>E33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X33" s="5"/>
@@ -3555,34 +3589,49 @@
       <c r="AE33" s="5"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27">
-        <v>2</v>
-      </c>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27">
-        <v>2</v>
-      </c>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27"/>
+      <c r="A34" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24">
+        <v>8</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24">
+        <v>8</v>
+      </c>
+      <c r="P34" s="24">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="24">
+        <v>4</v>
+      </c>
+      <c r="R34" s="24">
+        <v>0</v>
+      </c>
+      <c r="S34" s="24">
+        <v>0</v>
+      </c>
+      <c r="T34" s="24">
+        <v>0</v>
+      </c>
+      <c r="U34" s="24">
+        <v>0</v>
+      </c>
+      <c r="V34" s="24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
@@ -3593,34 +3642,49 @@
       <c r="AE34" s="5"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27">
+      <c r="A35" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15">
+        <f t="shared" ref="O35:P38" si="4">F35</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
         <v>2</v>
       </c>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27">
+      <c r="R35" s="15">
         <v>2</v>
       </c>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
+      <c r="S35" s="15">
+        <v>0</v>
+      </c>
+      <c r="T35" s="15">
+        <v>2</v>
+      </c>
+      <c r="U35" s="15">
+        <v>2</v>
+      </c>
+      <c r="V35" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
@@ -3631,62 +3695,36 @@
       <c r="AE35" s="5"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23">
-        <v>8</v>
-      </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23">
-        <v>8</v>
-      </c>
-      <c r="I36" s="23">
-        <v>8</v>
-      </c>
-      <c r="J36" s="23">
-        <v>0</v>
-      </c>
-      <c r="K36" s="23">
-        <v>0</v>
-      </c>
-      <c r="L36" s="23">
-        <v>0</v>
-      </c>
-      <c r="M36" s="23">
-        <v>0</v>
-      </c>
-      <c r="N36" s="23">
-        <v>0</v>
-      </c>
-      <c r="O36" s="23">
-        <v>8</v>
-      </c>
-      <c r="P36" s="23">
-        <v>8</v>
-      </c>
-      <c r="Q36" s="23">
-        <v>0</v>
-      </c>
-      <c r="R36" s="23">
-        <v>0</v>
-      </c>
-      <c r="S36" s="23">
-        <v>0</v>
-      </c>
-      <c r="T36" s="23">
-        <v>0</v>
-      </c>
-      <c r="U36" s="23">
-        <v>0</v>
-      </c>
-      <c r="V36" s="23">
-        <f>E36</f>
-        <v>8</v>
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36"/>
+      <c r="O36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
@@ -3697,78 +3735,54 @@
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
     </row>
-    <row r="37" spans="1:31" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="11">
-        <f>SUM(E7:E36)</f>
-        <v>92</v>
-      </c>
-      <c r="F37" s="11">
-        <f>SUM(V8:V36)-SUM(F8:F36)</f>
-        <v>34</v>
-      </c>
-      <c r="G37" s="11">
-        <f>F37-SUM(G8:G36)</f>
-        <v>27</v>
-      </c>
-      <c r="H37" s="11">
-        <f>O37</f>
-        <v>16</v>
-      </c>
-      <c r="I37" s="11">
-        <f>O37</f>
-        <v>16</v>
-      </c>
-      <c r="J37" s="4">
-        <v>6</v>
-      </c>
-      <c r="K37" s="4">
-        <v>2</v>
-      </c>
-      <c r="L37" s="4">
-        <f>SUM(L7:L36)</f>
-        <v>4</v>
-      </c>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4">
-        <f>SUM(O7:O36)</f>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P37" s="4">
-        <f>SUM(P7:P36)</f>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q37" s="4">
-        <f>SUM(Q7:Q36)</f>
-        <v>6</v>
+        <f t="shared" ref="Q37:U38" si="5">H37</f>
+        <v>0</v>
       </c>
       <c r="R37" s="4">
-        <f>SUM(R7:R36)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="S37" s="4">
-        <f>SUM(S7:S36)</f>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="T37" s="4">
-        <f>SUM(T7:T36)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="U37" s="4">
-        <f>SUM(U7:U36)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="V37" s="4">
-        <f>SUM(V7:V36)</f>
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
@@ -3780,371 +3794,556 @@
       <c r="AE37" s="5"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="5">
-        <f>SUM(E8:E36)</f>
-        <v>92</v>
-      </c>
-      <c r="F38" s="5">
-        <f>E38-8</f>
-        <v>84</v>
-      </c>
-      <c r="G38" s="5">
-        <f>F38-8</f>
-        <v>76</v>
-      </c>
-      <c r="H38" s="5">
-        <f t="shared" ref="H38:N38" si="0">G38-8</f>
-        <v>68</v>
-      </c>
-      <c r="I38" s="5">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="J38" s="5">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="K38" s="5">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="L38" s="5">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="M38" s="5">
-        <f>L38-8</f>
-        <v>28</v>
-      </c>
-      <c r="N38" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
+      <c r="A38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
+      <c r="A39" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26">
+        <v>2</v>
+      </c>
+      <c r="M39" s="26">
+        <v>0</v>
+      </c>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26">
+        <v>2</v>
+      </c>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
+      <c r="A40" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="26"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26">
+        <v>2</v>
+      </c>
+      <c r="M40" s="26">
+        <v>0</v>
+      </c>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26">
+        <v>2</v>
+      </c>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
+      <c r="A41" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="29"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29">
+        <v>2</v>
+      </c>
+      <c r="N41" s="29">
+        <v>0</v>
+      </c>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24"/>
-      <c r="T42" s="24"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
+      <c r="A42" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="26"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26">
+        <v>2</v>
+      </c>
+      <c r="N42" s="26">
+        <v>0</v>
+      </c>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="24"/>
-      <c r="T43" s="24"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
+      <c r="A43" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26">
+        <v>2</v>
+      </c>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26">
+        <v>2</v>
+      </c>
+      <c r="N43" s="26">
+        <v>0</v>
+      </c>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
-      <c r="T44" s="24"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="26"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="26"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
+      <c r="A47" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="23">
+        <v>8</v>
+      </c>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23">
+        <v>8</v>
+      </c>
+      <c r="I47" s="23">
+        <v>8</v>
+      </c>
+      <c r="J47" s="23">
+        <v>0</v>
+      </c>
+      <c r="K47" s="23">
+        <v>0</v>
+      </c>
+      <c r="L47" s="23">
+        <v>0</v>
+      </c>
+      <c r="M47" s="23">
+        <v>0</v>
+      </c>
+      <c r="N47" s="23">
+        <v>0</v>
+      </c>
+      <c r="O47" s="23">
+        <v>8</v>
+      </c>
+      <c r="P47" s="23">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="23">
+        <v>0</v>
+      </c>
+      <c r="R47" s="23">
+        <v>0</v>
+      </c>
+      <c r="S47" s="23">
+        <v>0</v>
+      </c>
+      <c r="T47" s="23">
+        <v>0</v>
+      </c>
+      <c r="U47" s="23">
+        <v>0</v>
+      </c>
+      <c r="V47" s="23">
+        <f>E47</f>
+        <v>8</v>
+      </c>
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+    </row>
+    <row r="48" spans="1:31" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="11">
+        <f>SUM(E7:E47)</f>
+        <v>106</v>
+      </c>
+      <c r="F48" s="11">
+        <f>SUM(V8:V47)-SUM(F8:F47)</f>
+        <v>42</v>
+      </c>
+      <c r="G48" s="11">
+        <f>F48-SUM(G8:G47)</f>
+        <v>35</v>
+      </c>
+      <c r="H48" s="11">
+        <f>O48</f>
+        <v>16</v>
+      </c>
+      <c r="I48" s="11">
+        <f>O48</f>
+        <v>16</v>
+      </c>
+      <c r="J48" s="4">
+        <v>6</v>
+      </c>
+      <c r="K48" s="4">
+        <v>2</v>
+      </c>
+      <c r="L48" s="4">
+        <f>SUM(L7:L47)</f>
+        <v>4</v>
+      </c>
+      <c r="M48" s="4">
+        <f>SUM(M7:M47)</f>
+        <v>6</v>
+      </c>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4">
+        <f>SUM(O7:O47)</f>
+        <v>16</v>
+      </c>
+      <c r="P48" s="4">
+        <f>SUM(P7:P47)</f>
+        <v>16</v>
+      </c>
+      <c r="Q48" s="4">
+        <f>SUM(Q7:Q47)</f>
+        <v>6</v>
+      </c>
+      <c r="R48" s="4">
+        <f>SUM(R7:R47)</f>
+        <v>2</v>
+      </c>
+      <c r="S48" s="4">
+        <f>SUM(S7:S47)</f>
+        <v>4</v>
+      </c>
+      <c r="T48" s="4">
+        <f>SUM(T7:T47)</f>
+        <v>2</v>
+      </c>
+      <c r="U48" s="4">
+        <f>SUM(U7:U47)</f>
+        <v>8</v>
+      </c>
+      <c r="V48" s="4">
+        <f>SUM(V7:V47)</f>
+        <v>70</v>
+      </c>
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
+      <c r="D49" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="5">
+        <f>SUM(E8:E47)</f>
+        <v>106</v>
+      </c>
+      <c r="F49" s="5">
+        <f>E49-8</f>
+        <v>98</v>
+      </c>
+      <c r="G49" s="5">
+        <f>F49-8</f>
+        <v>90</v>
+      </c>
+      <c r="H49" s="5">
+        <f t="shared" ref="H49:N49" si="6">G49-8</f>
+        <v>82</v>
+      </c>
+      <c r="I49" s="5">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="J49" s="5">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="K49" s="5">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="L49" s="5">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="M49" s="5">
+        <f>L49-8</f>
+        <v>42</v>
+      </c>
+      <c r="N49" s="5">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
@@ -4160,26 +4359,26 @@
       <c r="AA49" s="5"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
@@ -4189,26 +4388,26 @@
       <c r="AA50" s="5"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="27"/>
       <c r="U51" s="5"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
@@ -4218,26 +4417,26 @@
       <c r="AA51" s="5"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="27"/>
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
@@ -4247,26 +4446,26 @@
       <c r="AA52" s="5"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
@@ -4276,26 +4475,26 @@
       <c r="AA53" s="5"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
@@ -4305,26 +4504,26 @@
       <c r="AA54" s="5"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="27"/>
       <c r="U55" s="5"/>
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
@@ -6798,12 +6997,331 @@
       <c r="Z140" s="5"/>
       <c r="AA140" s="5"/>
     </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A141" s="5"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
+      <c r="N141" s="5"/>
+      <c r="O141" s="5"/>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
+      <c r="R141" s="5"/>
+      <c r="S141" s="5"/>
+      <c r="T141" s="5"/>
+      <c r="U141" s="5"/>
+      <c r="V141" s="5"/>
+      <c r="W141" s="5"/>
+      <c r="X141" s="5"/>
+      <c r="Y141" s="5"/>
+      <c r="Z141" s="5"/>
+      <c r="AA141" s="5"/>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A142" s="5"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="5"/>
+      <c r="S142" s="5"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="5"/>
+      <c r="V142" s="5"/>
+      <c r="W142" s="5"/>
+      <c r="X142" s="5"/>
+      <c r="Y142" s="5"/>
+      <c r="Z142" s="5"/>
+      <c r="AA142" s="5"/>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A143" s="5"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="5"/>
+      <c r="S143" s="5"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="5"/>
+      <c r="V143" s="5"/>
+      <c r="W143" s="5"/>
+      <c r="X143" s="5"/>
+      <c r="Y143" s="5"/>
+      <c r="Z143" s="5"/>
+      <c r="AA143" s="5"/>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A144" s="5"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
+      <c r="S144" s="5"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="5"/>
+      <c r="V144" s="5"/>
+      <c r="W144" s="5"/>
+      <c r="X144" s="5"/>
+      <c r="Y144" s="5"/>
+      <c r="Z144" s="5"/>
+      <c r="AA144" s="5"/>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A145" s="5"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5"/>
+      <c r="V145" s="5"/>
+      <c r="W145" s="5"/>
+      <c r="X145" s="5"/>
+      <c r="Y145" s="5"/>
+      <c r="Z145" s="5"/>
+      <c r="AA145" s="5"/>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A146" s="5"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="5"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="5"/>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
+      <c r="R146" s="5"/>
+      <c r="S146" s="5"/>
+      <c r="T146" s="5"/>
+      <c r="U146" s="5"/>
+      <c r="V146" s="5"/>
+      <c r="W146" s="5"/>
+      <c r="X146" s="5"/>
+      <c r="Y146" s="5"/>
+      <c r="Z146" s="5"/>
+      <c r="AA146" s="5"/>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A147" s="5"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="5"/>
+      <c r="N147" s="5"/>
+      <c r="O147" s="5"/>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
+      <c r="R147" s="5"/>
+      <c r="S147" s="5"/>
+      <c r="T147" s="5"/>
+      <c r="U147" s="5"/>
+      <c r="V147" s="5"/>
+      <c r="W147" s="5"/>
+      <c r="X147" s="5"/>
+      <c r="Y147" s="5"/>
+      <c r="Z147" s="5"/>
+      <c r="AA147" s="5"/>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A148" s="5"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
+      <c r="N148" s="5"/>
+      <c r="O148" s="5"/>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
+      <c r="R148" s="5"/>
+      <c r="S148" s="5"/>
+      <c r="T148" s="5"/>
+      <c r="U148" s="5"/>
+      <c r="V148" s="5"/>
+      <c r="W148" s="5"/>
+      <c r="X148" s="5"/>
+      <c r="Y148" s="5"/>
+      <c r="Z148" s="5"/>
+      <c r="AA148" s="5"/>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A149" s="5"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="5"/>
+      <c r="N149" s="5"/>
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="R149" s="5"/>
+      <c r="S149" s="5"/>
+      <c r="T149" s="5"/>
+      <c r="U149" s="5"/>
+      <c r="V149" s="5"/>
+      <c r="W149" s="5"/>
+      <c r="X149" s="5"/>
+      <c r="Y149" s="5"/>
+      <c r="Z149" s="5"/>
+      <c r="AA149" s="5"/>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A150" s="5"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="5"/>
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5"/>
+      <c r="V150" s="5"/>
+      <c r="W150" s="5"/>
+      <c r="X150" s="5"/>
+      <c r="Y150" s="5"/>
+      <c r="Z150" s="5"/>
+      <c r="AA150" s="5"/>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A151" s="5"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
+      <c r="N151" s="5"/>
+      <c r="O151" s="5"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
+      <c r="R151" s="5"/>
+      <c r="S151" s="5"/>
+      <c r="T151" s="5"/>
+      <c r="U151" s="5"/>
+      <c r="V151" s="5"/>
+      <c r="W151" s="5"/>
+      <c r="X151" s="5"/>
+      <c r="Y151" s="5"/>
+      <c r="Z151" s="5"/>
+      <c r="AA151" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A39:T44"/>
+    <mergeCell ref="A50:T55"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A26" r:id="rId1" display="http://www.covers.com/pageLoader/pageLoader.aspx?page=/data/mlb/matchups/g4_summary_12.html"/>
+    <hyperlink ref="A31" r:id="rId1" display="http://www.covers.com/pageLoader/pageLoader.aspx?page=/data/mlb/matchups/g4_summary_12.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId2"/>
@@ -6821,12 +7339,12 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!E37:P37</xm:f>
-              <xm:sqref>D37</xm:sqref>
+              <xm:f>Sheet1!E48:P48</xm:f>
+              <xm:sqref>D48</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!E38:O38</xm:f>
-              <xm:sqref>D38</xm:sqref>
+              <xm:f>Sheet1!E49:O49</xm:f>
+              <xm:sqref>D49</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/Scrum/Proyect/Sprint-backlog-template (1).xlsx
+++ b/Scrum/Proyect/Sprint-backlog-template (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Sprint Review</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Extract MLB Stats</t>
@@ -131,12 +128,6 @@
     <t>Sprint Backlog</t>
   </si>
   <si>
-    <t>Pending 23</t>
-  </si>
-  <si>
-    <t>Pending 24</t>
-  </si>
-  <si>
     <t>Extras 6.</t>
   </si>
   <si>
@@ -156,6 +147,9 @@
   </si>
   <si>
     <t>Day 30</t>
+  </si>
+  <si>
+    <t>Day 1</t>
   </si>
   <si>
     <t>Pending 28</t>
@@ -210,6 +204,9 @@
   </si>
   <si>
     <t>2.5.6.1 To show each game standing on game  in a understable way</t>
+  </si>
+  <si>
+    <t>Day 2</t>
   </si>
 </sst>
 </file>
@@ -659,10 +656,10 @@
                   <c:v>Day 31</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Pending 23</c:v>
+                  <c:v>Day 1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Pending 24</c:v>
+                  <c:v>Day 2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Pending 25</c:v>
@@ -687,12 +684,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$48:$N$48</c:f>
+              <c:f>Sheet1!$E$48:$P$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>106</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42</c:v>
@@ -701,10 +698,10 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
@@ -717,6 +714,15 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -793,10 +799,10 @@
                   <c:v>Day 31</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Pending 23</c:v>
+                  <c:v>Day 1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Pending 24</c:v>
+                  <c:v>Day 2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Pending 25</c:v>
@@ -821,39 +827,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$49:$O$49</c:f>
+              <c:f>Sheet1!$E$49:$P$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>106</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34</c:v>
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1574,15 +1586,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3143250</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3933825</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1928,9 +1940,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1957,55 +1971,55 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>4</v>
@@ -2050,7 +2064,7 @@
     </row>
     <row r="3" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
@@ -2151,55 +2165,55 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="M6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>4</v>
@@ -2215,7 +2229,7 @@
     </row>
     <row r="7" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="8">
         <v>8</v>
@@ -2251,7 +2265,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="13"/>
@@ -2287,7 +2301,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="13"/>
@@ -2341,7 +2355,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="13"/>
@@ -2395,7 +2409,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="13"/>
@@ -2447,7 +2461,7 @@
     </row>
     <row r="12" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
@@ -2483,12 +2497,12 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="19">
         <v>8</v>
@@ -2537,12 +2551,12 @@
     </row>
     <row r="14" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="19">
         <v>7</v>
@@ -2591,7 +2605,7 @@
     </row>
     <row r="15" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="31">
         <v>4</v>
@@ -2655,7 +2669,7 @@
     </row>
     <row r="16" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="31">
         <v>4</v>
@@ -2719,7 +2733,7 @@
     </row>
     <row r="17" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" s="31">
         <v>2</v>
@@ -2737,16 +2751,18 @@
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
+      <c r="N17" s="31">
+        <v>2</v>
+      </c>
+      <c r="O17" s="31">
+        <v>0</v>
+      </c>
       <c r="P17" s="31"/>
       <c r="Q17" s="31"/>
       <c r="R17" s="31"/>
       <c r="S17" s="31"/>
       <c r="T17" s="31"/>
-      <c r="U17" s="31">
-        <v>2</v>
-      </c>
+      <c r="U17" s="31"/>
       <c r="V17" s="31"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
@@ -2759,11 +2775,9 @@
     </row>
     <row r="18" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="31">
-        <v>2</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B18" s="31"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="31">
@@ -2777,16 +2791,18 @@
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
+      <c r="N18" s="31">
+        <v>2</v>
+      </c>
+      <c r="O18" s="31">
+        <v>0</v>
+      </c>
       <c r="P18" s="31"/>
       <c r="Q18" s="31"/>
       <c r="R18" s="31"/>
       <c r="S18" s="31"/>
       <c r="T18" s="31"/>
-      <c r="U18" s="31">
-        <v>2</v>
-      </c>
+      <c r="U18" s="31"/>
       <c r="V18" s="31"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
@@ -2799,14 +2815,14 @@
     </row>
     <row r="19" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="31">
-        <v>2</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B19" s="31"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
+      <c r="E19" s="31">
+        <v>2</v>
+      </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
@@ -2815,16 +2831,18 @@
       <c r="K19" s="31"/>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
+      <c r="O19" s="31">
+        <v>0</v>
+      </c>
       <c r="P19" s="31"/>
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31"/>
       <c r="T19" s="31"/>
-      <c r="U19" s="31">
-        <v>2</v>
-      </c>
+      <c r="U19" s="31"/>
       <c r="V19" s="31"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -2840,7 +2858,9 @@
       <c r="B20" s="31"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
+      <c r="E20" s="31">
+        <v>2</v>
+      </c>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
@@ -2849,8 +2869,12 @@
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
+      <c r="N20" s="31">
+        <v>2</v>
+      </c>
+      <c r="O20" s="31">
+        <v>0</v>
+      </c>
       <c r="P20" s="31"/>
       <c r="Q20" s="31"/>
       <c r="R20" s="31"/>
@@ -2869,7 +2893,7 @@
     </row>
     <row r="21" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="16"/>
@@ -2903,7 +2927,7 @@
     </row>
     <row r="22" spans="1:31" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="8">
         <v>5</v>
@@ -2963,12 +2987,12 @@
     </row>
     <row r="23" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="20"/>
       <c r="D23" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="21">
         <v>8</v>
@@ -3186,7 +3210,7 @@
     </row>
     <row r="27" spans="1:31" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="8">
         <v>8</v>
@@ -3246,7 +3270,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="13"/>
@@ -3301,7 +3325,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="13"/>
@@ -3356,7 +3380,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="13"/>
@@ -3411,7 +3435,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="14">
         <v>8</v>
@@ -3468,7 +3492,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="14">
         <v>8</v>
@@ -3530,7 +3554,7 @@
     </row>
     <row r="33" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="8">
         <v>3</v>
@@ -3590,7 +3614,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -3608,7 +3632,7 @@
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
       <c r="O34" s="24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P34" s="24">
         <v>8</v>
@@ -3643,7 +3667,7 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -3696,7 +3720,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B36"/>
       <c r="O36">
@@ -3737,7 +3761,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="3"/>
@@ -3795,7 +3819,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
@@ -3853,7 +3877,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
@@ -3893,7 +3917,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
@@ -3933,12 +3957,12 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="28"/>
       <c r="D41" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="29"/>
@@ -3973,7 +3997,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
@@ -4011,7 +4035,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
@@ -4147,7 +4171,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="22"/>
@@ -4179,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P47" s="23">
         <v>8</v>
@@ -4214,16 +4238,16 @@
     </row>
     <row r="48" spans="1:31" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E48" s="11">
         <f>SUM(E7:E47)</f>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F48" s="11">
         <f>SUM(V8:V47)-SUM(F8:F47)</f>
@@ -4235,11 +4259,11 @@
       </c>
       <c r="H48" s="11">
         <f>O48</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I48" s="11">
         <f>O48</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J48" s="4">
         <v>6</v>
@@ -4255,14 +4279,16 @@
         <f>SUM(M7:M47)</f>
         <v>6</v>
       </c>
-      <c r="N48" s="4"/>
+      <c r="N48" s="4">
+        <f>SUM(N7:N47)</f>
+        <v>16</v>
+      </c>
       <c r="O48" s="4">
         <f>SUM(O7:O47)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P48" s="4">
-        <f>SUM(P7:P47)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="4">
         <f>SUM(Q7:Q47)</f>
@@ -4282,7 +4308,7 @@
       </c>
       <c r="U48" s="4">
         <f>SUM(U7:U47)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V48" s="4">
         <f>SUM(V7:V47)</f>
@@ -4298,59 +4324,82 @@
       <c r="AE48" s="5"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
+      <c r="A49" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="B49" s="6"/>
       <c r="C49" s="5"/>
       <c r="D49" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49" s="5">
         <f>SUM(E8:E47)</f>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F49" s="5">
         <f>E49-8</f>
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G49" s="5">
         <f>F49-8</f>
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H49" s="5">
         <f t="shared" ref="H49:N49" si="6">G49-8</f>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I49" s="5">
         <f t="shared" si="6"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J49" s="5">
         <f t="shared" si="6"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K49" s="5">
         <f t="shared" si="6"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L49" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M49" s="5">
         <f>L49-8</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N49" s="5">
         <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="O49" s="5">
+        <f>N49-8</f>
+        <v>30</v>
+      </c>
+      <c r="P49" s="5">
+        <f t="shared" ref="P49:U49" si="7">O49-8</f>
+        <v>22</v>
+      </c>
+      <c r="Q49" s="5">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="R49" s="5">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="S49" s="5">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="T49" s="5">
+        <f>S49-8</f>
+        <v>-10</v>
+      </c>
+      <c r="U49" s="5">
+        <f t="shared" si="7"/>
+        <v>-18</v>
+      </c>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
@@ -7339,6 +7388,26 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
+              <xm:f>Sheet1!B48:M48</xm:f>
+              <xm:sqref>A48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B49:L49</xm:f>
+              <xm:sqref>A49</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
               <xm:f>Sheet1!E48:P48</xm:f>
               <xm:sqref>D48</xm:sqref>
             </x14:sparkline>

--- a/Scrum/Proyect/Sprint-backlog-template (1).xlsx
+++ b/Scrum/Proyect/Sprint-backlog-template (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -137,9 +137,6 @@
     <t>6.2 Save data in database</t>
   </si>
   <si>
-    <t>Pending 25</t>
-  </si>
-  <si>
     <t>5.2 Do upsert</t>
   </si>
   <si>
@@ -150,12 +147,6 @@
   </si>
   <si>
     <t>Day 1</t>
-  </si>
-  <si>
-    <t>Pending 28</t>
-  </si>
-  <si>
-    <t>Pending 29</t>
   </si>
   <si>
     <t>Pending 30</t>
@@ -207,6 +198,36 @@
   </si>
   <si>
     <t>Day 2</t>
+  </si>
+  <si>
+    <t>User Story #6 - Need to Have report done</t>
+  </si>
+  <si>
+    <t>6.1 To merge data from Ezequiel to Luis</t>
+  </si>
+  <si>
+    <t>6.1.1 Analisis how to merge</t>
+  </si>
+  <si>
+    <t>6.1.2 Analisis of DBs vs File</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <t>6.2 Algoritm to detect series</t>
+  </si>
+  <si>
+    <t>6.3 Add report to excel</t>
+  </si>
+  <si>
+    <t>Merge all queries</t>
   </si>
 </sst>
 </file>
@@ -466,9 +487,6 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -476,6 +494,9 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -662,13 +683,13 @@
                   <c:v>Day 2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Pending 25</c:v>
+                  <c:v>Day 3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Pending 28</c:v>
+                  <c:v>Day 4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Pending 29</c:v>
+                  <c:v>Day 5</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Pending 30</c:v>
@@ -684,12 +705,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$48:$P$48</c:f>
+              <c:f>Sheet1!$E$57:$P$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>110</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42</c:v>
@@ -805,13 +826,13 @@
                   <c:v>Day 2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Pending 25</c:v>
+                  <c:v>Day 3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Pending 28</c:v>
+                  <c:v>Day 4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Pending 29</c:v>
+                  <c:v>Day 5</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Pending 30</c:v>
@@ -827,45 +848,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$49:$P$49</c:f>
+              <c:f>Sheet1!$E$58:$P$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>110</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>102</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -881,11 +902,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2110117520"/>
-        <c:axId val="-2110110448"/>
+        <c:axId val="-1932777056"/>
+        <c:axId val="-1932781952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2110117520"/>
+        <c:axId val="-1932777056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,7 +948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110110448"/>
+        <c:crossAx val="-1932781952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -935,7 +956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110110448"/>
+        <c:axId val="-1932781952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -985,7 +1006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110117520"/>
+        <c:crossAx val="-1932777056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1587,13 +1608,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3933825</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1938,13 +1959,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE151"/>
+  <dimension ref="A1:AE160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O49" sqref="O49"/>
+      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1971,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -1995,31 +2016,31 @@
         <v>30</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>4</v>
@@ -2165,7 +2186,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -2189,31 +2210,31 @@
         <v>30</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>4</v>
@@ -2604,57 +2625,57 @@
       <c r="AE14" s="5"/>
     </row>
     <row r="15" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="31">
+      <c r="A15" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="30">
         <v>4</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30">
         <v>4</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31">
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30">
         <v>4</v>
       </c>
-      <c r="O15" s="31">
+      <c r="O15" s="30">
         <f t="shared" ref="O15:U22" si="0">F15</f>
         <v>0</v>
       </c>
-      <c r="P15" s="31">
+      <c r="P15" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q15" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R15" s="31">
+      <c r="R15" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S15" s="31">
+      <c r="S15" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T15" s="31">
+      <c r="T15" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U15" s="31">
+      <c r="U15" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V15" s="31">
+      <c r="V15" s="30">
         <f t="shared" ref="V15:V38" si="1">E15</f>
         <v>4</v>
       </c>
@@ -2668,57 +2689,57 @@
       <c r="AE15" s="5"/>
     </row>
     <row r="16" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="31">
+      <c r="A16" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="30">
         <v>4</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30">
         <v>4</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31">
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30">
         <v>4</v>
       </c>
-      <c r="O16" s="31">
+      <c r="O16" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P16" s="31">
+      <c r="P16" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R16" s="31">
+      <c r="R16" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S16" s="31">
+      <c r="S16" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T16" s="31">
+      <c r="T16" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U16" s="31">
+      <c r="U16" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V16" s="31">
+      <c r="V16" s="30">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2732,38 +2753,38 @@
       <c r="AE16" s="5"/>
     </row>
     <row r="17" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="31">
+      <c r="A17" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="30">
         <v>2</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31">
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30">
         <v>2</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31">
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30">
         <v>2</v>
       </c>
-      <c r="O17" s="31">
-        <v>0</v>
-      </c>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
+      <c r="O17" s="30">
+        <v>0</v>
+      </c>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
@@ -2774,36 +2795,36 @@
       <c r="AE17" s="5"/>
     </row>
     <row r="18" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31">
+      <c r="A18" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30">
         <v>2</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31">
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30">
         <v>2</v>
       </c>
-      <c r="O18" s="31">
-        <v>0</v>
-      </c>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
+      <c r="O18" s="30">
+        <v>0</v>
+      </c>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
@@ -2814,36 +2835,36 @@
       <c r="AE18" s="5"/>
     </row>
     <row r="19" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31">
+      <c r="A19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30">
         <v>2</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31">
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30">
         <v>2</v>
       </c>
-      <c r="O19" s="31">
-        <v>0</v>
-      </c>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
+      <c r="O19" s="30">
+        <v>0</v>
+      </c>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
@@ -2854,34 +2875,34 @@
       <c r="AE19" s="5"/>
     </row>
     <row r="20" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30">
         <v>2</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31">
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30">
         <v>2</v>
       </c>
-      <c r="O20" s="31">
-        <v>0</v>
-      </c>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
+      <c r="O20" s="30">
+        <v>0</v>
+      </c>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
@@ -2893,7 +2914,7 @@
     </row>
     <row r="21" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="16"/>
@@ -3667,7 +3688,7 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -3720,7 +3741,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36"/>
       <c r="O36">
@@ -3877,7 +3898,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
@@ -3917,7 +3938,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
@@ -3956,36 +3977,36 @@
       <c r="AE40" s="5"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29">
+      <c r="A41" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="28"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28">
         <v>2</v>
       </c>
-      <c r="N41" s="29">
-        <v>0</v>
-      </c>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
+      <c r="N41" s="28">
+        <v>0</v>
+      </c>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
@@ -3997,7 +4018,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
@@ -4035,7 +4056,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
@@ -4073,29 +4094,55 @@
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
+    <row r="44" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="4">
+        <f t="shared" ref="O44" si="6">F44</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="4">
+        <f t="shared" ref="P44" si="7">G44</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="4">
+        <f t="shared" ref="Q44" si="8">H44</f>
+        <v>0</v>
+      </c>
+      <c r="R44" s="4">
+        <f t="shared" ref="R44" si="9">I44</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="4">
+        <f t="shared" ref="S44" si="10">J44</f>
+        <v>0</v>
+      </c>
+      <c r="T44" s="4">
+        <f t="shared" ref="T44" si="11">K44</f>
+        <v>0</v>
+      </c>
+      <c r="U44" s="4">
+        <f t="shared" ref="U44" si="12">L44</f>
+        <v>0</v>
+      </c>
+      <c r="V44" s="4">
+        <f t="shared" ref="V44" si="13">E44</f>
+        <v>0</v>
+      </c>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
@@ -4106,7 +4153,7 @@
       <c r="AE44" s="5"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4138,7 +4185,9 @@
       <c r="AE45" s="5"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
+      <c r="A46" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4170,63 +4219,30 @@
       <c r="AE46" s="5"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="23">
-        <v>8</v>
-      </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23">
-        <v>8</v>
-      </c>
-      <c r="I47" s="23">
-        <v>8</v>
-      </c>
-      <c r="J47" s="23">
-        <v>0</v>
-      </c>
-      <c r="K47" s="23">
-        <v>0</v>
-      </c>
-      <c r="L47" s="23">
-        <v>0</v>
-      </c>
-      <c r="M47" s="23">
-        <v>0</v>
-      </c>
-      <c r="N47" s="23">
-        <v>0</v>
-      </c>
-      <c r="O47" s="23">
-        <v>0</v>
-      </c>
-      <c r="P47" s="23">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="23">
-        <v>0</v>
-      </c>
-      <c r="R47" s="23">
-        <v>0</v>
-      </c>
-      <c r="S47" s="23">
-        <v>0</v>
-      </c>
-      <c r="T47" s="23">
-        <v>0</v>
-      </c>
-      <c r="U47" s="23">
-        <v>0</v>
-      </c>
-      <c r="V47" s="23">
-        <f>E47</f>
-        <v>8</v>
-      </c>
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="26"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="26"/>
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
@@ -4236,84 +4252,31 @@
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
     </row>
-    <row r="48" spans="1:31" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48" s="11">
-        <f>SUM(E7:E47)</f>
-        <v>110</v>
-      </c>
-      <c r="F48" s="11">
-        <f>SUM(V8:V47)-SUM(F8:F47)</f>
-        <v>42</v>
-      </c>
-      <c r="G48" s="11">
-        <f>F48-SUM(G8:G47)</f>
-        <v>35</v>
-      </c>
-      <c r="H48" s="11">
-        <f>O48</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="11">
-        <f>O48</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="4">
-        <v>6</v>
-      </c>
-      <c r="K48" s="4">
-        <v>2</v>
-      </c>
-      <c r="L48" s="4">
-        <f>SUM(L7:L47)</f>
-        <v>4</v>
-      </c>
-      <c r="M48" s="4">
-        <f>SUM(M7:M47)</f>
-        <v>6</v>
-      </c>
-      <c r="N48" s="4">
-        <f>SUM(N7:N47)</f>
-        <v>16</v>
-      </c>
-      <c r="O48" s="4">
-        <f>SUM(O7:O47)</f>
-        <v>0</v>
-      </c>
-      <c r="P48" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="4">
-        <f>SUM(Q7:Q47)</f>
-        <v>6</v>
-      </c>
-      <c r="R48" s="4">
-        <f>SUM(R7:R47)</f>
-        <v>2</v>
-      </c>
-      <c r="S48" s="4">
-        <f>SUM(S7:S47)</f>
-        <v>4</v>
-      </c>
-      <c r="T48" s="4">
-        <f>SUM(T7:T47)</f>
-        <v>2</v>
-      </c>
-      <c r="U48" s="4">
-        <f>SUM(U7:U47)</f>
-        <v>2</v>
-      </c>
-      <c r="V48" s="4">
-        <f>SUM(V7:V47)</f>
-        <v>70</v>
-      </c>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="26"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
@@ -4323,344 +4286,473 @@
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="5">
-        <f>SUM(E8:E47)</f>
-        <v>110</v>
-      </c>
-      <c r="F49" s="5">
-        <f>E49-8</f>
-        <v>102</v>
-      </c>
-      <c r="G49" s="5">
-        <f>F49-8</f>
-        <v>94</v>
-      </c>
-      <c r="H49" s="5">
-        <f t="shared" ref="H49:N49" si="6">G49-8</f>
-        <v>86</v>
-      </c>
-      <c r="I49" s="5">
-        <f t="shared" si="6"/>
-        <v>78</v>
-      </c>
-      <c r="J49" s="5">
-        <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="K49" s="5">
-        <f t="shared" si="6"/>
-        <v>62</v>
-      </c>
-      <c r="L49" s="5">
-        <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="M49" s="5">
-        <f>L49-8</f>
-        <v>46</v>
-      </c>
-      <c r="N49" s="5">
-        <f t="shared" si="6"/>
-        <v>38</v>
-      </c>
-      <c r="O49" s="5">
-        <f>N49-8</f>
-        <v>30</v>
-      </c>
-      <c r="P49" s="5">
-        <f t="shared" ref="P49:U49" si="7">O49-8</f>
-        <v>22</v>
-      </c>
-      <c r="Q49" s="5">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="R49" s="5">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="S49" s="5">
-        <f t="shared" si="7"/>
-        <v>-2</v>
-      </c>
-      <c r="T49" s="5">
-        <f>S49-8</f>
-        <v>-10</v>
-      </c>
-      <c r="U49" s="5">
-        <f t="shared" si="7"/>
-        <v>-18</v>
-      </c>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="26"/>
+      <c r="V49" s="26"/>
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="26"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="26">
+        <v>8</v>
+      </c>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="26"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="26"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="26">
+        <v>8</v>
+      </c>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26"/>
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="27"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="26"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="26">
+        <v>5</v>
+      </c>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="26"/>
+      <c r="V52" s="26"/>
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="26"/>
+      <c r="S53" s="26"/>
+      <c r="T53" s="26"/>
+      <c r="U53" s="26"/>
+      <c r="V53" s="26"/>
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="26"/>
+      <c r="S54" s="26"/>
+      <c r="T54" s="26"/>
+      <c r="U54" s="26"/>
+      <c r="V54" s="26"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="26"/>
+      <c r="S55" s="26"/>
+      <c r="T55" s="26"/>
+      <c r="U55" s="26"/>
+      <c r="V55" s="26"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="23">
+        <v>8</v>
+      </c>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23">
+        <v>8</v>
+      </c>
+      <c r="I56" s="23">
+        <v>8</v>
+      </c>
+      <c r="J56" s="23">
+        <v>0</v>
+      </c>
+      <c r="K56" s="23">
+        <v>0</v>
+      </c>
+      <c r="L56" s="23">
+        <v>0</v>
+      </c>
+      <c r="M56" s="23">
+        <v>0</v>
+      </c>
+      <c r="N56" s="23">
+        <v>0</v>
+      </c>
+      <c r="O56" s="23">
+        <v>0</v>
+      </c>
+      <c r="P56" s="23">
+        <v>8</v>
+      </c>
+      <c r="Q56" s="23">
+        <v>0</v>
+      </c>
+      <c r="R56" s="23">
+        <v>0</v>
+      </c>
+      <c r="S56" s="23">
+        <v>0</v>
+      </c>
+      <c r="T56" s="23">
+        <v>0</v>
+      </c>
+      <c r="U56" s="23">
+        <v>0</v>
+      </c>
+      <c r="V56" s="23">
+        <f>E56</f>
+        <v>8</v>
+      </c>
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+    </row>
+    <row r="57" spans="1:31" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="11">
+        <f>SUM(E7:E56)</f>
+        <v>131</v>
+      </c>
+      <c r="F57" s="11">
+        <f>SUM(V8:V56)-SUM(F8:F56)</f>
+        <v>42</v>
+      </c>
+      <c r="G57" s="11">
+        <f>F57-SUM(G8:G56)</f>
+        <v>35</v>
+      </c>
+      <c r="H57" s="11">
+        <f>O57</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="11">
+        <f>O57</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
+        <v>6</v>
+      </c>
+      <c r="K57" s="4">
+        <v>2</v>
+      </c>
+      <c r="L57" s="4">
+        <f>SUM(L7:L56)</f>
+        <v>4</v>
+      </c>
+      <c r="M57" s="4">
+        <f>SUM(M7:M56)</f>
+        <v>6</v>
+      </c>
+      <c r="N57" s="4">
+        <f>SUM(N7:N56)</f>
+        <v>16</v>
+      </c>
+      <c r="O57" s="4">
+        <f>SUM(O7:O56)</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="4">
+        <f t="shared" ref="Q57:V57" si="14">SUM(Q7:Q56)</f>
+        <v>6</v>
+      </c>
+      <c r="R57" s="4">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="S57" s="4">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="T57" s="4">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="U57" s="4">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="V57" s="4">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="B58" s="6"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
+      <c r="D58" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="5">
+        <f>SUM(E8:E56)</f>
+        <v>131</v>
+      </c>
+      <c r="F58" s="5">
+        <f>E58-8</f>
+        <v>123</v>
+      </c>
+      <c r="G58" s="5">
+        <f>F58-8</f>
+        <v>115</v>
+      </c>
+      <c r="H58" s="5">
+        <f t="shared" ref="H58:N58" si="15">G58-8</f>
+        <v>107</v>
+      </c>
+      <c r="I58" s="5">
+        <f t="shared" si="15"/>
+        <v>99</v>
+      </c>
+      <c r="J58" s="5">
+        <f t="shared" si="15"/>
+        <v>91</v>
+      </c>
+      <c r="K58" s="5">
+        <f t="shared" si="15"/>
+        <v>83</v>
+      </c>
+      <c r="L58" s="5">
+        <f t="shared" si="15"/>
+        <v>75</v>
+      </c>
+      <c r="M58" s="5">
+        <f>L58-8</f>
+        <v>67</v>
+      </c>
+      <c r="N58" s="5">
+        <f t="shared" si="15"/>
+        <v>59</v>
+      </c>
+      <c r="O58" s="5">
+        <f>N58-8</f>
+        <v>51</v>
+      </c>
+      <c r="P58" s="5">
+        <f t="shared" ref="P58:U58" si="16">O58-8</f>
+        <v>43</v>
+      </c>
+      <c r="Q58" s="5">
+        <f t="shared" si="16"/>
+        <v>35</v>
+      </c>
+      <c r="R58" s="5">
+        <f t="shared" si="16"/>
+        <v>27</v>
+      </c>
+      <c r="S58" s="5">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="T58" s="5">
+        <f>S58-8</f>
+        <v>11</v>
+      </c>
+      <c r="U58" s="5">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
@@ -4668,27 +4760,27 @@
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="31"/>
       <c r="U59" s="5"/>
       <c r="V59" s="5"/>
       <c r="W59" s="5"/>
@@ -4697,27 +4789,27 @@
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="31"/>
       <c r="U60" s="5"/>
       <c r="V60" s="5"/>
       <c r="W60" s="5"/>
@@ -4726,27 +4818,27 @@
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="31"/>
       <c r="U61" s="5"/>
       <c r="V61" s="5"/>
       <c r="W61" s="5"/>
@@ -4755,27 +4847,27 @@
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="31"/>
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
       <c r="W62" s="5"/>
@@ -4784,27 +4876,27 @@
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="31"/>
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
       <c r="W63" s="5"/>
@@ -4813,27 +4905,27 @@
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A64" s="31"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="31"/>
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
       <c r="W64" s="5"/>
@@ -7365,9 +7457,270 @@
       <c r="Z151" s="5"/>
       <c r="AA151" s="5"/>
     </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A152" s="5"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="5"/>
+      <c r="N152" s="5"/>
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="5"/>
+      <c r="S152" s="5"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="5"/>
+      <c r="V152" s="5"/>
+      <c r="W152" s="5"/>
+      <c r="X152" s="5"/>
+      <c r="Y152" s="5"/>
+      <c r="Z152" s="5"/>
+      <c r="AA152" s="5"/>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A153" s="5"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="5"/>
+      <c r="M153" s="5"/>
+      <c r="N153" s="5"/>
+      <c r="O153" s="5"/>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
+      <c r="R153" s="5"/>
+      <c r="S153" s="5"/>
+      <c r="T153" s="5"/>
+      <c r="U153" s="5"/>
+      <c r="V153" s="5"/>
+      <c r="W153" s="5"/>
+      <c r="X153" s="5"/>
+      <c r="Y153" s="5"/>
+      <c r="Z153" s="5"/>
+      <c r="AA153" s="5"/>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A154" s="5"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="5"/>
+      <c r="M154" s="5"/>
+      <c r="N154" s="5"/>
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="5"/>
+      <c r="S154" s="5"/>
+      <c r="T154" s="5"/>
+      <c r="U154" s="5"/>
+      <c r="V154" s="5"/>
+      <c r="W154" s="5"/>
+      <c r="X154" s="5"/>
+      <c r="Y154" s="5"/>
+      <c r="Z154" s="5"/>
+      <c r="AA154" s="5"/>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A155" s="5"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="5"/>
+      <c r="N155" s="5"/>
+      <c r="O155" s="5"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="5"/>
+      <c r="S155" s="5"/>
+      <c r="T155" s="5"/>
+      <c r="U155" s="5"/>
+      <c r="V155" s="5"/>
+      <c r="W155" s="5"/>
+      <c r="X155" s="5"/>
+      <c r="Y155" s="5"/>
+      <c r="Z155" s="5"/>
+      <c r="AA155" s="5"/>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A156" s="5"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="5"/>
+      <c r="M156" s="5"/>
+      <c r="N156" s="5"/>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5"/>
+      <c r="T156" s="5"/>
+      <c r="U156" s="5"/>
+      <c r="V156" s="5"/>
+      <c r="W156" s="5"/>
+      <c r="X156" s="5"/>
+      <c r="Y156" s="5"/>
+      <c r="Z156" s="5"/>
+      <c r="AA156" s="5"/>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A157" s="5"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="5"/>
+      <c r="N157" s="5"/>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="5"/>
+      <c r="S157" s="5"/>
+      <c r="T157" s="5"/>
+      <c r="U157" s="5"/>
+      <c r="V157" s="5"/>
+      <c r="W157" s="5"/>
+      <c r="X157" s="5"/>
+      <c r="Y157" s="5"/>
+      <c r="Z157" s="5"/>
+      <c r="AA157" s="5"/>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
+      <c r="M158" s="5"/>
+      <c r="N158" s="5"/>
+      <c r="O158" s="5"/>
+      <c r="P158" s="5"/>
+      <c r="Q158" s="5"/>
+      <c r="R158" s="5"/>
+      <c r="S158" s="5"/>
+      <c r="T158" s="5"/>
+      <c r="U158" s="5"/>
+      <c r="V158" s="5"/>
+      <c r="W158" s="5"/>
+      <c r="X158" s="5"/>
+      <c r="Y158" s="5"/>
+      <c r="Z158" s="5"/>
+      <c r="AA158" s="5"/>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
+      <c r="M159" s="5"/>
+      <c r="N159" s="5"/>
+      <c r="O159" s="5"/>
+      <c r="P159" s="5"/>
+      <c r="Q159" s="5"/>
+      <c r="R159" s="5"/>
+      <c r="S159" s="5"/>
+      <c r="T159" s="5"/>
+      <c r="U159" s="5"/>
+      <c r="V159" s="5"/>
+      <c r="W159" s="5"/>
+      <c r="X159" s="5"/>
+      <c r="Y159" s="5"/>
+      <c r="Z159" s="5"/>
+      <c r="AA159" s="5"/>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A160" s="5"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="5"/>
+      <c r="N160" s="5"/>
+      <c r="O160" s="5"/>
+      <c r="P160" s="5"/>
+      <c r="Q160" s="5"/>
+      <c r="R160" s="5"/>
+      <c r="S160" s="5"/>
+      <c r="T160" s="5"/>
+      <c r="U160" s="5"/>
+      <c r="V160" s="5"/>
+      <c r="W160" s="5"/>
+      <c r="X160" s="5"/>
+      <c r="Y160" s="5"/>
+      <c r="Z160" s="5"/>
+      <c r="AA160" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A50:T55"/>
+    <mergeCell ref="A59:T64"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A31" r:id="rId1" display="http://www.covers.com/pageLoader/pageLoader.aspx?page=/data/mlb/matchups/g4_summary_12.html"/>
@@ -7388,12 +7741,12 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!B48:M48</xm:f>
-              <xm:sqref>A48</xm:sqref>
+              <xm:f>Sheet1!E57:P57</xm:f>
+              <xm:sqref>D57</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!B49:L49</xm:f>
-              <xm:sqref>A49</xm:sqref>
+              <xm:f>Sheet1!E58:O58</xm:f>
+              <xm:sqref>D58</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7408,12 +7761,12 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!E48:P48</xm:f>
-              <xm:sqref>D48</xm:sqref>
+              <xm:f>Sheet1!B57:M57</xm:f>
+              <xm:sqref>A57</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!E49:O49</xm:f>
-              <xm:sqref>D49</xm:sqref>
+              <xm:f>Sheet1!B58:L58</xm:f>
+              <xm:sqref>A58</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/Scrum/Proyect/Sprint-backlog-template (1).xlsx
+++ b/Scrum/Proyect/Sprint-backlog-template (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>Merge all queries</t>
+  </si>
+  <si>
+    <t>7.0 Tests</t>
+  </si>
+  <si>
+    <t>Added estimate</t>
   </si>
 </sst>
 </file>
@@ -433,7 +439,7 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -497,6 +503,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -645,104 +654,54 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$F$6:$V$6</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>Day 21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Day 28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Day 29</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Day 30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Day 31</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Day 1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Day 5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Pending 30</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Pending 31</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Sprint Review</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$57:$P$57</c:f>
+              <c:f>Sheet1!$E$61:$Q$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>131</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -788,104 +747,54 @@
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$F$6:$V$6</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>Day 21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Day 28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Day 29</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Day 30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Day 31</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Day 1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Day 5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Pending 30</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Pending 31</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Sprint Review</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$58:$P$58</c:f>
+              <c:f>Sheet1!$E$62:$Q$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>131</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>123</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>115</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
@@ -902,11 +811,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1932777056"/>
-        <c:axId val="-1932781952"/>
+        <c:axId val="-1931798928"/>
+        <c:axId val="-1931797840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1932777056"/>
+        <c:axId val="-1931798928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -948,7 +857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1932781952"/>
+        <c:crossAx val="-1931797840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -956,7 +865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1932781952"/>
+        <c:axId val="-1931797840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1006,7 +915,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1932777056"/>
+        <c:crossAx val="-1931798928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1608,13 +1517,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3933825</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1959,13 +1868,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE160"/>
+  <dimension ref="A1:AH164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1974,11 +1883,11 @@
     <col min="2" max="2" width="11.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="14.625" customWidth="1"/>
+    <col min="5" max="6" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1995,66 +1904,71 @@
         <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
@@ -2082,8 +1996,11 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
-    </row>
-    <row r="3" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+    </row>
+    <row r="3" spans="1:34" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>33</v>
       </c>
@@ -2113,8 +2030,11 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
@@ -2142,8 +2062,11 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
@@ -2171,84 +2094,46 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-    </row>
-    <row r="6" spans="1:31" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+    </row>
+    <row r="6" spans="1:34" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
-    </row>
-    <row r="7" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+    </row>
+    <row r="7" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -2275,16 +2160,19 @@
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
@@ -2311,16 +2199,19 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
       <c r="V8" s="14"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
@@ -2330,20 +2221,18 @@
       <c r="E9" s="14">
         <v>5</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="14">
+      <c r="F9" s="32"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="14">
         <v>4</v>
       </c>
-      <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
-      <c r="O9" s="14">
-        <v>0</v>
-      </c>
+      <c r="O9" s="14"/>
       <c r="P9" s="14">
         <v>0</v>
       </c>
@@ -2359,22 +2248,27 @@
       <c r="T9" s="14">
         <v>0</v>
       </c>
-      <c r="U9" s="14">
-        <v>0</v>
-      </c>
-      <c r="V9" s="14">
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14">
+        <v>0</v>
+      </c>
+      <c r="X9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="14">
         <v>4</v>
       </c>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
@@ -2384,20 +2278,18 @@
       <c r="E10" s="14">
         <v>3</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14">
+      <c r="F10" s="32"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="14">
         <v>2</v>
       </c>
-      <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
-      <c r="O10" s="14">
-        <v>0</v>
-      </c>
+      <c r="O10" s="14"/>
       <c r="P10" s="14">
         <v>0</v>
       </c>
@@ -2413,22 +2305,27 @@
       <c r="T10" s="14">
         <v>0</v>
       </c>
-      <c r="U10" s="14">
-        <v>0</v>
-      </c>
-      <c r="V10" s="14">
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14">
+        <v>0</v>
+      </c>
+      <c r="X10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="14">
         <v>2</v>
       </c>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>19</v>
       </c>
@@ -2438,20 +2335,18 @@
       <c r="E11" s="14">
         <v>3</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14">
+      <c r="F11" s="32"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="14">
         <v>1</v>
       </c>
-      <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
-      <c r="O11" s="14">
-        <v>0</v>
-      </c>
+      <c r="O11" s="14"/>
       <c r="P11" s="14">
         <v>0</v>
       </c>
@@ -2467,20 +2362,25 @@
       <c r="T11" s="14">
         <v>0</v>
       </c>
-      <c r="U11" s="14">
-        <v>0</v>
-      </c>
+      <c r="U11" s="14"/>
       <c r="V11" s="14"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
+      <c r="W11" s="14">
+        <v>0</v>
+      </c>
+      <c r="X11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="14"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
-    </row>
-    <row r="12" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+    </row>
+    <row r="12" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
@@ -2507,16 +2407,19 @@
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>20</v>
       </c>
@@ -2537,9 +2440,7 @@
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
-      <c r="O13" s="19">
-        <v>0</v>
-      </c>
+      <c r="O13" s="19"/>
       <c r="P13" s="19">
         <v>0</v>
       </c>
@@ -2555,22 +2456,27 @@
       <c r="T13" s="19">
         <v>0</v>
       </c>
-      <c r="U13" s="19">
-        <v>0</v>
-      </c>
-      <c r="V13" s="19">
-        <v>0</v>
-      </c>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19">
+        <v>0</v>
+      </c>
+      <c r="X13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="19">
+        <v>0</v>
+      </c>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
-    </row>
-    <row r="14" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+    </row>
+    <row r="14" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>21</v>
       </c>
@@ -2591,9 +2497,7 @@
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
-      <c r="O14" s="19">
-        <v>0</v>
-      </c>
+      <c r="O14" s="19"/>
       <c r="P14" s="19">
         <v>0</v>
       </c>
@@ -2609,22 +2513,27 @@
       <c r="T14" s="19">
         <v>0</v>
       </c>
-      <c r="U14" s="19">
-        <v>0</v>
-      </c>
-      <c r="V14" s="19">
-        <v>0</v>
-      </c>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19">
+        <v>0</v>
+      </c>
+      <c r="X14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="19">
+        <v>0</v>
+      </c>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
-    </row>
-    <row r="15" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+    </row>
+    <row r="15" spans="1:34" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>51</v>
       </c>
@@ -2644,15 +2553,12 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
-      <c r="N15" s="30">
+      <c r="N15" s="30"/>
+      <c r="O15" s="30">
         <v>4</v>
       </c>
-      <c r="O15" s="30">
-        <f t="shared" ref="O15:U22" si="0">F15</f>
-        <v>0</v>
-      </c>
       <c r="P15" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P15:T22" si="0">G15</f>
         <v>0</v>
       </c>
       <c r="Q15" s="30">
@@ -2671,24 +2577,30 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U15" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="30">
-        <f t="shared" ref="V15:V38" si="1">E15</f>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30">
+        <f>L15</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="30">
+        <f>M15</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="30">
+        <f t="shared" ref="Y15:Y38" si="1">E15</f>
         <v>4</v>
       </c>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
-    </row>
-    <row r="16" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+    </row>
+    <row r="16" spans="1:34" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>52</v>
       </c>
@@ -2708,12 +2620,9 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
-      <c r="N16" s="30">
+      <c r="N16" s="30"/>
+      <c r="O16" s="30">
         <v>4</v>
-      </c>
-      <c r="O16" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="P16" s="30">
         <f t="shared" si="0"/>
@@ -2735,24 +2644,30 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U16" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="30">
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30">
+        <f>L16</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="30">
+        <f>M16</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="30">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
-    </row>
-    <row r="17" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+    </row>
+    <row r="17" spans="1:34" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>53</v>
       </c>
@@ -2772,29 +2687,32 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
-      <c r="N17" s="30">
+      <c r="N17" s="30"/>
+      <c r="O17" s="30">
         <v>2</v>
       </c>
-      <c r="O17" s="30">
-        <v>0</v>
-      </c>
-      <c r="P17" s="30"/>
+      <c r="P17" s="30">
+        <v>0</v>
+      </c>
       <c r="Q17" s="30"/>
       <c r="R17" s="30"/>
       <c r="S17" s="30"/>
       <c r="T17" s="30"/>
       <c r="U17" s="30"/>
       <c r="V17" s="30"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
-    </row>
-    <row r="18" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+    </row>
+    <row r="18" spans="1:34" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>54</v>
       </c>
@@ -2812,29 +2730,32 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
-      <c r="N18" s="30">
+      <c r="N18" s="30"/>
+      <c r="O18" s="30">
         <v>2</v>
       </c>
-      <c r="O18" s="30">
-        <v>0</v>
-      </c>
-      <c r="P18" s="30"/>
+      <c r="P18" s="30">
+        <v>0</v>
+      </c>
       <c r="Q18" s="30"/>
       <c r="R18" s="30"/>
       <c r="S18" s="30"/>
       <c r="T18" s="30"/>
       <c r="U18" s="30"/>
       <c r="V18" s="30"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
-    </row>
-    <row r="19" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+    </row>
+    <row r="19" spans="1:34" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>56</v>
       </c>
@@ -2852,29 +2773,32 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
-      <c r="N19" s="30">
+      <c r="N19" s="30"/>
+      <c r="O19" s="30">
         <v>2</v>
       </c>
-      <c r="O19" s="30">
-        <v>0</v>
-      </c>
-      <c r="P19" s="30"/>
+      <c r="P19" s="30">
+        <v>0</v>
+      </c>
       <c r="Q19" s="30"/>
       <c r="R19" s="30"/>
       <c r="S19" s="30"/>
       <c r="T19" s="30"/>
       <c r="U19" s="30"/>
       <c r="V19" s="30"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
-    </row>
-    <row r="20" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+    </row>
+    <row r="20" spans="1:34" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29"/>
       <c r="B20" s="30"/>
       <c r="C20" s="29"/>
@@ -2890,29 +2814,32 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
-      <c r="N20" s="30">
+      <c r="N20" s="30"/>
+      <c r="O20" s="30">
         <v>2</v>
       </c>
-      <c r="O20" s="30">
-        <v>0</v>
-      </c>
-      <c r="P20" s="30"/>
+      <c r="P20" s="30">
+        <v>0</v>
+      </c>
       <c r="Q20" s="30"/>
       <c r="R20" s="30"/>
       <c r="S20" s="30"/>
       <c r="T20" s="30"/>
       <c r="U20" s="30"/>
       <c r="V20" s="30"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
-    </row>
-    <row r="21" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+    </row>
+    <row r="21" spans="1:34" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>55</v>
       </c>
@@ -2937,16 +2864,19 @@
       <c r="T21" s="17"/>
       <c r="U21" s="17"/>
       <c r="V21" s="17"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
-    </row>
-    <row r="22" spans="1:31" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+    </row>
+    <row r="22" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
@@ -2965,10 +2895,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="O22" s="10"/>
       <c r="P22" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2989,24 +2916,30 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U22" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="4">
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4">
+        <f>L22</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
+        <f>M22</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
-    </row>
-    <row r="23" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+    </row>
+    <row r="23" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
@@ -3027,9 +2960,7 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
-      <c r="O23" s="21">
-        <v>0</v>
-      </c>
+      <c r="O23" s="21"/>
       <c r="P23" s="21">
         <v>0</v>
       </c>
@@ -3045,23 +2976,28 @@
       <c r="T23" s="21">
         <v>0</v>
       </c>
-      <c r="U23" s="21">
-        <v>0</v>
-      </c>
-      <c r="V23" s="21">
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21">
+        <v>0</v>
+      </c>
+      <c r="X23" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="21">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
-    </row>
-    <row r="24" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+    </row>
+    <row r="24" spans="1:34" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="16"/>
@@ -3076,12 +3012,9 @@
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
-      <c r="O24" s="17">
-        <f t="shared" ref="O24:U27" si="2">F24</f>
-        <v>0</v>
-      </c>
+      <c r="O24" s="17"/>
       <c r="P24" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="P24:T27" si="2">G24</f>
         <v>0</v>
       </c>
       <c r="Q24" s="17">
@@ -3100,24 +3033,30 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U24" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="17">
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17">
+        <f>L24</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="17">
+        <f>M24</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
-    </row>
-    <row r="25" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+    </row>
+    <row r="25" spans="1:34" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
       <c r="C25" s="16"/>
@@ -3132,10 +3071,7 @@
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O25" s="17"/>
       <c r="P25" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3156,24 +3092,30 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U25" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="17">
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17">
+        <f>L25</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="17">
+        <f>M25</f>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
-    </row>
-    <row r="26" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+    </row>
+    <row r="26" spans="1:34" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="16"/>
@@ -3188,10 +3130,7 @@
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
-      <c r="O26" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O26" s="17"/>
       <c r="P26" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3212,24 +3151,30 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U26" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="17">
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17">
+        <f>L26</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="17">
+        <f>M26</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
-    </row>
-    <row r="27" spans="1:31" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+    </row>
+    <row r="27" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>11</v>
       </c>
@@ -3248,10 +3193,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
-      <c r="O27" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O27" s="10"/>
       <c r="P27" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3272,24 +3214,30 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U27" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="4">
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4">
+        <f>L27</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="4">
+        <f>M27</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>5</v>
       </c>
@@ -3299,10 +3247,10 @@
       <c r="E28" s="14">
         <v>8</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="14"/>
+      <c r="G28" s="14">
         <v>8</v>
       </c>
-      <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -3310,9 +3258,7 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
-      <c r="O28" s="14">
-        <v>0</v>
-      </c>
+      <c r="O28" s="14"/>
       <c r="P28" s="14">
         <v>0</v>
       </c>
@@ -3328,23 +3274,28 @@
       <c r="T28" s="14">
         <v>0</v>
       </c>
-      <c r="U28" s="14">
-        <v>0</v>
-      </c>
-      <c r="V28" s="14">
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14">
+        <v>0</v>
+      </c>
+      <c r="X28" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>6</v>
       </c>
@@ -3354,10 +3305,10 @@
       <c r="E29" s="14">
         <v>8</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="14"/>
+      <c r="G29" s="14">
         <v>8</v>
       </c>
-      <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -3365,9 +3316,7 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
-      <c r="O29" s="14">
-        <v>0</v>
-      </c>
+      <c r="O29" s="14"/>
       <c r="P29" s="14">
         <v>0</v>
       </c>
@@ -3383,23 +3332,28 @@
       <c r="T29" s="14">
         <v>0</v>
       </c>
-      <c r="U29" s="14">
-        <v>0</v>
-      </c>
-      <c r="V29" s="14">
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14">
+        <v>0</v>
+      </c>
+      <c r="X29" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>7</v>
       </c>
@@ -3409,10 +3363,10 @@
       <c r="E30" s="14">
         <v>8</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="14"/>
+      <c r="G30" s="14">
         <v>8</v>
       </c>
-      <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
@@ -3420,9 +3374,7 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
-      <c r="O30" s="14">
-        <v>0</v>
-      </c>
+      <c r="O30" s="14"/>
       <c r="P30" s="14">
         <v>0</v>
       </c>
@@ -3438,23 +3390,28 @@
       <c r="T30" s="14">
         <v>0</v>
       </c>
-      <c r="U30" s="14">
-        <v>0</v>
-      </c>
-      <c r="V30" s="14">
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14">
+        <v>0</v>
+      </c>
+      <c r="X30" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>15</v>
       </c>
@@ -3466,10 +3423,10 @@
       <c r="E31" s="14">
         <v>8</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="14"/>
+      <c r="G31" s="14">
         <v>4</v>
       </c>
-      <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
@@ -3477,9 +3434,7 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
-      <c r="O31" s="14">
-        <v>0</v>
-      </c>
+      <c r="O31" s="14"/>
       <c r="P31" s="14">
         <v>0</v>
       </c>
@@ -3495,23 +3450,28 @@
       <c r="T31" s="14">
         <v>0</v>
       </c>
-      <c r="U31" s="14">
-        <v>0</v>
-      </c>
-      <c r="V31" s="14">
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14">
+        <v>0</v>
+      </c>
+      <c r="X31" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>23</v>
       </c>
@@ -3524,7 +3484,7 @@
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="14"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -3532,12 +3492,9 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="4">
-        <f t="shared" ref="O32:U33" si="3">F32</f>
-        <v>0</v>
-      </c>
+      <c r="O32" s="4"/>
       <c r="P32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="P32:T33" si="3">G32</f>
         <v>0</v>
       </c>
       <c r="Q32" s="4">
@@ -3556,24 +3513,30 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U32" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="4">
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4">
+        <f>L32</f>
+        <v>0</v>
+      </c>
+      <c r="X32" s="4">
+        <f>M32</f>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
-    </row>
-    <row r="33" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+    </row>
+    <row r="33" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>12</v>
       </c>
@@ -3592,10 +3555,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
-      <c r="O33" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O33" s="10"/>
       <c r="P33" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3616,24 +3576,30 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U33" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="4">
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4">
+        <f>L33</f>
+        <v>0</v>
+      </c>
+      <c r="X33" s="4">
+        <f>M33</f>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>14</v>
       </c>
@@ -3652,41 +3618,44 @@
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
-      <c r="O34" s="24">
-        <v>0</v>
-      </c>
+      <c r="O34" s="24"/>
       <c r="P34" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="24">
         <v>8</v>
       </c>
-      <c r="Q34" s="24">
+      <c r="R34" s="24">
         <v>4</v>
       </c>
-      <c r="R34" s="24">
-        <v>0</v>
-      </c>
       <c r="S34" s="24">
         <v>0</v>
       </c>
       <c r="T34" s="24">
         <v>0</v>
       </c>
-      <c r="U34" s="24">
-        <v>0</v>
-      </c>
-      <c r="V34" s="24">
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24">
+        <v>0</v>
+      </c>
+      <c r="X34" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="24">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>37</v>
       </c>
@@ -3703,56 +3672,56 @@
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="15">
-        <f t="shared" ref="O35:P38" si="4">F35</f>
-        <v>0</v>
-      </c>
+      <c r="O35" s="15"/>
       <c r="P35" s="15">
+        <f t="shared" ref="P35:Q38" si="4">G35</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
-      </c>
-      <c r="Q35" s="15">
-        <v>2</v>
       </c>
       <c r="R35" s="15">
         <v>2</v>
       </c>
       <c r="S35" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15">
         <v>2</v>
       </c>
-      <c r="U35" s="15">
+      <c r="X35" s="15">
         <v>2</v>
       </c>
-      <c r="V35" s="15">
+      <c r="Y35" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36"/>
-      <c r="O36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="P36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q36">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R36">
@@ -3764,23 +3733,26 @@
       <c r="T36">
         <v>0</v>
       </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>34</v>
       </c>
@@ -3797,20 +3769,17 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
-      <c r="O37" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="O37" s="4"/>
       <c r="P37" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q37" s="4">
-        <f t="shared" ref="Q37:U38" si="5">H37</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="R37:T38" si="5">I37</f>
         <v>0</v>
       </c>
       <c r="S37" s="4">
@@ -3821,24 +3790,30 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U37" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="4">
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4">
+        <f>L37</f>
+        <v>0</v>
+      </c>
+      <c r="X37" s="4">
+        <f>M37</f>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
@@ -3855,16 +3830,13 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
-      <c r="O38" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="O38" s="4"/>
       <c r="P38" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R38" s="4">
@@ -3879,24 +3851,30 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U38" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V38" s="4">
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4">
+        <f>L38</f>
+        <v>0</v>
+      </c>
+      <c r="X38" s="4">
+        <f>M38</f>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>43</v>
       </c>
@@ -3910,33 +3888,36 @@
       <c r="I39" s="26"/>
       <c r="J39" s="26"/>
       <c r="K39" s="26"/>
-      <c r="L39" s="26">
+      <c r="L39" s="26"/>
+      <c r="M39" s="26">
         <v>2</v>
       </c>
-      <c r="M39" s="26">
-        <v>0</v>
-      </c>
-      <c r="N39" s="26"/>
+      <c r="N39" s="26">
+        <v>0</v>
+      </c>
       <c r="O39" s="26"/>
       <c r="P39" s="26"/>
       <c r="Q39" s="26"/>
       <c r="R39" s="26"/>
-      <c r="S39" s="26">
+      <c r="S39" s="26"/>
+      <c r="T39" s="26">
         <v>2</v>
       </c>
-      <c r="T39" s="26"/>
       <c r="U39" s="26"/>
       <c r="V39" s="26"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>44</v>
       </c>
@@ -3950,33 +3931,36 @@
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
-      <c r="L40" s="26">
+      <c r="L40" s="26"/>
+      <c r="M40" s="26">
         <v>2</v>
       </c>
-      <c r="M40" s="26">
-        <v>0</v>
-      </c>
-      <c r="N40" s="26"/>
+      <c r="N40" s="26">
+        <v>0</v>
+      </c>
       <c r="O40" s="26"/>
       <c r="P40" s="26"/>
       <c r="Q40" s="26"/>
       <c r="R40" s="26"/>
-      <c r="S40" s="26">
+      <c r="S40" s="26"/>
+      <c r="T40" s="26">
         <v>2</v>
       </c>
-      <c r="T40" s="26"/>
       <c r="U40" s="26"/>
       <c r="V40" s="26"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>45</v>
       </c>
@@ -3993,13 +3977,13 @@
       <c r="J41" s="28"/>
       <c r="K41" s="28"/>
       <c r="L41" s="28"/>
-      <c r="M41" s="28">
+      <c r="M41" s="28"/>
+      <c r="N41" s="28">
         <v>2</v>
       </c>
-      <c r="N41" s="28">
-        <v>0</v>
-      </c>
-      <c r="O41" s="28"/>
+      <c r="O41" s="28">
+        <v>0</v>
+      </c>
       <c r="P41" s="28"/>
       <c r="Q41" s="28"/>
       <c r="R41" s="28"/>
@@ -4007,16 +3991,19 @@
       <c r="T41" s="28"/>
       <c r="U41" s="28"/>
       <c r="V41" s="28"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>46</v>
       </c>
@@ -4031,13 +4018,13 @@
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
       <c r="L42" s="26"/>
-      <c r="M42" s="26">
+      <c r="M42" s="26"/>
+      <c r="N42" s="26">
         <v>2</v>
       </c>
-      <c r="N42" s="26">
-        <v>0</v>
-      </c>
-      <c r="O42" s="26"/>
+      <c r="O42" s="26">
+        <v>0</v>
+      </c>
       <c r="P42" s="26"/>
       <c r="Q42" s="26"/>
       <c r="R42" s="26"/>
@@ -4045,16 +4032,19 @@
       <c r="T42" s="26"/>
       <c r="U42" s="26"/>
       <c r="V42" s="26"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>47</v>
       </c>
@@ -4071,13 +4061,13 @@
       <c r="J43" s="26"/>
       <c r="K43" s="26"/>
       <c r="L43" s="26"/>
-      <c r="M43" s="26">
+      <c r="M43" s="26"/>
+      <c r="N43" s="26">
         <v>2</v>
       </c>
-      <c r="N43" s="26">
-        <v>0</v>
-      </c>
-      <c r="O43" s="26"/>
+      <c r="O43" s="26">
+        <v>0</v>
+      </c>
       <c r="P43" s="26"/>
       <c r="Q43" s="26"/>
       <c r="R43" s="26"/>
@@ -4085,16 +4075,19 @@
       <c r="T43" s="26"/>
       <c r="U43" s="26"/>
       <c r="V43" s="26"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" s="26"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
-    </row>
-    <row r="44" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+    </row>
+    <row r="44" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>58</v>
       </c>
@@ -4111,48 +4104,51 @@
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
-      <c r="O44" s="4">
-        <f t="shared" ref="O44" si="6">F44</f>
-        <v>0</v>
-      </c>
+      <c r="O44" s="10"/>
       <c r="P44" s="4">
-        <f t="shared" ref="P44" si="7">G44</f>
+        <f t="shared" ref="P44" si="6">G44</f>
         <v>0</v>
       </c>
       <c r="Q44" s="4">
-        <f t="shared" ref="Q44" si="8">H44</f>
+        <f t="shared" ref="Q44" si="7">H44</f>
         <v>0</v>
       </c>
       <c r="R44" s="4">
-        <f t="shared" ref="R44" si="9">I44</f>
+        <f t="shared" ref="R44" si="8">I44</f>
         <v>0</v>
       </c>
       <c r="S44" s="4">
-        <f t="shared" ref="S44" si="10">J44</f>
+        <f t="shared" ref="S44" si="9">J44</f>
         <v>0</v>
       </c>
       <c r="T44" s="4">
-        <f t="shared" ref="T44" si="11">K44</f>
-        <v>0</v>
-      </c>
-      <c r="U44" s="4">
-        <f t="shared" ref="U44" si="12">L44</f>
-        <v>0</v>
-      </c>
-      <c r="V44" s="4">
-        <f t="shared" ref="V44" si="13">E44</f>
-        <v>0</v>
-      </c>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
+        <f t="shared" ref="T44" si="10">K44</f>
+        <v>0</v>
+      </c>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4">
+        <f t="shared" ref="W44" si="11">L44</f>
+        <v>0</v>
+      </c>
+      <c r="X44" s="4">
+        <f t="shared" ref="X44" si="12">M44</f>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="4">
+        <f t="shared" ref="Y44" si="13">E44</f>
+        <v>0</v>
+      </c>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
@@ -4175,16 +4171,19 @@
       <c r="T45" s="26"/>
       <c r="U45" s="26"/>
       <c r="V45" s="26"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
+      <c r="W45" s="26"/>
+      <c r="X45" s="26"/>
+      <c r="Y45" s="26"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>59</v>
       </c>
@@ -4209,16 +4208,19 @@
       <c r="T46" s="26"/>
       <c r="U46" s="26"/>
       <c r="V46" s="26"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
+      <c r="W46" s="26"/>
+      <c r="X46" s="26"/>
+      <c r="Y46" s="26"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -4243,16 +4245,19 @@
       <c r="T47" s="26"/>
       <c r="U47" s="26"/>
       <c r="V47" s="26"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
+      <c r="W47" s="26"/>
+      <c r="X47" s="26"/>
+      <c r="Y47" s="26"/>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>61</v>
       </c>
@@ -4277,16 +4282,19 @@
       <c r="T48" s="26"/>
       <c r="U48" s="26"/>
       <c r="V48" s="26"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
+      <c r="W48" s="26"/>
+      <c r="X48" s="26"/>
+      <c r="Y48" s="26"/>
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
@@ -4309,16 +4317,19 @@
       <c r="T49" s="26"/>
       <c r="U49" s="26"/>
       <c r="V49" s="26"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
+      <c r="W49" s="26"/>
+      <c r="X49" s="26"/>
+      <c r="Y49" s="26"/>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>65</v>
       </c>
@@ -4345,16 +4356,19 @@
       <c r="T50" s="26"/>
       <c r="U50" s="26"/>
       <c r="V50" s="26"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
+      <c r="W50" s="26"/>
+      <c r="X50" s="26"/>
+      <c r="Y50" s="26"/>
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>66</v>
       </c>
@@ -4381,16 +4395,19 @@
       <c r="T51" s="26"/>
       <c r="U51" s="26"/>
       <c r="V51" s="26"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
+      <c r="W51" s="26"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="26"/>
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>67</v>
       </c>
@@ -4417,16 +4434,19 @@
       <c r="T52" s="26"/>
       <c r="U52" s="26"/>
       <c r="V52" s="26"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
+      <c r="W52" s="26"/>
+      <c r="X52" s="26"/>
+      <c r="Y52" s="26"/>
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
@@ -4449,16 +4469,19 @@
       <c r="T53" s="26"/>
       <c r="U53" s="26"/>
       <c r="V53" s="26"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
+      <c r="W53" s="26"/>
+      <c r="X53" s="26"/>
+      <c r="Y53" s="26"/>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
@@ -4481,22 +4504,29 @@
       <c r="T54" s="26"/>
       <c r="U54" s="26"/>
       <c r="V54" s="26"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
+      <c r="W54" s="26"/>
+      <c r="X54" s="26"/>
+      <c r="Y54" s="26"/>
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>68</v>
+      </c>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
       <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
+      <c r="F55" s="26">
+        <v>8</v>
+      </c>
       <c r="G55" s="26"/>
       <c r="H55" s="26"/>
       <c r="I55" s="26"/>
@@ -4513,370 +4543,406 @@
       <c r="T55" s="26"/>
       <c r="U55" s="26"/>
       <c r="V55" s="26"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
+      <c r="W55" s="26"/>
+      <c r="X55" s="26"/>
+      <c r="Y55" s="26"/>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="23">
-        <v>8</v>
-      </c>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23">
-        <v>8</v>
-      </c>
-      <c r="I56" s="23">
-        <v>8</v>
-      </c>
-      <c r="J56" s="23">
-        <v>0</v>
-      </c>
-      <c r="K56" s="23">
-        <v>0</v>
-      </c>
-      <c r="L56" s="23">
-        <v>0</v>
-      </c>
-      <c r="M56" s="23">
-        <v>0</v>
-      </c>
-      <c r="N56" s="23">
-        <v>0</v>
-      </c>
-      <c r="O56" s="23">
-        <v>0</v>
-      </c>
-      <c r="P56" s="23">
-        <v>8</v>
-      </c>
-      <c r="Q56" s="23">
-        <v>0</v>
-      </c>
-      <c r="R56" s="23">
-        <v>0</v>
-      </c>
-      <c r="S56" s="23">
-        <v>0</v>
-      </c>
-      <c r="T56" s="23">
-        <v>0</v>
-      </c>
-      <c r="U56" s="23">
-        <v>0</v>
-      </c>
-      <c r="V56" s="23">
-        <f>E56</f>
-        <v>8</v>
-      </c>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="26"/>
+      <c r="T56" s="26"/>
+      <c r="U56" s="26"/>
+      <c r="V56" s="26"/>
+      <c r="W56" s="26"/>
+      <c r="X56" s="26"/>
+      <c r="Y56" s="26"/>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
-    </row>
-    <row r="57" spans="1:31" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E57" s="11">
-        <f>SUM(E7:E56)</f>
-        <v>131</v>
-      </c>
-      <c r="F57" s="11">
-        <f>SUM(V8:V56)-SUM(F8:F56)</f>
-        <v>42</v>
-      </c>
-      <c r="G57" s="11">
-        <f>F57-SUM(G8:G56)</f>
-        <v>35</v>
-      </c>
-      <c r="H57" s="11">
-        <f>O57</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="11">
-        <f>O57</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="4">
-        <v>6</v>
-      </c>
-      <c r="K57" s="4">
-        <v>2</v>
-      </c>
-      <c r="L57" s="4">
-        <f>SUM(L7:L56)</f>
-        <v>4</v>
-      </c>
-      <c r="M57" s="4">
-        <f>SUM(M7:M56)</f>
-        <v>6</v>
-      </c>
-      <c r="N57" s="4">
-        <f>SUM(N7:N56)</f>
-        <v>16</v>
-      </c>
-      <c r="O57" s="4">
-        <f>SUM(O7:O56)</f>
-        <v>0</v>
-      </c>
-      <c r="P57" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="4">
-        <f t="shared" ref="Q57:V57" si="14">SUM(Q7:Q56)</f>
-        <v>6</v>
-      </c>
-      <c r="R57" s="4">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="S57" s="4">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="T57" s="4">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="U57" s="4">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="V57" s="4">
-        <f t="shared" si="14"/>
-        <v>70</v>
-      </c>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="26"/>
+      <c r="T57" s="26"/>
+      <c r="U57" s="26"/>
+      <c r="V57" s="26"/>
+      <c r="W57" s="26"/>
+      <c r="X57" s="26"/>
+      <c r="Y57" s="26"/>
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="26"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="26"/>
+      <c r="V58" s="26"/>
+      <c r="W58" s="26"/>
+      <c r="X58" s="26"/>
+      <c r="Y58" s="26"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5"/>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="26"/>
+      <c r="S59" s="26"/>
+      <c r="T59" s="26"/>
+      <c r="U59" s="26"/>
+      <c r="V59" s="26"/>
+      <c r="W59" s="26"/>
+      <c r="X59" s="26"/>
+      <c r="Y59" s="26"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="23">
+        <v>8</v>
+      </c>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23">
+        <v>8</v>
+      </c>
+      <c r="J60" s="23">
+        <v>8</v>
+      </c>
+      <c r="K60" s="23">
+        <v>0</v>
+      </c>
+      <c r="L60" s="23">
+        <v>0</v>
+      </c>
+      <c r="M60" s="23">
+        <v>0</v>
+      </c>
+      <c r="N60" s="23">
+        <v>0</v>
+      </c>
+      <c r="O60" s="23">
+        <v>0</v>
+      </c>
+      <c r="P60" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="23">
+        <v>8</v>
+      </c>
+      <c r="R60" s="23">
+        <v>0</v>
+      </c>
+      <c r="S60" s="23">
+        <v>0</v>
+      </c>
+      <c r="T60" s="23">
+        <v>0</v>
+      </c>
+      <c r="U60" s="23"/>
+      <c r="V60" s="23"/>
+      <c r="W60" s="23">
+        <v>0</v>
+      </c>
+      <c r="X60" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="23">
+        <f>E60</f>
+        <v>8</v>
+      </c>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
+    </row>
+    <row r="61" spans="1:34" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="11">
+        <f>SUM(E7:E60)</f>
+        <v>131</v>
+      </c>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11">
+        <f>SUM(Y8:Y60)-SUM(G8:G60)</f>
+        <v>42</v>
+      </c>
+      <c r="H61" s="11">
+        <f>G61-SUM(H8:H60)</f>
+        <v>35</v>
+      </c>
+      <c r="I61" s="11">
+        <f>P61</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="11">
+        <f>P61</f>
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <v>6</v>
+      </c>
+      <c r="L61" s="4">
+        <v>2</v>
+      </c>
+      <c r="M61" s="4">
+        <f>SUM(M7:M60)</f>
+        <v>4</v>
+      </c>
+      <c r="N61" s="4">
+        <f>SUM(N7:N60)</f>
+        <v>6</v>
+      </c>
+      <c r="O61" s="4">
+        <f>SUM(O7:O60)</f>
+        <v>16</v>
+      </c>
+      <c r="P61" s="4">
+        <f>SUM(P7:P60)</f>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>0</v>
+      </c>
+      <c r="R61" s="4">
+        <f t="shared" ref="R61:Y61" si="14">SUM(R7:R60)</f>
+        <v>6</v>
+      </c>
+      <c r="S61" s="4">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="T61" s="4">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="X61" s="4">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="Y61" s="4">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5"/>
+      <c r="AG61" s="5"/>
+      <c r="AH61" s="5"/>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="11" t="s">
+      <c r="B62" s="6"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="5">
-        <f>SUM(E8:E56)</f>
+      <c r="E62" s="5">
+        <f>SUM(E8:E60)</f>
         <v>131</v>
       </c>
-      <c r="F58" s="5">
-        <f>E58-8</f>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5">
+        <f>E62-8</f>
         <v>123</v>
       </c>
-      <c r="G58" s="5">
-        <f>F58-8</f>
+      <c r="H62" s="5">
+        <f>G62-8</f>
         <v>115</v>
       </c>
-      <c r="H58" s="5">
-        <f t="shared" ref="H58:N58" si="15">G58-8</f>
+      <c r="I62" s="5">
+        <f t="shared" ref="I62:O62" si="15">H62-8</f>
         <v>107</v>
       </c>
-      <c r="I58" s="5">
+      <c r="J62" s="5">
         <f t="shared" si="15"/>
         <v>99</v>
       </c>
-      <c r="J58" s="5">
+      <c r="K62" s="5">
         <f t="shared" si="15"/>
         <v>91</v>
       </c>
-      <c r="K58" s="5">
+      <c r="L62" s="5">
         <f t="shared" si="15"/>
         <v>83</v>
       </c>
-      <c r="L58" s="5">
+      <c r="M62" s="5">
         <f t="shared" si="15"/>
         <v>75</v>
       </c>
-      <c r="M58" s="5">
-        <f>L58-8</f>
+      <c r="N62" s="5">
+        <f>M62-8</f>
         <v>67</v>
       </c>
-      <c r="N58" s="5">
+      <c r="O62" s="5">
         <f t="shared" si="15"/>
         <v>59</v>
       </c>
-      <c r="O58" s="5">
-        <f>N58-8</f>
+      <c r="P62" s="5">
+        <f>O62-8</f>
         <v>51</v>
       </c>
-      <c r="P58" s="5">
-        <f t="shared" ref="P58:U58" si="16">O58-8</f>
+      <c r="Q62" s="5">
+        <f t="shared" ref="Q62:X62" si="16">P62-8</f>
         <v>43</v>
       </c>
-      <c r="Q58" s="5">
+      <c r="R62" s="5">
         <f t="shared" si="16"/>
         <v>35</v>
       </c>
-      <c r="R58" s="5">
+      <c r="S62" s="5">
         <f t="shared" si="16"/>
         <v>27</v>
       </c>
-      <c r="S58" s="5">
+      <c r="T62" s="5">
         <f t="shared" si="16"/>
         <v>19</v>
       </c>
-      <c r="T58" s="5">
-        <f>S58-8</f>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5">
+        <f>T62-8</f>
         <v>11</v>
       </c>
-      <c r="U58" s="5">
+      <c r="X62" s="5">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="5"/>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="31"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="31"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="31"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="5"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="31"/>
-      <c r="T62" s="31"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" s="31"/>
       <c r="B63" s="31"/>
       <c r="C63" s="31"/>
@@ -4897,15 +4963,18 @@
       <c r="R63" s="31"/>
       <c r="S63" s="31"/>
       <c r="T63" s="31"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="5"/>
-      <c r="W63" s="5"/>
+      <c r="U63" s="31"/>
+      <c r="V63" s="31"/>
+      <c r="W63" s="31"/>
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="31"/>
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
@@ -4926,131 +4995,146 @@
       <c r="R64" s="31"/>
       <c r="S64" s="31"/>
       <c r="T64" s="31"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
+      <c r="U64" s="31"/>
+      <c r="V64" s="31"/>
+      <c r="W64" s="31"/>
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-      <c r="W65" s="5"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
+      <c r="T65" s="31"/>
+      <c r="U65" s="31"/>
+      <c r="V65" s="31"/>
+      <c r="W65" s="31"/>
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="5"/>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="31"/>
+      <c r="S66" s="31"/>
+      <c r="T66" s="31"/>
+      <c r="U66" s="31"/>
+      <c r="V66" s="31"/>
+      <c r="W66" s="31"/>
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="31"/>
+      <c r="S67" s="31"/>
+      <c r="T67" s="31"/>
+      <c r="U67" s="31"/>
+      <c r="V67" s="31"/>
+      <c r="W67" s="31"/>
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="31"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="31"/>
+      <c r="R68" s="31"/>
+      <c r="S68" s="31"/>
+      <c r="T68" s="31"/>
+      <c r="U68" s="31"/>
+      <c r="V68" s="31"/>
+      <c r="W68" s="31"/>
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="5"/>
@@ -5078,8 +5162,11 @@
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="5"/>
@@ -5107,8 +5194,11 @@
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="5"/>
@@ -5136,8 +5226,11 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="5"/>
@@ -5165,8 +5258,11 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="5"/>
@@ -5194,8 +5290,11 @@
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
       <c r="AA73" s="5"/>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="6"/>
       <c r="C74" s="5"/>
@@ -5223,8 +5322,11 @@
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="5"/>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="6"/>
       <c r="C75" s="5"/>
@@ -5252,8 +5354,11 @@
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
       <c r="AA75" s="5"/>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
       <c r="C76" s="5"/>
@@ -5281,8 +5386,11 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="5"/>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB76" s="5"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="5"/>
@@ -5310,8 +5418,11 @@
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
       <c r="AA77" s="5"/>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB77" s="5"/>
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="5"/>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="5"/>
@@ -5339,8 +5450,11 @@
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
       <c r="AA78" s="5"/>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB78" s="5"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="5"/>
@@ -5368,8 +5482,11 @@
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
       <c r="AA79" s="5"/>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB79" s="5"/>
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="5"/>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="6"/>
       <c r="C80" s="5"/>
@@ -5397,8 +5514,11 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB80" s="5"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="5"/>
@@ -5426,8 +5546,11 @@
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
       <c r="AA81" s="5"/>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB81" s="5"/>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5"/>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="5"/>
@@ -5455,8 +5578,11 @@
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
       <c r="AA82" s="5"/>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB82" s="5"/>
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="5"/>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="5"/>
@@ -5484,8 +5610,11 @@
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
       <c r="AA83" s="5"/>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="5"/>
@@ -5513,8 +5642,11 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
       <c r="AA84" s="5"/>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB84" s="5"/>
+      <c r="AC84" s="5"/>
+      <c r="AD84" s="5"/>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="5"/>
@@ -5542,8 +5674,11 @@
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
       <c r="AA85" s="5"/>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB85" s="5"/>
+      <c r="AC85" s="5"/>
+      <c r="AD85" s="5"/>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="6"/>
       <c r="C86" s="5"/>
@@ -5571,8 +5706,11 @@
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
       <c r="AA86" s="5"/>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB86" s="5"/>
+      <c r="AC86" s="5"/>
+      <c r="AD86" s="5"/>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="5"/>
@@ -5600,8 +5738,11 @@
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
       <c r="AA87" s="5"/>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="5"/>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="5"/>
@@ -5629,8 +5770,11 @@
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
       <c r="AA88" s="5"/>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB88" s="5"/>
+      <c r="AC88" s="5"/>
+      <c r="AD88" s="5"/>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="5"/>
@@ -5658,8 +5802,11 @@
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
       <c r="AA89" s="5"/>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB89" s="5"/>
+      <c r="AC89" s="5"/>
+      <c r="AD89" s="5"/>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="5"/>
@@ -5687,8 +5834,11 @@
       <c r="Y90" s="5"/>
       <c r="Z90" s="5"/>
       <c r="AA90" s="5"/>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB90" s="5"/>
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="5"/>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="5"/>
@@ -5716,8 +5866,11 @@
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
       <c r="AA91" s="5"/>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB91" s="5"/>
+      <c r="AC91" s="5"/>
+      <c r="AD91" s="5"/>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="6"/>
       <c r="C92" s="5"/>
@@ -5745,8 +5898,11 @@
       <c r="Y92" s="5"/>
       <c r="Z92" s="5"/>
       <c r="AA92" s="5"/>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB92" s="5"/>
+      <c r="AC92" s="5"/>
+      <c r="AD92" s="5"/>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="6"/>
       <c r="C93" s="5"/>
@@ -5774,8 +5930,11 @@
       <c r="Y93" s="5"/>
       <c r="Z93" s="5"/>
       <c r="AA93" s="5"/>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB93" s="5"/>
+      <c r="AC93" s="5"/>
+      <c r="AD93" s="5"/>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="5"/>
@@ -5803,8 +5962,11 @@
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
       <c r="AA94" s="5"/>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB94" s="5"/>
+      <c r="AC94" s="5"/>
+      <c r="AD94" s="5"/>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="5"/>
@@ -5832,8 +5994,11 @@
       <c r="Y95" s="5"/>
       <c r="Z95" s="5"/>
       <c r="AA95" s="5"/>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB95" s="5"/>
+      <c r="AC95" s="5"/>
+      <c r="AD95" s="5"/>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="5"/>
@@ -5861,8 +6026,11 @@
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
       <c r="AA96" s="5"/>
-    </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB96" s="5"/>
+      <c r="AC96" s="5"/>
+      <c r="AD96" s="5"/>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="5"/>
@@ -5890,8 +6058,11 @@
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
       <c r="AA97" s="5"/>
-    </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB97" s="5"/>
+      <c r="AC97" s="5"/>
+      <c r="AD97" s="5"/>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="6"/>
       <c r="C98" s="5"/>
@@ -5919,8 +6090,11 @@
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
       <c r="AA98" s="5"/>
-    </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB98" s="5"/>
+      <c r="AC98" s="5"/>
+      <c r="AD98" s="5"/>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="5"/>
@@ -5948,8 +6122,11 @@
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
       <c r="AA99" s="5"/>
-    </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB99" s="5"/>
+      <c r="AC99" s="5"/>
+      <c r="AD99" s="5"/>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="5"/>
@@ -5977,8 +6154,11 @@
       <c r="Y100" s="5"/>
       <c r="Z100" s="5"/>
       <c r="AA100" s="5"/>
-    </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB100" s="5"/>
+      <c r="AC100" s="5"/>
+      <c r="AD100" s="5"/>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="5"/>
@@ -6006,8 +6186,11 @@
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
       <c r="AA101" s="5"/>
-    </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB101" s="5"/>
+      <c r="AC101" s="5"/>
+      <c r="AD101" s="5"/>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="5"/>
@@ -6035,8 +6218,11 @@
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
       <c r="AA102" s="5"/>
-    </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB102" s="5"/>
+      <c r="AC102" s="5"/>
+      <c r="AD102" s="5"/>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="5"/>
@@ -6064,8 +6250,11 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
       <c r="AA103" s="5"/>
-    </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB103" s="5"/>
+      <c r="AC103" s="5"/>
+      <c r="AD103" s="5"/>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="6"/>
       <c r="C104" s="5"/>
@@ -6093,8 +6282,11 @@
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
       <c r="AA104" s="5"/>
-    </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB104" s="5"/>
+      <c r="AC104" s="5"/>
+      <c r="AD104" s="5"/>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="5"/>
@@ -6122,8 +6314,11 @@
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
       <c r="AA105" s="5"/>
-    </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB105" s="5"/>
+      <c r="AC105" s="5"/>
+      <c r="AD105" s="5"/>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="5"/>
@@ -6151,8 +6346,11 @@
       <c r="Y106" s="5"/>
       <c r="Z106" s="5"/>
       <c r="AA106" s="5"/>
-    </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB106" s="5"/>
+      <c r="AC106" s="5"/>
+      <c r="AD106" s="5"/>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="5"/>
@@ -6180,8 +6378,11 @@
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
       <c r="AA107" s="5"/>
-    </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB107" s="5"/>
+      <c r="AC107" s="5"/>
+      <c r="AD107" s="5"/>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="5"/>
@@ -6209,8 +6410,11 @@
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
       <c r="AA108" s="5"/>
-    </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB108" s="5"/>
+      <c r="AC108" s="5"/>
+      <c r="AD108" s="5"/>
+    </row>
+    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="5"/>
@@ -6238,8 +6442,11 @@
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
       <c r="AA109" s="5"/>
-    </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB109" s="5"/>
+      <c r="AC109" s="5"/>
+      <c r="AD109" s="5"/>
+    </row>
+    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="6"/>
       <c r="C110" s="5"/>
@@ -6267,8 +6474,11 @@
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
       <c r="AA110" s="5"/>
-    </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB110" s="5"/>
+      <c r="AC110" s="5"/>
+      <c r="AD110" s="5"/>
+    </row>
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="6"/>
       <c r="C111" s="5"/>
@@ -6296,8 +6506,11 @@
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
       <c r="AA111" s="5"/>
-    </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB111" s="5"/>
+      <c r="AC111" s="5"/>
+      <c r="AD111" s="5"/>
+    </row>
+    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="5"/>
@@ -6325,8 +6538,11 @@
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
       <c r="AA112" s="5"/>
-    </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB112" s="5"/>
+      <c r="AC112" s="5"/>
+      <c r="AD112" s="5"/>
+    </row>
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="5"/>
@@ -6354,8 +6570,11 @@
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
       <c r="AA113" s="5"/>
-    </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB113" s="5"/>
+      <c r="AC113" s="5"/>
+      <c r="AD113" s="5"/>
+    </row>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="5"/>
@@ -6383,8 +6602,11 @@
       <c r="Y114" s="5"/>
       <c r="Z114" s="5"/>
       <c r="AA114" s="5"/>
-    </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB114" s="5"/>
+      <c r="AC114" s="5"/>
+      <c r="AD114" s="5"/>
+    </row>
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="5"/>
@@ -6412,8 +6634,11 @@
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
       <c r="AA115" s="5"/>
-    </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB115" s="5"/>
+      <c r="AC115" s="5"/>
+      <c r="AD115" s="5"/>
+    </row>
+    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="6"/>
       <c r="C116" s="5"/>
@@ -6441,8 +6666,11 @@
       <c r="Y116" s="5"/>
       <c r="Z116" s="5"/>
       <c r="AA116" s="5"/>
-    </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB116" s="5"/>
+      <c r="AC116" s="5"/>
+      <c r="AD116" s="5"/>
+    </row>
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="6"/>
       <c r="C117" s="5"/>
@@ -6470,8 +6698,11 @@
       <c r="Y117" s="5"/>
       <c r="Z117" s="5"/>
       <c r="AA117" s="5"/>
-    </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB117" s="5"/>
+      <c r="AC117" s="5"/>
+      <c r="AD117" s="5"/>
+    </row>
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="5"/>
@@ -6499,8 +6730,11 @@
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
       <c r="AA118" s="5"/>
-    </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB118" s="5"/>
+      <c r="AC118" s="5"/>
+      <c r="AD118" s="5"/>
+    </row>
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="5"/>
@@ -6528,8 +6762,11 @@
       <c r="Y119" s="5"/>
       <c r="Z119" s="5"/>
       <c r="AA119" s="5"/>
-    </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB119" s="5"/>
+      <c r="AC119" s="5"/>
+      <c r="AD119" s="5"/>
+    </row>
+    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="5"/>
@@ -6557,8 +6794,11 @@
       <c r="Y120" s="5"/>
       <c r="Z120" s="5"/>
       <c r="AA120" s="5"/>
-    </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB120" s="5"/>
+      <c r="AC120" s="5"/>
+      <c r="AD120" s="5"/>
+    </row>
+    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="5"/>
@@ -6586,8 +6826,11 @@
       <c r="Y121" s="5"/>
       <c r="Z121" s="5"/>
       <c r="AA121" s="5"/>
-    </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB121" s="5"/>
+      <c r="AC121" s="5"/>
+      <c r="AD121" s="5"/>
+    </row>
+    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="6"/>
       <c r="C122" s="5"/>
@@ -6615,8 +6858,11 @@
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
       <c r="AA122" s="5"/>
-    </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB122" s="5"/>
+      <c r="AC122" s="5"/>
+      <c r="AD122" s="5"/>
+    </row>
+    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="5"/>
@@ -6644,8 +6890,11 @@
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
       <c r="AA123" s="5"/>
-    </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB123" s="5"/>
+      <c r="AC123" s="5"/>
+      <c r="AD123" s="5"/>
+    </row>
+    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="5"/>
@@ -6673,8 +6922,11 @@
       <c r="Y124" s="5"/>
       <c r="Z124" s="5"/>
       <c r="AA124" s="5"/>
-    </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB124" s="5"/>
+      <c r="AC124" s="5"/>
+      <c r="AD124" s="5"/>
+    </row>
+    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="5"/>
@@ -6702,8 +6954,11 @@
       <c r="Y125" s="5"/>
       <c r="Z125" s="5"/>
       <c r="AA125" s="5"/>
-    </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB125" s="5"/>
+      <c r="AC125" s="5"/>
+      <c r="AD125" s="5"/>
+    </row>
+    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="5"/>
@@ -6731,8 +6986,11 @@
       <c r="Y126" s="5"/>
       <c r="Z126" s="5"/>
       <c r="AA126" s="5"/>
-    </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB126" s="5"/>
+      <c r="AC126" s="5"/>
+      <c r="AD126" s="5"/>
+    </row>
+    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="5"/>
@@ -6760,8 +7018,11 @@
       <c r="Y127" s="5"/>
       <c r="Z127" s="5"/>
       <c r="AA127" s="5"/>
-    </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB127" s="5"/>
+      <c r="AC127" s="5"/>
+      <c r="AD127" s="5"/>
+    </row>
+    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="6"/>
       <c r="C128" s="5"/>
@@ -6789,8 +7050,11 @@
       <c r="Y128" s="5"/>
       <c r="Z128" s="5"/>
       <c r="AA128" s="5"/>
-    </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB128" s="5"/>
+      <c r="AC128" s="5"/>
+      <c r="AD128" s="5"/>
+    </row>
+    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="5"/>
@@ -6818,8 +7082,11 @@
       <c r="Y129" s="5"/>
       <c r="Z129" s="5"/>
       <c r="AA129" s="5"/>
-    </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB129" s="5"/>
+      <c r="AC129" s="5"/>
+      <c r="AD129" s="5"/>
+    </row>
+    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="5"/>
@@ -6847,8 +7114,11 @@
       <c r="Y130" s="5"/>
       <c r="Z130" s="5"/>
       <c r="AA130" s="5"/>
-    </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB130" s="5"/>
+      <c r="AC130" s="5"/>
+      <c r="AD130" s="5"/>
+    </row>
+    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="5"/>
@@ -6876,8 +7146,11 @@
       <c r="Y131" s="5"/>
       <c r="Z131" s="5"/>
       <c r="AA131" s="5"/>
-    </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB131" s="5"/>
+      <c r="AC131" s="5"/>
+      <c r="AD131" s="5"/>
+    </row>
+    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="5"/>
@@ -6905,8 +7178,11 @@
       <c r="Y132" s="5"/>
       <c r="Z132" s="5"/>
       <c r="AA132" s="5"/>
-    </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB132" s="5"/>
+      <c r="AC132" s="5"/>
+      <c r="AD132" s="5"/>
+    </row>
+    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="5"/>
@@ -6934,8 +7210,11 @@
       <c r="Y133" s="5"/>
       <c r="Z133" s="5"/>
       <c r="AA133" s="5"/>
-    </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB133" s="5"/>
+      <c r="AC133" s="5"/>
+      <c r="AD133" s="5"/>
+    </row>
+    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
       <c r="C134" s="5"/>
@@ -6963,8 +7242,11 @@
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
       <c r="AA134" s="5"/>
-    </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB134" s="5"/>
+      <c r="AC134" s="5"/>
+      <c r="AD134" s="5"/>
+    </row>
+    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="6"/>
       <c r="C135" s="5"/>
@@ -6992,8 +7274,11 @@
       <c r="Y135" s="5"/>
       <c r="Z135" s="5"/>
       <c r="AA135" s="5"/>
-    </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB135" s="5"/>
+      <c r="AC135" s="5"/>
+      <c r="AD135" s="5"/>
+    </row>
+    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="6"/>
       <c r="C136" s="5"/>
@@ -7021,8 +7306,11 @@
       <c r="Y136" s="5"/>
       <c r="Z136" s="5"/>
       <c r="AA136" s="5"/>
-    </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB136" s="5"/>
+      <c r="AC136" s="5"/>
+      <c r="AD136" s="5"/>
+    </row>
+    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="6"/>
       <c r="C137" s="5"/>
@@ -7050,8 +7338,11 @@
       <c r="Y137" s="5"/>
       <c r="Z137" s="5"/>
       <c r="AA137" s="5"/>
-    </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB137" s="5"/>
+      <c r="AC137" s="5"/>
+      <c r="AD137" s="5"/>
+    </row>
+    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="B138" s="6"/>
       <c r="C138" s="5"/>
@@ -7079,8 +7370,11 @@
       <c r="Y138" s="5"/>
       <c r="Z138" s="5"/>
       <c r="AA138" s="5"/>
-    </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB138" s="5"/>
+      <c r="AC138" s="5"/>
+      <c r="AD138" s="5"/>
+    </row>
+    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="B139" s="6"/>
       <c r="C139" s="5"/>
@@ -7108,8 +7402,11 @@
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
       <c r="AA139" s="5"/>
-    </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB139" s="5"/>
+      <c r="AC139" s="5"/>
+      <c r="AD139" s="5"/>
+    </row>
+    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
       <c r="C140" s="5"/>
@@ -7137,8 +7434,11 @@
       <c r="Y140" s="5"/>
       <c r="Z140" s="5"/>
       <c r="AA140" s="5"/>
-    </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB140" s="5"/>
+      <c r="AC140" s="5"/>
+      <c r="AD140" s="5"/>
+    </row>
+    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="6"/>
       <c r="C141" s="5"/>
@@ -7166,8 +7466,11 @@
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
       <c r="AA141" s="5"/>
-    </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB141" s="5"/>
+      <c r="AC141" s="5"/>
+      <c r="AD141" s="5"/>
+    </row>
+    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="6"/>
       <c r="C142" s="5"/>
@@ -7195,8 +7498,11 @@
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
       <c r="AA142" s="5"/>
-    </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB142" s="5"/>
+      <c r="AC142" s="5"/>
+      <c r="AD142" s="5"/>
+    </row>
+    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
       <c r="C143" s="5"/>
@@ -7224,8 +7530,11 @@
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
       <c r="AA143" s="5"/>
-    </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB143" s="5"/>
+      <c r="AC143" s="5"/>
+      <c r="AD143" s="5"/>
+    </row>
+    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="B144" s="6"/>
       <c r="C144" s="5"/>
@@ -7253,8 +7562,11 @@
       <c r="Y144" s="5"/>
       <c r="Z144" s="5"/>
       <c r="AA144" s="5"/>
-    </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB144" s="5"/>
+      <c r="AC144" s="5"/>
+      <c r="AD144" s="5"/>
+    </row>
+    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="6"/>
       <c r="C145" s="5"/>
@@ -7282,8 +7594,11 @@
       <c r="Y145" s="5"/>
       <c r="Z145" s="5"/>
       <c r="AA145" s="5"/>
-    </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB145" s="5"/>
+      <c r="AC145" s="5"/>
+      <c r="AD145" s="5"/>
+    </row>
+    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="6"/>
       <c r="C146" s="5"/>
@@ -7311,8 +7626,11 @@
       <c r="Y146" s="5"/>
       <c r="Z146" s="5"/>
       <c r="AA146" s="5"/>
-    </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB146" s="5"/>
+      <c r="AC146" s="5"/>
+      <c r="AD146" s="5"/>
+    </row>
+    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="B147" s="6"/>
       <c r="C147" s="5"/>
@@ -7340,8 +7658,11 @@
       <c r="Y147" s="5"/>
       <c r="Z147" s="5"/>
       <c r="AA147" s="5"/>
-    </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB147" s="5"/>
+      <c r="AC147" s="5"/>
+      <c r="AD147" s="5"/>
+    </row>
+    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
       <c r="B148" s="6"/>
       <c r="C148" s="5"/>
@@ -7369,8 +7690,11 @@
       <c r="Y148" s="5"/>
       <c r="Z148" s="5"/>
       <c r="AA148" s="5"/>
-    </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB148" s="5"/>
+      <c r="AC148" s="5"/>
+      <c r="AD148" s="5"/>
+    </row>
+    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
       <c r="B149" s="6"/>
       <c r="C149" s="5"/>
@@ -7398,8 +7722,11 @@
       <c r="Y149" s="5"/>
       <c r="Z149" s="5"/>
       <c r="AA149" s="5"/>
-    </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB149" s="5"/>
+      <c r="AC149" s="5"/>
+      <c r="AD149" s="5"/>
+    </row>
+    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
       <c r="B150" s="6"/>
       <c r="C150" s="5"/>
@@ -7427,8 +7754,11 @@
       <c r="Y150" s="5"/>
       <c r="Z150" s="5"/>
       <c r="AA150" s="5"/>
-    </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB150" s="5"/>
+      <c r="AC150" s="5"/>
+      <c r="AD150" s="5"/>
+    </row>
+    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
       <c r="B151" s="6"/>
       <c r="C151" s="5"/>
@@ -7456,8 +7786,11 @@
       <c r="Y151" s="5"/>
       <c r="Z151" s="5"/>
       <c r="AA151" s="5"/>
-    </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB151" s="5"/>
+      <c r="AC151" s="5"/>
+      <c r="AD151" s="5"/>
+    </row>
+    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="B152" s="6"/>
       <c r="C152" s="5"/>
@@ -7485,8 +7818,11 @@
       <c r="Y152" s="5"/>
       <c r="Z152" s="5"/>
       <c r="AA152" s="5"/>
-    </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB152" s="5"/>
+      <c r="AC152" s="5"/>
+      <c r="AD152" s="5"/>
+    </row>
+    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="B153" s="6"/>
       <c r="C153" s="5"/>
@@ -7514,8 +7850,11 @@
       <c r="Y153" s="5"/>
       <c r="Z153" s="5"/>
       <c r="AA153" s="5"/>
-    </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB153" s="5"/>
+      <c r="AC153" s="5"/>
+      <c r="AD153" s="5"/>
+    </row>
+    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
       <c r="B154" s="6"/>
       <c r="C154" s="5"/>
@@ -7543,8 +7882,11 @@
       <c r="Y154" s="5"/>
       <c r="Z154" s="5"/>
       <c r="AA154" s="5"/>
-    </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB154" s="5"/>
+      <c r="AC154" s="5"/>
+      <c r="AD154" s="5"/>
+    </row>
+    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="B155" s="6"/>
       <c r="C155" s="5"/>
@@ -7572,8 +7914,11 @@
       <c r="Y155" s="5"/>
       <c r="Z155" s="5"/>
       <c r="AA155" s="5"/>
-    </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB155" s="5"/>
+      <c r="AC155" s="5"/>
+      <c r="AD155" s="5"/>
+    </row>
+    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
       <c r="B156" s="6"/>
       <c r="C156" s="5"/>
@@ -7601,8 +7946,11 @@
       <c r="Y156" s="5"/>
       <c r="Z156" s="5"/>
       <c r="AA156" s="5"/>
-    </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB156" s="5"/>
+      <c r="AC156" s="5"/>
+      <c r="AD156" s="5"/>
+    </row>
+    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="B157" s="6"/>
       <c r="C157" s="5"/>
@@ -7630,8 +7978,11 @@
       <c r="Y157" s="5"/>
       <c r="Z157" s="5"/>
       <c r="AA157" s="5"/>
-    </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB157" s="5"/>
+      <c r="AC157" s="5"/>
+      <c r="AD157" s="5"/>
+    </row>
+    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
       <c r="B158" s="6"/>
       <c r="C158" s="5"/>
@@ -7659,8 +8010,11 @@
       <c r="Y158" s="5"/>
       <c r="Z158" s="5"/>
       <c r="AA158" s="5"/>
-    </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB158" s="5"/>
+      <c r="AC158" s="5"/>
+      <c r="AD158" s="5"/>
+    </row>
+    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="B159" s="6"/>
       <c r="C159" s="5"/>
@@ -7688,8 +8042,11 @@
       <c r="Y159" s="5"/>
       <c r="Z159" s="5"/>
       <c r="AA159" s="5"/>
-    </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB159" s="5"/>
+      <c r="AC159" s="5"/>
+      <c r="AD159" s="5"/>
+    </row>
+    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
       <c r="B160" s="6"/>
       <c r="C160" s="5"/>
@@ -7717,10 +8074,141 @@
       <c r="Y160" s="5"/>
       <c r="Z160" s="5"/>
       <c r="AA160" s="5"/>
+      <c r="AB160" s="5"/>
+      <c r="AC160" s="5"/>
+      <c r="AD160" s="5"/>
+    </row>
+    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A161" s="5"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5"/>
+      <c r="M161" s="5"/>
+      <c r="N161" s="5"/>
+      <c r="O161" s="5"/>
+      <c r="P161" s="5"/>
+      <c r="Q161" s="5"/>
+      <c r="R161" s="5"/>
+      <c r="S161" s="5"/>
+      <c r="T161" s="5"/>
+      <c r="U161" s="5"/>
+      <c r="V161" s="5"/>
+      <c r="W161" s="5"/>
+      <c r="X161" s="5"/>
+      <c r="Y161" s="5"/>
+      <c r="Z161" s="5"/>
+      <c r="AA161" s="5"/>
+      <c r="AB161" s="5"/>
+      <c r="AC161" s="5"/>
+      <c r="AD161" s="5"/>
+    </row>
+    <row r="162" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A162" s="5"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="5"/>
+      <c r="O162" s="5"/>
+      <c r="P162" s="5"/>
+      <c r="Q162" s="5"/>
+      <c r="R162" s="5"/>
+      <c r="S162" s="5"/>
+      <c r="T162" s="5"/>
+      <c r="U162" s="5"/>
+      <c r="V162" s="5"/>
+      <c r="W162" s="5"/>
+      <c r="X162" s="5"/>
+      <c r="Y162" s="5"/>
+      <c r="Z162" s="5"/>
+      <c r="AA162" s="5"/>
+      <c r="AB162" s="5"/>
+      <c r="AC162" s="5"/>
+      <c r="AD162" s="5"/>
+    </row>
+    <row r="163" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A163" s="5"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="5"/>
+      <c r="M163" s="5"/>
+      <c r="N163" s="5"/>
+      <c r="O163" s="5"/>
+      <c r="P163" s="5"/>
+      <c r="Q163" s="5"/>
+      <c r="R163" s="5"/>
+      <c r="S163" s="5"/>
+      <c r="T163" s="5"/>
+      <c r="U163" s="5"/>
+      <c r="V163" s="5"/>
+      <c r="W163" s="5"/>
+      <c r="X163" s="5"/>
+      <c r="Y163" s="5"/>
+      <c r="Z163" s="5"/>
+      <c r="AA163" s="5"/>
+      <c r="AB163" s="5"/>
+      <c r="AC163" s="5"/>
+      <c r="AD163" s="5"/>
+    </row>
+    <row r="164" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A164" s="5"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
+      <c r="M164" s="5"/>
+      <c r="N164" s="5"/>
+      <c r="O164" s="5"/>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
+      <c r="R164" s="5"/>
+      <c r="S164" s="5"/>
+      <c r="T164" s="5"/>
+      <c r="U164" s="5"/>
+      <c r="V164" s="5"/>
+      <c r="W164" s="5"/>
+      <c r="X164" s="5"/>
+      <c r="Y164" s="5"/>
+      <c r="Z164" s="5"/>
+      <c r="AA164" s="5"/>
+      <c r="AB164" s="5"/>
+      <c r="AC164" s="5"/>
+      <c r="AD164" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A59:T64"/>
+    <mergeCell ref="A63:W68"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A31" r:id="rId1" display="http://www.covers.com/pageLoader/pageLoader.aspx?page=/data/mlb/matchups/g4_summary_12.html"/>
@@ -7741,12 +8229,12 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!E57:P57</xm:f>
-              <xm:sqref>D57</xm:sqref>
+              <xm:f>Sheet1!E61:Q61</xm:f>
+              <xm:sqref>D61</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!E58:O58</xm:f>
-              <xm:sqref>D58</xm:sqref>
+              <xm:f>Sheet1!E62:P62</xm:f>
+              <xm:sqref>D62</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7761,12 +8249,12 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!B57:M57</xm:f>
-              <xm:sqref>A57</xm:sqref>
+              <xm:f>Sheet1!B61:N61</xm:f>
+              <xm:sqref>A61</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!B58:L58</xm:f>
-              <xm:sqref>A58</xm:sqref>
+              <xm:f>Sheet1!B62:M62</xm:f>
+              <xm:sqref>A62</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
